--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT26"/>
+  <dimension ref="A1:BX26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,240 +556,260 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>properties.Tỉ lệ đạt KPI.number</t>
+          <t>properties.Tỉ lệ đạt KPI.formula.type</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>properties.Tỉ lệ đạt KPI.formula.number</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>properties.Chức vụ.id</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.type</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.id</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.name</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.color</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.id</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.type</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>properties.KPI.id</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>properties.KPI.type</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>properties.KPI.number</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.id</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.id</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.name</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.color</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Doanh số.id</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Doanh số.type</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Doanh số.number</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.id</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.type</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.id</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.type</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.unique_id.prefix</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.unique_id.number</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.id</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.type</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.id</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.name</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.color</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.id</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.type</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.phone_number</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.id</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.type</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.email</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.id</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.type</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.title</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select.id</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select.name</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select.color</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.start</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.end</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.time_zone</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.start</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.end</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.time_zone</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select</t>
         </is>
@@ -813,7 +833,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-22T16:51:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -847,7 +867,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -893,183 +913,205 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Nhân viên hậu cần</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr">
+      <c r="AK2" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr">
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV2" t="n">
+      <c r="AZ2" t="n">
         <v>42</v>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="BA2" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="BD2" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
+      <c r="BE2" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr">
+      <c r="BG2" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr">
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
+      <c r="BJ2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr">
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BM2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
+      <c r="BN2" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Cô Na giúp việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Na giúp việc', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1089,7 +1131,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-08T14:00:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1123,7 +1165,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1169,195 +1211,217 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr">
+      <c r="AK3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
           <t>|HxR</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>Thử việc</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr">
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV3" t="n">
+      <c r="AZ3" t="n">
         <v>40</v>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BD3" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr">
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr">
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BM3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Sang sang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sang sang', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK3" t="inlineStr">
+      <c r="BO3" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BP3" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1377,7 +1441,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-08T14:00:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1411,7 +1475,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1457,203 +1521,225 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr">
+      <c r="AK4" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>x&gt;Ke</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>Học việc</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS4" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr">
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV4" t="n">
+      <c r="AZ4" t="n">
         <v>39</v>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr">
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BJ4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr">
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'La Thị Ngọc Hà My ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'La Thị Ngọc Hà My ', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>1998-01-01</t>
         </is>
       </c>
-      <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>2024-07-01</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1673,7 +1759,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-08T14:00:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1707,7 +1793,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1753,207 +1839,229 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr">
+      <c r="AK5" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
           <t>|HxR</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>Thử việc</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr">
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV5" t="n">
+      <c r="AZ5" t="n">
         <v>38</v>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BD5" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
         <is>
           <t>0852169606</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BI5" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BJ5" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr">
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr">
+      <c r="BM5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Thị Ngọc Mi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Thị Ngọc Mi', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK5" t="inlineStr">
+      <c r="BO5" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
+      <c r="BP5" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr">
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BN5" t="inlineStr">
+      <c r="BR5" t="inlineStr">
         <is>
           <t>2004-01-13</t>
         </is>
       </c>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>2024-06-27</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1973,7 +2081,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-08T16:46:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -2007,7 +2115,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -2053,183 +2161,205 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
           <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
+      <c r="AK6" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr">
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr">
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AX6" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr">
+      <c r="AY6" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV6" t="n">
+      <c r="AZ6" t="n">
         <v>37</v>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="BA6" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
+      <c r="BD6" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="BA6" t="inlineStr">
+      <c r="BE6" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr">
+      <c r="BF6" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC6" t="inlineStr">
+      <c r="BG6" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr">
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
+      <c r="BJ6" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr">
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI6" t="inlineStr">
+      <c r="BM6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ6" t="inlineStr">
+      <c r="BN6" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Thảo', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Thảo', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK6" t="inlineStr">
+      <c r="BO6" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BL6" t="inlineStr">
+      <c r="BP6" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BM6" t="inlineStr">
+      <c r="BQ6" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2249,7 +2379,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-08T14:00:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2283,7 +2413,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -2329,203 +2459,225 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
+      <c r="AK7" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL7" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>|HxR</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>Thử việc</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr">
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AX7" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AY7" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV7" t="n">
+      <c r="AZ7" t="n">
         <v>36</v>
       </c>
-      <c r="AW7" t="inlineStr">
+      <c r="BA7" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
+      <c r="BD7" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="BA7" t="inlineStr">
+      <c r="BE7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr">
+      <c r="BF7" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC7" t="inlineStr">
+      <c r="BG7" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr">
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr">
+      <c r="BJ7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr">
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI7" t="inlineStr">
+      <c r="BM7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ7" t="inlineStr">
+      <c r="BN7" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đặng Ngọc Mai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đặng Ngọc Mai', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK7" t="inlineStr">
+      <c r="BO7" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL7" t="inlineStr">
+      <c r="BP7" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM7" t="inlineStr">
+      <c r="BQ7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BN7" t="inlineStr">
+      <c r="BR7" t="inlineStr">
         <is>
           <t>2005-01-18</t>
         </is>
       </c>
-      <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr">
-        <is>
-          <t>2024-06-17</t>
-        </is>
-      </c>
-      <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2545,7 +2697,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-22T16:51:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2579,7 +2731,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2625,195 +2777,217 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
           <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Nhân viên hậu cần</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr">
+      <c r="AK8" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL8" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr">
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AX8" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr">
+      <c r="AY8" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV8" t="n">
+      <c r="AZ8" t="n">
         <v>35</v>
       </c>
-      <c r="AW8" t="inlineStr">
+      <c r="BA8" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ8" t="inlineStr">
+      <c r="BD8" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA8" t="inlineStr">
+      <c r="BE8" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr">
+      <c r="BF8" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC8" t="inlineStr">
+      <c r="BG8" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr">
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF8" t="inlineStr">
+      <c r="BJ8" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr">
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI8" t="inlineStr">
+      <c r="BM8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ8" t="inlineStr">
+      <c r="BN8" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK8" t="inlineStr">
+      <c r="BO8" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL8" t="inlineStr">
+      <c r="BP8" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM8" t="inlineStr">
+      <c r="BQ8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2833,7 +3007,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-22T16:50:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2867,7 +3041,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2913,195 +3087,217 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
           <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr">
+      <c r="AK9" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL9" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr">
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU9" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV9" t="n">
+      <c r="AZ9" t="n">
         <v>34</v>
       </c>
-      <c r="AW9" t="inlineStr">
+      <c r="BA9" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AZ9" t="inlineStr">
+      <c r="BD9" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="BA9" t="inlineStr">
+      <c r="BE9" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr">
+      <c r="BF9" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC9" t="inlineStr">
+      <c r="BG9" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr">
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF9" t="inlineStr">
+      <c r="BJ9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr">
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI9" t="inlineStr">
+      <c r="BM9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ9" t="inlineStr">
+      <c r="BN9" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Ngoài', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK9" t="inlineStr">
+      <c r="BO9" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BL9" t="inlineStr">
+      <c r="BP9" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BM9" t="inlineStr">
+      <c r="BQ9" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3121,7 +3317,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -3155,7 +3351,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -3201,199 +3397,221 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr">
+      <c r="AK10" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL10" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr">
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AY10" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV10" t="n">
+      <c r="AZ10" t="n">
         <v>33</v>
       </c>
-      <c r="AW10" t="inlineStr">
+      <c r="BA10" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ10" t="inlineStr">
+      <c r="BD10" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA10" t="inlineStr">
+      <c r="BE10" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
+      <c r="BF10" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC10" t="inlineStr">
+      <c r="BG10" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr">
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr">
+      <c r="BJ10" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr">
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI10" t="inlineStr">
+      <c r="BM10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ10" t="inlineStr">
+      <c r="BN10" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Pen Design ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Pen Design ', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK10" t="inlineStr">
+      <c r="BO10" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BL10" t="inlineStr">
+      <c r="BP10" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BM10" t="inlineStr">
+      <c r="BQ10" t="inlineStr">
         <is>
           <t>orange</t>
-        </is>
-      </c>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr">
-        <is>
-          <t>2023-12-01</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3413,7 +3631,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -3447,7 +3665,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -3493,203 +3711,225 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr">
+      <c r="AK11" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr">
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AY11" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV11" t="n">
+      <c r="AZ11" t="n">
         <v>30</v>
       </c>
-      <c r="AW11" t="inlineStr">
+      <c r="BA11" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="BD11" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="BA11" t="inlineStr">
+      <c r="BE11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr">
+      <c r="BF11" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC11" t="inlineStr">
+      <c r="BG11" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD11" t="inlineStr">
+      <c r="BH11" t="inlineStr">
         <is>
           <t>0963316200</t>
         </is>
       </c>
-      <c r="BE11" t="inlineStr">
+      <c r="BI11" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr">
+      <c r="BJ11" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr">
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI11" t="inlineStr">
+      <c r="BM11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ11" t="inlineStr">
+      <c r="BN11" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đào Vương Anh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đào Vương Anh', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK11" t="inlineStr">
+      <c r="BO11" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL11" t="inlineStr">
+      <c r="BP11" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM11" t="inlineStr">
+      <c r="BQ11" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr">
-        <is>
-          <t>2024-02-01</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3709,7 +3949,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -3743,7 +3983,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3789,199 +4029,221 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
+      <c r="Z12" t="n">
+        <v>0.3563</v>
+      </c>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr">
+      <c r="AK12" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS12" t="n">
+        <v>10688000</v>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr">
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AX12" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr">
+      <c r="AY12" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV12" t="n">
+      <c r="AZ12" t="n">
         <v>29</v>
       </c>
-      <c r="AW12" t="inlineStr">
+      <c r="BA12" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
+      <c r="BD12" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr">
+      <c r="BE12" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr">
+      <c r="BF12" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC12" t="inlineStr">
+      <c r="BG12" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr">
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr">
+      <c r="BJ12" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr">
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI12" t="inlineStr">
+      <c r="BM12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ12" t="inlineStr">
+      <c r="BN12" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lâm Hoàng Phú', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Hoàng Phú', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK12" t="inlineStr">
+      <c r="BO12" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL12" t="inlineStr">
+      <c r="BP12" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM12" t="inlineStr">
+      <c r="BQ12" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4001,7 +4263,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -4035,7 +4297,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -4081,199 +4343,221 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr">
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
           <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>Nhân viên hậu cần</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr">
+      <c r="AK13" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL13" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr">
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AX13" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr">
+      <c r="AY13" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV13" t="n">
+      <c r="AZ13" t="n">
         <v>27</v>
       </c>
-      <c r="AW13" t="inlineStr">
+      <c r="BA13" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="BD13" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="BA13" t="inlineStr">
+      <c r="BE13" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr">
+      <c r="BF13" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC13" t="inlineStr">
+      <c r="BG13" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr">
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF13" t="inlineStr">
+      <c r="BJ13" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr">
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI13" t="inlineStr">
+      <c r="BM13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ13" t="inlineStr">
+      <c r="BN13" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Cô Siêng giúp Việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Siêng giúp Việc', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK13" t="inlineStr">
+      <c r="BO13" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL13" t="inlineStr">
+      <c r="BP13" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM13" t="inlineStr">
+      <c r="BQ13" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr">
-        <is>
-          <t>2023-12-01</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4293,7 +4577,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -4327,7 +4611,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -4373,203 +4657,225 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr">
+      <c r="AK14" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL14" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr">
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr">
+      <c r="AY14" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV14" t="n">
+      <c r="AZ14" t="n">
         <v>26</v>
       </c>
-      <c r="AW14" t="inlineStr">
+      <c r="BA14" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr">
+      <c r="BD14" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="BA14" t="inlineStr">
+      <c r="BE14" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr">
+      <c r="BF14" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC14" t="inlineStr">
+      <c r="BG14" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD14" t="inlineStr">
+      <c r="BH14" t="inlineStr">
         <is>
           <t>0386381682</t>
         </is>
       </c>
-      <c r="BE14" t="inlineStr">
+      <c r="BI14" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF14" t="inlineStr">
+      <c r="BJ14" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr">
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI14" t="inlineStr">
+      <c r="BM14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ14" t="inlineStr">
+      <c r="BN14" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Trần Khánh Hiệp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trần Khánh Hiệp', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK14" t="inlineStr">
+      <c r="BO14" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL14" t="inlineStr">
+      <c r="BP14" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM14" t="inlineStr">
+      <c r="BQ14" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
-      <c r="BQ14" t="inlineStr">
-        <is>
-          <t>2023-12-01</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4589,7 +4895,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -4623,7 +4929,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -4669,203 +4975,225 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr">
+      <c r="Z15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr">
+      <c r="AK15" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL15" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM15" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS15" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr">
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AX15" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
+      <c r="AY15" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV15" t="n">
+      <c r="AZ15" t="n">
         <v>23</v>
       </c>
-      <c r="AW15" t="inlineStr">
+      <c r="BA15" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX15" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AZ15" t="inlineStr">
+      <c r="BD15" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="BA15" t="inlineStr">
+      <c r="BE15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr">
+      <c r="BF15" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC15" t="inlineStr">
+      <c r="BG15" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD15" t="inlineStr">
+      <c r="BH15" t="inlineStr">
         <is>
           <t>0988302615</t>
         </is>
       </c>
-      <c r="BE15" t="inlineStr">
+      <c r="BI15" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF15" t="inlineStr">
+      <c r="BJ15" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr">
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI15" t="inlineStr">
+      <c r="BM15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ15" t="inlineStr">
+      <c r="BN15" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Hoàng Thanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Hoàng Thanh', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK15" t="inlineStr">
+      <c r="BO15" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL15" t="inlineStr">
+      <c r="BP15" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM15" t="inlineStr">
+      <c r="BQ15" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr">
-        <is>
-          <t>2024-02-01</t>
         </is>
       </c>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4885,7 +5213,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -4919,7 +5247,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4965,203 +5293,225 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
+      <c r="Z16" t="n">
+        <v>0.9617</v>
+      </c>
+      <c r="AA16" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
           <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Quản trị viên</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr">
+      <c r="AK16" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL16" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM16" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
           <t>?Jwa</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>Quản trị cơ sở</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS16" t="n">
+        <v>28850000</v>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr">
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AX16" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr">
+      <c r="AY16" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV16" t="n">
+      <c r="AZ16" t="n">
         <v>22</v>
       </c>
-      <c r="AW16" t="inlineStr">
+      <c r="BA16" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AZ16" t="inlineStr">
+      <c r="BD16" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="BA16" t="inlineStr">
+      <c r="BE16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr">
+      <c r="BF16" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC16" t="inlineStr">
+      <c r="BG16" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD16" t="inlineStr">
+      <c r="BH16" t="inlineStr">
         <is>
           <t>0982136861</t>
         </is>
       </c>
-      <c r="BE16" t="inlineStr">
+      <c r="BI16" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF16" t="inlineStr">
+      <c r="BJ16" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr">
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI16" t="inlineStr">
+      <c r="BM16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ16" t="inlineStr">
+      <c r="BN16" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Nguyễn Phúc Nam', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Phúc Nam', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK16" t="inlineStr">
+      <c r="BO16" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL16" t="inlineStr">
+      <c r="BP16" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM16" t="inlineStr">
+      <c r="BQ16" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN16" t="inlineStr"/>
-      <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
         </is>
       </c>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
       <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>2023-05-01</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5181,7 +5531,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -5215,7 +5565,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -5261,195 +5611,217 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr">
+      <c r="Z17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA17" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
           <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>CTV</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr">
+      <c r="AK17" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL17" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM17" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS17" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr">
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AX17" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr">
+      <c r="AY17" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV17" t="n">
+      <c r="AZ17" t="n">
         <v>20</v>
       </c>
-      <c r="AW17" t="inlineStr">
+      <c r="BA17" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX17" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AZ17" t="inlineStr">
+      <c r="BD17" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="BA17" t="inlineStr">
+      <c r="BE17" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr">
+      <c r="BF17" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC17" t="inlineStr">
+      <c r="BG17" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr">
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF17" t="inlineStr">
+      <c r="BJ17" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr">
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI17" t="inlineStr">
+      <c r="BM17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ17" t="inlineStr">
+      <c r="BN17" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'CTV Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'CTV Ngoài', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK17" t="inlineStr">
+      <c r="BO17" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BL17" t="inlineStr">
+      <c r="BP17" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BM17" t="inlineStr">
+      <c r="BQ17" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
-      <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5469,7 +5841,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-23T18:57:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -5503,7 +5875,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -5549,203 +5921,225 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr">
+      <c r="Z18" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="AA18" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr">
+      <c r="AK18" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL18" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM18" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS18" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr">
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AX18" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr">
+      <c r="AY18" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV18" t="n">
+      <c r="AZ18" t="n">
         <v>16</v>
       </c>
-      <c r="AW18" t="inlineStr">
+      <c r="BA18" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX18" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AZ18" t="inlineStr">
+      <c r="BD18" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="BA18" t="inlineStr">
+      <c r="BE18" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr">
+      <c r="BF18" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC18" t="inlineStr">
+      <c r="BG18" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD18" t="inlineStr">
+      <c r="BH18" t="inlineStr">
         <is>
           <t>0907058203</t>
         </is>
       </c>
-      <c r="BE18" t="inlineStr">
+      <c r="BI18" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF18" t="inlineStr">
+      <c r="BJ18" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr">
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI18" t="inlineStr">
+      <c r="BM18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ18" t="inlineStr">
+      <c r="BN18" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Kha Như Huỳnh ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Kha Như Huỳnh ', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK18" t="inlineStr">
+      <c r="BO18" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL18" t="inlineStr">
+      <c r="BP18" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM18" t="inlineStr">
+      <c r="BQ18" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN18" t="inlineStr"/>
-      <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="inlineStr">
-        <is>
-          <t>2023-11-01</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
       <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5765,7 +6159,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -5799,7 +6193,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -5845,203 +6239,225 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr">
+      <c r="Z19" t="n">
+        <v>0.0867</v>
+      </c>
+      <c r="AA19" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
           <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>Nhân viên hậu cần</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr">
+      <c r="AK19" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL19" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM19" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS19" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr">
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AX19" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr">
+      <c r="AY19" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV19" t="n">
+      <c r="AZ19" t="n">
         <v>15</v>
       </c>
-      <c r="AW19" t="inlineStr">
+      <c r="BA19" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX19" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr">
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ19" t="inlineStr">
+      <c r="BD19" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA19" t="inlineStr">
+      <c r="BE19" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr">
+      <c r="BF19" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC19" t="inlineStr">
+      <c r="BG19" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD19" t="inlineStr">
+      <c r="BH19" t="inlineStr">
         <is>
           <t>0799609322</t>
         </is>
       </c>
-      <c r="BE19" t="inlineStr">
+      <c r="BI19" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF19" t="inlineStr">
+      <c r="BJ19" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr">
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI19" t="inlineStr">
+      <c r="BM19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ19" t="inlineStr">
+      <c r="BN19" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Trương Lâm Khanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trương Lâm Khanh', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK19" t="inlineStr">
+      <c r="BO19" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL19" t="inlineStr">
+      <c r="BP19" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM19" t="inlineStr">
+      <c r="BQ19" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN19" t="inlineStr"/>
-      <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="inlineStr">
-        <is>
-          <t>2024-02-15</t>
         </is>
       </c>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6061,7 +6477,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -6095,7 +6511,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -6141,203 +6557,225 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr">
+      <c r="Z20" t="n">
+        <v>2.141</v>
+      </c>
+      <c r="AA20" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr">
+      <c r="AK20" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL20" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM20" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS20" t="n">
+        <v>64230000</v>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr">
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AX20" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr">
+      <c r="AY20" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV20" t="n">
+      <c r="AZ20" t="n">
         <v>11</v>
       </c>
-      <c r="AW20" t="inlineStr">
+      <c r="BA20" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX20" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ20" t="inlineStr">
+      <c r="BD20" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA20" t="inlineStr">
+      <c r="BE20" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr">
+      <c r="BF20" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC20" t="inlineStr">
+      <c r="BG20" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD20" t="inlineStr">
+      <c r="BH20" t="inlineStr">
         <is>
           <t>0912931220</t>
         </is>
       </c>
-      <c r="BE20" t="inlineStr">
+      <c r="BI20" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF20" t="inlineStr">
+      <c r="BJ20" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr">
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI20" t="inlineStr">
+      <c r="BM20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ20" t="inlineStr">
+      <c r="BN20" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đỗ Thị Huyền Trân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Thị Huyền Trân', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK20" t="inlineStr">
+      <c r="BO20" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL20" t="inlineStr">
+      <c r="BP20" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM20" t="inlineStr">
+      <c r="BQ20" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN20" t="inlineStr"/>
-      <c r="BO20" t="inlineStr"/>
-      <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="inlineStr">
-        <is>
-          <t>2024-02-15</t>
         </is>
       </c>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
       <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6357,7 +6795,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-08T13:58:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -6391,7 +6829,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -6437,203 +6875,225 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr">
+      <c r="Z21" t="n">
+        <v>4.2333</v>
+      </c>
+      <c r="AA21" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr">
+      <c r="AK21" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL21" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM21" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
           <t>?Jwa</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>Quản trị cơ sở</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS21" t="n">
+        <v>127000000</v>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr">
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AX21" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
+      <c r="AY21" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV21" t="n">
+      <c r="AZ21" t="n">
         <v>10</v>
       </c>
-      <c r="AW21" t="inlineStr">
+      <c r="BA21" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX21" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AZ21" t="inlineStr">
+      <c r="BD21" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="BA21" t="inlineStr">
+      <c r="BE21" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB21" t="inlineStr">
+      <c r="BF21" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC21" t="inlineStr">
+      <c r="BG21" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD21" t="inlineStr">
+      <c r="BH21" t="inlineStr">
         <is>
           <t>0879533217</t>
         </is>
       </c>
-      <c r="BE21" t="inlineStr">
+      <c r="BI21" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF21" t="inlineStr">
+      <c r="BJ21" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr">
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI21" t="inlineStr">
+      <c r="BM21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ21" t="inlineStr">
+      <c r="BN21" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Đình Hậu', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Đình Hậu', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK21" t="inlineStr">
+      <c r="BO21" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL21" t="inlineStr">
+      <c r="BP21" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM21" t="inlineStr">
+      <c r="BQ21" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN21" t="inlineStr"/>
-      <c r="BO21" t="inlineStr"/>
-      <c r="BP21" t="inlineStr"/>
-      <c r="BQ21" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
         </is>
       </c>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6653,7 +7113,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-08T13:58:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -6687,7 +7147,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -6733,199 +7193,221 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr">
+      <c r="Z22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AA22" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB22" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
           <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>Quản lý vận hành</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr">
+      <c r="AK22" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL22" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM22" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
           <t>]EdZ</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>Quản trị cấp cao</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>gray</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS22" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="AT22" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr">
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AX22" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr">
+      <c r="AY22" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV22" t="n">
+      <c r="AZ22" t="n">
         <v>9</v>
       </c>
-      <c r="AW22" t="inlineStr">
+      <c r="BA22" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX22" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ22" t="inlineStr">
+      <c r="BD22" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA22" t="inlineStr">
+      <c r="BE22" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB22" t="inlineStr">
+      <c r="BF22" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC22" t="inlineStr">
+      <c r="BG22" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr">
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF22" t="inlineStr">
+      <c r="BJ22" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr">
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI22" t="inlineStr">
+      <c r="BM22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ22" t="inlineStr">
+      <c r="BN22" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Văn Linh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Văn Linh', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK22" t="inlineStr">
+      <c r="BO22" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL22" t="inlineStr">
+      <c r="BP22" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM22" t="inlineStr">
+      <c r="BQ22" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN22" t="inlineStr"/>
-      <c r="BO22" t="inlineStr"/>
-      <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
         </is>
       </c>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6945,7 +7427,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-08T13:58:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -6979,7 +7461,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -7025,199 +7507,221 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr">
+      <c r="Z23" t="n">
+        <v>2.2333</v>
+      </c>
+      <c r="AA23" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB23" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
           <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr">
+      <c r="AK23" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL23" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM23" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS23" t="n">
+        <v>67000000</v>
+      </c>
+      <c r="AT23" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr">
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AX23" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr">
+      <c r="AY23" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV23" t="n">
+      <c r="AZ23" t="n">
         <v>7</v>
       </c>
-      <c r="AW23" t="inlineStr">
+      <c r="BA23" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX23" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ23" t="inlineStr">
+      <c r="BD23" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA23" t="inlineStr">
+      <c r="BE23" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB23" t="inlineStr">
+      <c r="BF23" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC23" t="inlineStr">
+      <c r="BG23" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD23" t="inlineStr"/>
-      <c r="BE23" t="inlineStr">
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF23" t="inlineStr">
+      <c r="BJ23" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr">
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI23" t="inlineStr">
+      <c r="BM23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ23" t="inlineStr">
+      <c r="BN23" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Phạm Thanh Hoàng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phạm Thanh Hoàng', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK23" t="inlineStr">
+      <c r="BO23" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL23" t="inlineStr">
+      <c r="BP23" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM23" t="inlineStr">
+      <c r="BQ23" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN23" t="inlineStr"/>
-      <c r="BO23" t="inlineStr"/>
-      <c r="BP23" t="inlineStr"/>
-      <c r="BQ23" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
         </is>
       </c>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
       <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7237,7 +7741,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-08T13:58:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -7271,7 +7775,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -7317,199 +7821,221 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
+      <c r="Z24" t="n">
+        <v>3.2233</v>
+      </c>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
           <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>Quản lý vận hành</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr">
+      <c r="AK24" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL24" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM24" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
           <t>]EdZ</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>Quản trị cấp cao</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>gray</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS24" t="n">
+        <v>96700000</v>
+      </c>
+      <c r="AT24" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr">
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AX24" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU24" t="inlineStr">
+      <c r="AY24" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV24" t="n">
+      <c r="AZ24" t="n">
         <v>6</v>
       </c>
-      <c r="AW24" t="inlineStr">
+      <c r="BA24" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX24" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ24" t="inlineStr">
+      <c r="BD24" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA24" t="inlineStr">
+      <c r="BE24" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB24" t="inlineStr">
+      <c r="BF24" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC24" t="inlineStr">
+      <c r="BG24" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD24" t="inlineStr"/>
-      <c r="BE24" t="inlineStr">
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF24" t="inlineStr">
+      <c r="BJ24" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr">
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI24" t="inlineStr">
+      <c r="BM24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ24" t="inlineStr">
+      <c r="BN24" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Mỹ Hằng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Mỹ Hằng', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK24" t="inlineStr">
+      <c r="BO24" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL24" t="inlineStr">
+      <c r="BP24" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM24" t="inlineStr">
+      <c r="BQ24" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="BN24" t="inlineStr"/>
-      <c r="BO24" t="inlineStr"/>
-      <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
         </is>
       </c>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
       <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7529,7 +8055,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-08T13:58:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -7563,7 +8089,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -7609,207 +8135,229 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr">
+      <c r="Z25" t="n">
+        <v>0.3967</v>
+      </c>
+      <c r="AA25" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
           <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>Quản trị viên</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr">
+      <c r="AK25" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL25" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM25" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
           <t>?Jwa</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>Quản trị cơ sở</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS25" t="n">
+        <v>11900000</v>
+      </c>
+      <c r="AT25" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr">
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AX25" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU25" t="inlineStr">
+      <c r="AY25" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV25" t="n">
+      <c r="AZ25" t="n">
         <v>5</v>
       </c>
-      <c r="AW25" t="inlineStr">
+      <c r="BA25" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX25" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr">
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AZ25" t="inlineStr">
+      <c r="BD25" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BA25" t="inlineStr">
+      <c r="BE25" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB25" t="inlineStr">
+      <c r="BF25" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC25" t="inlineStr">
+      <c r="BG25" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD25" t="inlineStr">
+      <c r="BH25" t="inlineStr">
         <is>
           <t>0898833566</t>
         </is>
       </c>
-      <c r="BE25" t="inlineStr">
+      <c r="BI25" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF25" t="inlineStr">
+      <c r="BJ25" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr">
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI25" t="inlineStr">
+      <c r="BM25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ25" t="inlineStr">
+      <c r="BN25" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hoàng Yến Quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hoàng Yến Quyên', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK25" t="inlineStr">
+      <c r="BO25" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BL25" t="inlineStr">
+      <c r="BP25" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BM25" t="inlineStr">
+      <c r="BQ25" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BN25" t="inlineStr">
+      <c r="BR25" t="inlineStr">
         <is>
           <t>2002-08-15</t>
         </is>
       </c>
-      <c r="BO25" t="inlineStr"/>
-      <c r="BP25" t="inlineStr"/>
-      <c r="BQ25" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
       <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7829,7 +8377,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-08T13:58:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -7863,7 +8411,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -7909,195 +8457,217 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
+      <c r="Z26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA26" t="inlineStr">
         <is>
           <t>LgyH</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
           <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>CTV</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>Mb%3CL</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr">
         <is>
           <t>O%5BJN</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr">
+      <c r="AK26" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AL26" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
       <c r="AM26" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>jn%3BH</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AS26" t="n">
+        <v>66000000</v>
+      </c>
+      <c r="AT26" t="inlineStr">
         <is>
           <t>jr%3F%3A</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr">
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
         <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AX26" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AU26" t="inlineStr">
+      <c r="AY26" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AV26" t="n">
+      <c r="AZ26" t="n">
         <v>4</v>
       </c>
-      <c r="AW26" t="inlineStr">
+      <c r="BA26" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AX26" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr">
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AZ26" t="inlineStr">
+      <c r="BD26" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="BA26" t="inlineStr">
+      <c r="BE26" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr">
+      <c r="BF26" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="BC26" t="inlineStr">
+      <c r="BG26" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="BD26" t="inlineStr"/>
-      <c r="BE26" t="inlineStr">
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="BF26" t="inlineStr">
+      <c r="BJ26" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr">
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BI26" t="inlineStr">
+      <c r="BM26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BJ26" t="inlineStr">
+      <c r="BN26" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Thạch Hoàng Nhân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thạch Hoàng Nhân', 'href': None}]</t>
         </is>
       </c>
-      <c r="BK26" t="inlineStr">
+      <c r="BO26" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BL26" t="inlineStr">
+      <c r="BP26" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BM26" t="inlineStr">
+      <c r="BQ26" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BN26" t="inlineStr"/>
-      <c r="BO26" t="inlineStr"/>
-      <c r="BP26" t="inlineStr"/>
-      <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr"/>
+      <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -394,10 +394,10 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:18:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T03:17:00.000Z</t>
+    <t>2024-08-03T03:29:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T03:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/C-Na-gi-p-vi-c-35f449552223488a82748db6f726d9f7</t>
@@ -4700,7 +4700,7 @@
         <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -394,10 +394,10 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:29:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T03:28:00.000Z</t>
+    <t>2024-08-03T03:55:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T03:54:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/C-Na-gi-p-vi-c-35f449552223488a82748db6f726d9f7</t>
@@ -2065,7 +2065,7 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -4324,7 +4324,7 @@
         <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -409,10 +409,10 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T20:15:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T20:14:00.000Z</t>
+    <t>2024-08-03T21:28:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T21:27:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/quy-n-794bc8d2e43b4acb920ecf6b31502f1a</t>
@@ -4309,7 +4309,7 @@
         <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="299">
   <si>
     <t>object</t>
   </si>
@@ -409,10 +409,7 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T21:28:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T21:27:00.000Z</t>
+    <t>2024-08-09T19:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/quy-n-794bc8d2e43b4acb920ecf6b31502f1a</t>
@@ -1549,127 +1546,127 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" t="s">
         <v>159</v>
       </c>
-      <c r="L2" t="s">
-        <v>160</v>
-      </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" t="s">
         <v>163</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>164</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>165</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>166</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>167</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>168</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>169</v>
       </c>
-      <c r="V2" t="s">
-        <v>170</v>
-      </c>
       <c r="W2" t="s">
+        <v>180</v>
+      </c>
+      <c r="X2" t="s">
         <v>181</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>182</v>
       </c>
-      <c r="Y2" t="s">
-        <v>183</v>
-      </c>
       <c r="AA2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD2" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG2" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>188</v>
       </c>
-      <c r="AH2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM2" t="s">
         <v>189</v>
       </c>
-      <c r="AK2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
         <v>190</v>
       </c>
-      <c r="AN2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS2" t="s">
         <v>191</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>192</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>193</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>194</v>
       </c>
       <c r="AV2">
         <v>45</v>
       </c>
       <c r="AW2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>195</v>
       </c>
-      <c r="AX2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>196</v>
       </c>
-      <c r="BA2" t="s">
-        <v>197</v>
-      </c>
       <c r="BC2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD2" t="s">
         <v>208</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>209</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH2" t="s">
         <v>210</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:79">
@@ -1692,163 +1689,163 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" t="s">
         <v>163</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>164</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>165</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>166</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>167</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>168</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>169</v>
       </c>
-      <c r="V3" t="s">
-        <v>170</v>
-      </c>
       <c r="W3" t="s">
+        <v>180</v>
+      </c>
+      <c r="X3" t="s">
         <v>181</v>
       </c>
-      <c r="X3" t="s">
-        <v>182</v>
-      </c>
       <c r="Y3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA3" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" t="s">
-        <v>185</v>
-      </c>
       <c r="AB3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD3" t="s">
         <v>186</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG3" t="s">
         <v>187</v>
       </c>
-      <c r="AE3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>188</v>
-      </c>
       <c r="AH3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI3">
         <v>30000000</v>
       </c>
       <c r="AJ3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM3" t="s">
         <v>189</v>
       </c>
-      <c r="AK3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
         <v>190</v>
       </c>
-      <c r="AN3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS3" t="s">
         <v>191</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>192</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>193</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>194</v>
       </c>
       <c r="AV3">
         <v>42</v>
       </c>
       <c r="AW3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>195</v>
       </c>
-      <c r="AX3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>196</v>
       </c>
-      <c r="BA3" t="s">
-        <v>197</v>
-      </c>
       <c r="BC3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD3" t="s">
         <v>208</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>209</v>
       </c>
-      <c r="BF3" t="s">
-        <v>210</v>
-      </c>
       <c r="BG3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BK3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BL3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BM3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BP3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BS3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BU3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:79">
@@ -1871,172 +1868,172 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" t="s">
         <v>162</v>
       </c>
-      <c r="M4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>163</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>164</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>166</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>167</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>168</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>169</v>
       </c>
-      <c r="V4" t="s">
-        <v>170</v>
-      </c>
       <c r="W4" t="s">
+        <v>180</v>
+      </c>
+      <c r="X4" t="s">
         <v>181</v>
       </c>
-      <c r="X4" t="s">
-        <v>182</v>
-      </c>
       <c r="Y4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA4" t="s">
         <v>184</v>
       </c>
-      <c r="AA4" t="s">
-        <v>185</v>
-      </c>
       <c r="AB4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD4" t="s">
         <v>186</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG4" t="s">
         <v>187</v>
       </c>
-      <c r="AE4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>188</v>
-      </c>
       <c r="AH4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI4">
         <v>30000000</v>
       </c>
       <c r="AJ4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM4" t="s">
         <v>189</v>
       </c>
-      <c r="AK4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS4" t="s">
         <v>191</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>192</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>193</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>194</v>
       </c>
       <c r="AV4">
         <v>40</v>
       </c>
       <c r="AW4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>195</v>
       </c>
-      <c r="AX4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>196</v>
       </c>
-      <c r="BA4" t="s">
-        <v>197</v>
-      </c>
       <c r="BC4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD4" t="s">
         <v>208</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>209</v>
       </c>
-      <c r="BF4" t="s">
-        <v>210</v>
-      </c>
       <c r="BG4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BI4">
         <v>0</v>
       </c>
       <c r="BJ4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BK4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BN4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BO4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BP4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BS4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BT4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BU4" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV4" t="s">
         <v>291</v>
       </c>
-      <c r="BV4" t="s">
-        <v>292</v>
-      </c>
       <c r="BW4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:79">
@@ -2059,175 +2056,175 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" t="s">
         <v>162</v>
       </c>
-      <c r="M5" t="s">
-        <v>159</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>163</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>164</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>165</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>166</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>167</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>168</v>
       </c>
-      <c r="U5" t="s">
-        <v>169</v>
-      </c>
       <c r="V5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W5" t="s">
+        <v>180</v>
+      </c>
+      <c r="X5" t="s">
         <v>181</v>
       </c>
-      <c r="X5" t="s">
-        <v>182</v>
-      </c>
       <c r="Y5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA5" t="s">
         <v>184</v>
       </c>
-      <c r="AA5" t="s">
-        <v>185</v>
-      </c>
       <c r="AB5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD5" t="s">
         <v>186</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG5" t="s">
         <v>187</v>
       </c>
-      <c r="AE5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>188</v>
-      </c>
       <c r="AH5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI5">
         <v>30000000</v>
       </c>
       <c r="AJ5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM5" t="s">
         <v>189</v>
       </c>
-      <c r="AK5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="s">
         <v>190</v>
       </c>
-      <c r="AN5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS5" t="s">
         <v>191</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>192</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>193</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>194</v>
       </c>
       <c r="AV5">
         <v>39</v>
       </c>
       <c r="AW5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>195</v>
       </c>
-      <c r="AX5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>196</v>
       </c>
-      <c r="BA5" t="s">
-        <v>197</v>
-      </c>
       <c r="BC5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD5" t="s">
         <v>208</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BF5" t="s">
         <v>209</v>
       </c>
-      <c r="BF5" t="s">
-        <v>210</v>
-      </c>
       <c r="BG5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BK5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>259</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>264</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>282</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>286</v>
+      </c>
+      <c r="BU5" t="s">
         <v>252</v>
       </c>
-      <c r="BM5" t="s">
-        <v>260</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>265</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>254</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>283</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>287</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>253</v>
-      </c>
       <c r="BV5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BY5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:79">
@@ -2250,178 +2247,178 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" t="s">
         <v>162</v>
       </c>
-      <c r="M6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>163</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>164</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>165</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>166</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>167</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>168</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>169</v>
       </c>
-      <c r="V6" t="s">
-        <v>170</v>
-      </c>
       <c r="W6" t="s">
+        <v>180</v>
+      </c>
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
-        <v>182</v>
-      </c>
       <c r="Y6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA6" t="s">
         <v>184</v>
       </c>
-      <c r="AA6" t="s">
-        <v>185</v>
-      </c>
       <c r="AB6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD6" t="s">
         <v>186</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG6" t="s">
         <v>187</v>
       </c>
-      <c r="AE6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>188</v>
-      </c>
       <c r="AH6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI6">
         <v>30000000</v>
       </c>
       <c r="AJ6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM6" t="s">
         <v>189</v>
       </c>
-      <c r="AK6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="s">
         <v>190</v>
       </c>
-      <c r="AN6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS6" t="s">
         <v>191</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>192</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>193</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>194</v>
       </c>
       <c r="AV6">
         <v>38</v>
       </c>
       <c r="AW6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>195</v>
       </c>
-      <c r="AX6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>196</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>197</v>
       </c>
-      <c r="BB6" t="s">
-        <v>198</v>
-      </c>
       <c r="BC6" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD6" t="s">
         <v>208</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BF6" t="s">
         <v>209</v>
       </c>
-      <c r="BF6" t="s">
-        <v>210</v>
-      </c>
       <c r="BG6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BK6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BN6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BO6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BP6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BS6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BT6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BU6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BV6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BY6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:79">
@@ -2444,160 +2441,160 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" t="s">
         <v>162</v>
       </c>
-      <c r="M7" t="s">
-        <v>159</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>163</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>164</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>165</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>166</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>167</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>168</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>169</v>
       </c>
-      <c r="V7" t="s">
-        <v>170</v>
-      </c>
       <c r="W7" t="s">
+        <v>180</v>
+      </c>
+      <c r="X7" t="s">
         <v>181</v>
       </c>
-      <c r="X7" t="s">
-        <v>182</v>
-      </c>
       <c r="Y7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA7" t="s">
         <v>184</v>
       </c>
-      <c r="AA7" t="s">
-        <v>185</v>
-      </c>
       <c r="AB7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD7" t="s">
         <v>186</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG7" t="s">
         <v>187</v>
       </c>
-      <c r="AE7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>188</v>
-      </c>
       <c r="AH7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI7">
         <v>30000000</v>
       </c>
       <c r="AJ7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM7" t="s">
         <v>189</v>
       </c>
-      <c r="AK7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="s">
         <v>190</v>
       </c>
-      <c r="AN7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS7" t="s">
         <v>191</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>192</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>193</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>194</v>
       </c>
       <c r="AV7">
         <v>37</v>
       </c>
       <c r="AW7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>195</v>
       </c>
-      <c r="AX7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>196</v>
       </c>
-      <c r="BA7" t="s">
-        <v>197</v>
-      </c>
       <c r="BC7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD7" t="s">
         <v>208</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BF7" t="s">
         <v>209</v>
       </c>
-      <c r="BF7" t="s">
-        <v>210</v>
-      </c>
       <c r="BG7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BK7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BL7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BS7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BT7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BU7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BV7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BW7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BX7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:79">
@@ -2620,175 +2617,175 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N8" t="s">
         <v>162</v>
       </c>
-      <c r="M8" t="s">
-        <v>159</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>163</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>164</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>166</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>167</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>168</v>
       </c>
-      <c r="U8" t="s">
-        <v>169</v>
-      </c>
       <c r="V8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W8" t="s">
+        <v>180</v>
+      </c>
+      <c r="X8" t="s">
         <v>181</v>
       </c>
-      <c r="X8" t="s">
-        <v>182</v>
-      </c>
       <c r="Y8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA8" t="s">
         <v>184</v>
       </c>
-      <c r="AA8" t="s">
-        <v>185</v>
-      </c>
       <c r="AB8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD8" t="s">
         <v>186</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG8" t="s">
         <v>187</v>
       </c>
-      <c r="AE8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>188</v>
-      </c>
       <c r="AH8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI8">
         <v>30000000</v>
       </c>
       <c r="AJ8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM8" t="s">
         <v>189</v>
       </c>
-      <c r="AK8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="s">
         <v>190</v>
       </c>
-      <c r="AN8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS8" t="s">
         <v>191</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>192</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>193</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>194</v>
       </c>
       <c r="AV8">
         <v>36</v>
       </c>
       <c r="AW8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>195</v>
       </c>
-      <c r="AX8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>196</v>
       </c>
-      <c r="BA8" t="s">
-        <v>197</v>
-      </c>
       <c r="BC8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD8" t="s">
         <v>208</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BF8" t="s">
         <v>209</v>
       </c>
-      <c r="BF8" t="s">
-        <v>210</v>
-      </c>
       <c r="BG8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BI8">
         <v>0</v>
       </c>
       <c r="BJ8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BK8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BL8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BM8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BN8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BO8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BP8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BS8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BT8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BU8" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV8" t="s">
         <v>291</v>
       </c>
-      <c r="BV8" t="s">
-        <v>292</v>
-      </c>
       <c r="BW8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BY8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:79">
@@ -2811,169 +2808,169 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" t="s">
         <v>163</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>164</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>165</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>166</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>167</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>168</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>169</v>
       </c>
-      <c r="V9" t="s">
-        <v>170</v>
-      </c>
       <c r="W9" t="s">
+        <v>180</v>
+      </c>
+      <c r="X9" t="s">
         <v>181</v>
       </c>
-      <c r="X9" t="s">
-        <v>182</v>
-      </c>
       <c r="Y9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA9" t="s">
         <v>184</v>
       </c>
-      <c r="AA9" t="s">
-        <v>185</v>
-      </c>
       <c r="AB9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD9" t="s">
         <v>186</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>188</v>
-      </c>
       <c r="AH9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI9">
         <v>30000000</v>
       </c>
       <c r="AJ9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM9" t="s">
         <v>189</v>
       </c>
-      <c r="AK9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="s">
         <v>190</v>
       </c>
-      <c r="AN9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS9" t="s">
         <v>191</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>192</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>193</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>194</v>
       </c>
       <c r="AV9">
         <v>35</v>
       </c>
       <c r="AW9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>195</v>
       </c>
-      <c r="AX9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>196</v>
       </c>
-      <c r="BA9" t="s">
-        <v>197</v>
-      </c>
       <c r="BC9" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD9" t="s">
         <v>208</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BF9" t="s">
         <v>209</v>
       </c>
-      <c r="BF9" t="s">
-        <v>210</v>
-      </c>
       <c r="BG9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BK9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BL9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BM9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BS9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BU9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BV9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:79">
@@ -2996,169 +2993,169 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K10" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" t="s">
         <v>159</v>
       </c>
-      <c r="L10" t="s">
-        <v>160</v>
-      </c>
       <c r="M10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N10" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" t="s">
         <v>163</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>164</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>165</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>166</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>167</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>168</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>169</v>
       </c>
-      <c r="V10" t="s">
-        <v>170</v>
-      </c>
       <c r="W10" t="s">
+        <v>180</v>
+      </c>
+      <c r="X10" t="s">
         <v>181</v>
       </c>
-      <c r="X10" t="s">
-        <v>182</v>
-      </c>
       <c r="Y10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA10" t="s">
         <v>184</v>
       </c>
-      <c r="AA10" t="s">
-        <v>185</v>
-      </c>
       <c r="AB10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG10" t="s">
         <v>187</v>
       </c>
-      <c r="AE10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>188</v>
-      </c>
       <c r="AH10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI10">
         <v>30000000</v>
       </c>
       <c r="AJ10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM10" t="s">
         <v>189</v>
       </c>
-      <c r="AK10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="s">
         <v>190</v>
       </c>
-      <c r="AN10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS10" t="s">
         <v>191</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>192</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>193</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>194</v>
       </c>
       <c r="AV10">
         <v>34</v>
       </c>
       <c r="AW10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>195</v>
       </c>
-      <c r="AX10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>196</v>
       </c>
-      <c r="BA10" t="s">
-        <v>197</v>
-      </c>
       <c r="BC10" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD10" t="s">
         <v>208</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BF10" t="s">
         <v>209</v>
       </c>
-      <c r="BF10" t="s">
-        <v>210</v>
-      </c>
       <c r="BG10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BK10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BL10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BM10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BS10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BT10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BU10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BV10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BW10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BX10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:79">
@@ -3181,172 +3178,172 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" t="s">
         <v>162</v>
       </c>
-      <c r="M11" t="s">
-        <v>159</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>163</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>164</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>165</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>166</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>167</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>168</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>169</v>
       </c>
-      <c r="V11" t="s">
-        <v>170</v>
-      </c>
       <c r="W11" t="s">
+        <v>180</v>
+      </c>
+      <c r="X11" t="s">
         <v>181</v>
       </c>
-      <c r="X11" t="s">
-        <v>182</v>
-      </c>
       <c r="Y11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA11" t="s">
         <v>184</v>
       </c>
-      <c r="AA11" t="s">
-        <v>185</v>
-      </c>
       <c r="AB11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD11" t="s">
         <v>186</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG11" t="s">
         <v>187</v>
       </c>
-      <c r="AE11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>188</v>
-      </c>
       <c r="AH11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI11">
         <v>30000000</v>
       </c>
       <c r="AJ11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM11" t="s">
         <v>189</v>
       </c>
-      <c r="AK11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="s">
         <v>190</v>
       </c>
-      <c r="AN11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS11" t="s">
         <v>191</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>192</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>193</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>194</v>
       </c>
       <c r="AV11">
         <v>33</v>
       </c>
       <c r="AW11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>195</v>
       </c>
-      <c r="AX11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>196</v>
       </c>
-      <c r="BA11" t="s">
-        <v>197</v>
-      </c>
       <c r="BC11" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD11" t="s">
         <v>208</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BF11" t="s">
         <v>209</v>
       </c>
-      <c r="BF11" t="s">
-        <v>210</v>
-      </c>
       <c r="BG11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BK11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BL11" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>257</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>272</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>282</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>286</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>252</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>292</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>294</v>
+      </c>
+      <c r="BX11" t="s">
         <v>254</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>258</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>268</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>283</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>287</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>253</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>293</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>295</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:79">
@@ -3369,175 +3366,175 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" t="s">
         <v>163</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>164</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>165</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>166</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>167</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>168</v>
       </c>
-      <c r="U12" t="s">
-        <v>169</v>
-      </c>
       <c r="V12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W12" t="s">
+        <v>180</v>
+      </c>
+      <c r="X12" t="s">
         <v>181</v>
       </c>
-      <c r="X12" t="s">
-        <v>182</v>
-      </c>
       <c r="Y12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA12" t="s">
         <v>184</v>
       </c>
-      <c r="AA12" t="s">
-        <v>185</v>
-      </c>
       <c r="AB12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD12" t="s">
         <v>186</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>188</v>
-      </c>
       <c r="AH12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI12">
         <v>30000000</v>
       </c>
       <c r="AJ12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM12" t="s">
         <v>189</v>
       </c>
-      <c r="AK12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="s">
         <v>190</v>
       </c>
-      <c r="AN12" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS12" t="s">
         <v>191</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>192</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>193</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>194</v>
       </c>
       <c r="AV12">
         <v>30</v>
       </c>
       <c r="AW12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>195</v>
       </c>
-      <c r="AX12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>196</v>
       </c>
-      <c r="BA12" t="s">
-        <v>197</v>
-      </c>
       <c r="BB12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BC12" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD12" t="s">
         <v>208</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BF12" t="s">
         <v>209</v>
       </c>
-      <c r="BF12" t="s">
-        <v>210</v>
-      </c>
       <c r="BG12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BK12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BL12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BM12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BP12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BS12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BT12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BU12" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV12" t="s">
         <v>291</v>
       </c>
-      <c r="BV12" t="s">
-        <v>292</v>
-      </c>
       <c r="BW12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:79">
@@ -3560,172 +3557,172 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" t="s">
         <v>163</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>164</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>165</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>166</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>167</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>168</v>
       </c>
-      <c r="U13" t="s">
-        <v>169</v>
-      </c>
       <c r="V13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W13" t="s">
+        <v>180</v>
+      </c>
+      <c r="X13" t="s">
         <v>181</v>
       </c>
-      <c r="X13" t="s">
-        <v>182</v>
-      </c>
       <c r="Y13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA13" t="s">
         <v>184</v>
       </c>
-      <c r="AA13" t="s">
-        <v>185</v>
-      </c>
       <c r="AB13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD13" t="s">
         <v>186</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG13" t="s">
         <v>187</v>
       </c>
-      <c r="AE13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>188</v>
-      </c>
       <c r="AH13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI13">
         <v>30000000</v>
       </c>
       <c r="AJ13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM13" t="s">
         <v>189</v>
       </c>
-      <c r="AK13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="s">
         <v>190</v>
       </c>
-      <c r="AN13" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS13" t="s">
         <v>191</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>192</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>193</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>194</v>
       </c>
       <c r="AV13">
         <v>29</v>
       </c>
       <c r="AW13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>195</v>
       </c>
-      <c r="AX13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>196</v>
       </c>
-      <c r="BA13" t="s">
-        <v>197</v>
-      </c>
       <c r="BC13" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD13" t="s">
         <v>208</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BF13" t="s">
         <v>209</v>
       </c>
-      <c r="BF13" t="s">
-        <v>210</v>
-      </c>
       <c r="BG13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BI13">
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BK13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BL13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BM13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BP13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BS13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BU13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BV13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:79">
@@ -3748,172 +3745,172 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" t="s">
         <v>162</v>
       </c>
-      <c r="M14" t="s">
-        <v>159</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>163</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>164</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>165</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>166</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>167</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>168</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>169</v>
       </c>
-      <c r="V14" t="s">
-        <v>170</v>
-      </c>
       <c r="W14" t="s">
+        <v>180</v>
+      </c>
+      <c r="X14" t="s">
         <v>181</v>
       </c>
-      <c r="X14" t="s">
-        <v>182</v>
-      </c>
       <c r="Y14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA14" t="s">
         <v>184</v>
       </c>
-      <c r="AA14" t="s">
-        <v>185</v>
-      </c>
       <c r="AB14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD14" t="s">
         <v>186</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG14" t="s">
         <v>187</v>
       </c>
-      <c r="AE14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>188</v>
-      </c>
       <c r="AH14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI14">
         <v>30000000</v>
       </c>
       <c r="AJ14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM14" t="s">
         <v>189</v>
       </c>
-      <c r="AK14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="s">
         <v>190</v>
       </c>
-      <c r="AN14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS14" t="s">
         <v>191</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>192</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>193</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>194</v>
       </c>
       <c r="AV14">
         <v>27</v>
       </c>
       <c r="AW14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>195</v>
       </c>
-      <c r="AX14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>196</v>
       </c>
-      <c r="BA14" t="s">
-        <v>197</v>
-      </c>
       <c r="BC14" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD14" t="s">
         <v>208</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BF14" t="s">
         <v>209</v>
       </c>
-      <c r="BF14" t="s">
-        <v>210</v>
-      </c>
       <c r="BG14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BK14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BL14" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>257</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>272</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>284</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>288</v>
+      </c>
+      <c r="BU14" t="s">
         <v>251</v>
       </c>
-      <c r="BM14" t="s">
-        <v>258</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>268</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>285</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>289</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>252</v>
-      </c>
       <c r="BV14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:79">
@@ -3936,175 +3933,175 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" t="s">
         <v>162</v>
       </c>
-      <c r="M15" t="s">
-        <v>159</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>163</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>164</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>165</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>166</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>167</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>168</v>
       </c>
-      <c r="U15" t="s">
-        <v>169</v>
-      </c>
       <c r="V15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W15" t="s">
+        <v>180</v>
+      </c>
+      <c r="X15" t="s">
         <v>181</v>
       </c>
-      <c r="X15" t="s">
-        <v>182</v>
-      </c>
       <c r="Y15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA15" t="s">
         <v>184</v>
       </c>
-      <c r="AA15" t="s">
-        <v>185</v>
-      </c>
       <c r="AB15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD15" t="s">
         <v>186</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG15" t="s">
         <v>187</v>
       </c>
-      <c r="AE15" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>188</v>
-      </c>
       <c r="AH15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI15">
         <v>30000000</v>
       </c>
       <c r="AJ15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM15" t="s">
         <v>189</v>
       </c>
-      <c r="AK15" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="s">
         <v>190</v>
       </c>
-      <c r="AN15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS15" t="s">
         <v>191</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>192</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>193</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>194</v>
       </c>
       <c r="AV15">
         <v>26</v>
       </c>
       <c r="AW15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>195</v>
       </c>
-      <c r="AX15" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>196</v>
       </c>
-      <c r="BA15" t="s">
-        <v>197</v>
-      </c>
       <c r="BB15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BC15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD15" t="s">
         <v>208</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BF15" t="s">
         <v>209</v>
       </c>
-      <c r="BF15" t="s">
-        <v>210</v>
-      </c>
       <c r="BG15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BI15">
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BK15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BP15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BS15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BT15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BU15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BV15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:79">
@@ -4127,175 +4124,175 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16" t="s">
         <v>162</v>
       </c>
-      <c r="M16" t="s">
-        <v>159</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>163</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>164</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>165</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>166</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>167</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>168</v>
       </c>
-      <c r="U16" t="s">
-        <v>169</v>
-      </c>
       <c r="V16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W16" t="s">
+        <v>180</v>
+      </c>
+      <c r="X16" t="s">
         <v>181</v>
       </c>
-      <c r="X16" t="s">
-        <v>182</v>
-      </c>
       <c r="Y16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA16" t="s">
         <v>184</v>
       </c>
-      <c r="AA16" t="s">
-        <v>185</v>
-      </c>
       <c r="AB16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD16" t="s">
         <v>186</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG16" t="s">
         <v>187</v>
       </c>
-      <c r="AE16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>188</v>
-      </c>
       <c r="AH16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI16">
         <v>30000000</v>
       </c>
       <c r="AJ16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM16" t="s">
         <v>189</v>
       </c>
-      <c r="AK16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO16">
+        <v>21000000</v>
+      </c>
+      <c r="AP16" t="s">
         <v>190</v>
       </c>
-      <c r="AN16" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS16" t="s">
         <v>191</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>192</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>193</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>194</v>
       </c>
       <c r="AV16">
         <v>23</v>
       </c>
       <c r="AW16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>195</v>
       </c>
-      <c r="AX16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>196</v>
       </c>
-      <c r="BA16" t="s">
-        <v>197</v>
-      </c>
       <c r="BB16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BC16" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD16" t="s">
         <v>208</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BF16" t="s">
         <v>209</v>
       </c>
-      <c r="BF16" t="s">
-        <v>210</v>
-      </c>
       <c r="BG16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BI16">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BJ16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BK16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BP16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BS16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BT16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BU16" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV16" t="s">
         <v>291</v>
       </c>
-      <c r="BV16" t="s">
-        <v>292</v>
-      </c>
       <c r="BW16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:77">
@@ -4309,7 +4306,7 @@
         <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4318,175 +4315,175 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="s">
+        <v>158</v>
+      </c>
+      <c r="N17" t="s">
         <v>162</v>
       </c>
-      <c r="M17" t="s">
-        <v>159</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>163</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>164</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>166</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>167</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>168</v>
       </c>
-      <c r="U17" t="s">
-        <v>169</v>
-      </c>
       <c r="V17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
         <v>181</v>
       </c>
-      <c r="X17" t="s">
-        <v>182</v>
-      </c>
       <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA17" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" t="s">
-        <v>185</v>
-      </c>
       <c r="AB17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD17" t="s">
         <v>186</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG17" t="s">
         <v>187</v>
       </c>
-      <c r="AE17" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>188</v>
-      </c>
       <c r="AH17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI17">
         <v>30000000</v>
       </c>
       <c r="AJ17" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM17" t="s">
         <v>189</v>
       </c>
-      <c r="AK17" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>190</v>
-      </c>
       <c r="AN17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO17">
         <v>12000000</v>
       </c>
       <c r="AP17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS17" t="s">
         <v>191</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>192</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>193</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>194</v>
       </c>
       <c r="AV17">
         <v>22</v>
       </c>
       <c r="AW17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>195</v>
       </c>
-      <c r="AX17" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>196</v>
       </c>
-      <c r="BA17" t="s">
-        <v>197</v>
-      </c>
       <c r="BB17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD17" t="s">
         <v>208</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BF17" t="s">
         <v>209</v>
       </c>
-      <c r="BF17" t="s">
-        <v>210</v>
-      </c>
       <c r="BG17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BI17">
         <v>0.4</v>
       </c>
       <c r="BJ17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BK17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BL17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BM17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BN17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BO17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BP17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BS17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BT17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BU17" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV17" t="s">
         <v>291</v>
       </c>
-      <c r="BV17" t="s">
-        <v>292</v>
-      </c>
       <c r="BW17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:77">
@@ -4500,7 +4497,7 @@
         <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4509,169 +4506,169 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" t="s">
         <v>162</v>
       </c>
-      <c r="M18" t="s">
-        <v>159</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>163</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>164</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>165</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>166</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>167</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>168</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>169</v>
       </c>
-      <c r="V18" t="s">
-        <v>170</v>
-      </c>
       <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
         <v>181</v>
       </c>
-      <c r="X18" t="s">
-        <v>182</v>
-      </c>
       <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA18" t="s">
         <v>184</v>
       </c>
-      <c r="AA18" t="s">
-        <v>185</v>
-      </c>
       <c r="AB18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD18" t="s">
         <v>186</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG18" t="s">
         <v>187</v>
       </c>
-      <c r="AE18" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>188</v>
-      </c>
       <c r="AH18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI18">
         <v>30000000</v>
       </c>
       <c r="AJ18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM18" t="s">
         <v>189</v>
       </c>
-      <c r="AK18" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO18">
+        <v>5650000</v>
+      </c>
+      <c r="AP18" t="s">
         <v>190</v>
       </c>
-      <c r="AN18" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS18" t="s">
         <v>191</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>192</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AU18" t="s">
         <v>193</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>194</v>
       </c>
       <c r="AV18">
         <v>20</v>
       </c>
       <c r="AW18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>195</v>
       </c>
-      <c r="AX18" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>196</v>
       </c>
-      <c r="BA18" t="s">
-        <v>197</v>
-      </c>
       <c r="BC18" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD18" t="s">
         <v>208</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BF18" t="s">
         <v>209</v>
       </c>
-      <c r="BF18" t="s">
-        <v>210</v>
-      </c>
       <c r="BG18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BI18">
-        <v>0</v>
+        <v>0.1883</v>
       </c>
       <c r="BJ18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BK18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BL18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BM18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BS18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BT18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BU18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BV18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BW18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BX18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:77">
@@ -4685,7 +4682,7 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4694,175 +4691,175 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N19" t="s">
         <v>162</v>
       </c>
-      <c r="M19" t="s">
-        <v>159</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>163</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>164</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>165</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>166</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>167</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>168</v>
       </c>
-      <c r="U19" t="s">
-        <v>169</v>
-      </c>
       <c r="V19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
         <v>181</v>
       </c>
-      <c r="X19" t="s">
-        <v>182</v>
-      </c>
       <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA19" t="s">
         <v>184</v>
       </c>
-      <c r="AA19" t="s">
-        <v>185</v>
-      </c>
       <c r="AB19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD19" t="s">
         <v>186</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG19" t="s">
         <v>187</v>
       </c>
-      <c r="AE19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>188</v>
-      </c>
       <c r="AH19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI19">
         <v>30000000</v>
       </c>
       <c r="AJ19" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM19" t="s">
         <v>189</v>
       </c>
-      <c r="AK19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="s">
         <v>190</v>
       </c>
-      <c r="AN19" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS19" t="s">
         <v>191</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>192</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AU19" t="s">
         <v>193</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>194</v>
       </c>
       <c r="AV19">
         <v>16</v>
       </c>
       <c r="AW19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ19" t="s">
         <v>195</v>
       </c>
-      <c r="AX19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>196</v>
       </c>
-      <c r="BA19" t="s">
-        <v>197</v>
-      </c>
       <c r="BB19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BC19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD19" t="s">
         <v>208</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BF19" t="s">
         <v>209</v>
       </c>
-      <c r="BF19" t="s">
-        <v>210</v>
-      </c>
       <c r="BG19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BK19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BP19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BS19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BT19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BU19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BV19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:77">
@@ -4876,7 +4873,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -4885,175 +4882,175 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" t="s">
         <v>162</v>
       </c>
-      <c r="M20" t="s">
-        <v>159</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>163</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>164</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>165</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>166</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>167</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>168</v>
       </c>
-      <c r="U20" t="s">
-        <v>169</v>
-      </c>
       <c r="V20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X20" t="s">
         <v>181</v>
       </c>
-      <c r="X20" t="s">
-        <v>182</v>
-      </c>
       <c r="Y20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA20" t="s">
         <v>184</v>
       </c>
-      <c r="AA20" t="s">
-        <v>185</v>
-      </c>
       <c r="AB20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD20" t="s">
         <v>186</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG20" t="s">
         <v>187</v>
       </c>
-      <c r="AE20" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>188</v>
-      </c>
       <c r="AH20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI20">
         <v>30000000</v>
       </c>
       <c r="AJ20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM20" t="s">
         <v>189</v>
       </c>
-      <c r="AK20" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="s">
         <v>190</v>
       </c>
-      <c r="AN20" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS20" t="s">
         <v>191</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>192</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>193</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>194</v>
       </c>
       <c r="AV20">
         <v>15</v>
       </c>
       <c r="AW20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>195</v>
       </c>
-      <c r="AX20" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>196</v>
       </c>
-      <c r="BA20" t="s">
-        <v>197</v>
-      </c>
       <c r="BB20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC20" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD20" t="s">
         <v>208</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BF20" t="s">
         <v>209</v>
       </c>
-      <c r="BF20" t="s">
-        <v>210</v>
-      </c>
       <c r="BG20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BI20">
         <v>0</v>
       </c>
       <c r="BJ20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BK20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BL20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BM20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BP20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BS20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BU20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BV20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:77">
@@ -5067,7 +5064,7 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -5076,175 +5073,175 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L21" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" t="s">
         <v>162</v>
       </c>
-      <c r="M21" t="s">
-        <v>159</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>163</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>164</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>165</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>166</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>167</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>168</v>
       </c>
-      <c r="U21" t="s">
-        <v>169</v>
-      </c>
       <c r="V21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W21" t="s">
+        <v>180</v>
+      </c>
+      <c r="X21" t="s">
         <v>181</v>
       </c>
-      <c r="X21" t="s">
-        <v>182</v>
-      </c>
       <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA21" t="s">
         <v>184</v>
       </c>
-      <c r="AA21" t="s">
-        <v>185</v>
-      </c>
       <c r="AB21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD21" t="s">
         <v>186</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG21" t="s">
         <v>187</v>
       </c>
-      <c r="AE21" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>188</v>
-      </c>
       <c r="AH21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI21">
         <v>30000000</v>
       </c>
       <c r="AJ21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM21" t="s">
         <v>189</v>
       </c>
-      <c r="AK21" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO21">
+        <v>9600000</v>
+      </c>
+      <c r="AP21" t="s">
         <v>190</v>
       </c>
-      <c r="AN21" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO21">
-        <v>8100000</v>
-      </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS21" t="s">
         <v>191</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>192</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AU21" t="s">
         <v>193</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>194</v>
       </c>
       <c r="AV21">
         <v>11</v>
       </c>
       <c r="AW21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ21" t="s">
         <v>195</v>
       </c>
-      <c r="AX21" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>196</v>
       </c>
-      <c r="BA21" t="s">
-        <v>197</v>
-      </c>
       <c r="BB21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC21" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD21" t="s">
         <v>208</v>
       </c>
-      <c r="BD21" t="s">
+      <c r="BF21" t="s">
         <v>209</v>
       </c>
-      <c r="BF21" t="s">
-        <v>210</v>
-      </c>
       <c r="BG21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BI21">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="BJ21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BK21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL21" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>257</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>277</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>282</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>286</v>
+      </c>
+      <c r="BU21" t="s">
         <v>252</v>
       </c>
-      <c r="BM21" t="s">
-        <v>258</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>268</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>278</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>283</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>287</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>253</v>
-      </c>
       <c r="BV21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:77">
@@ -5258,7 +5255,7 @@
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5267,175 +5264,175 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" t="s">
+        <v>158</v>
+      </c>
+      <c r="N22" t="s">
         <v>162</v>
       </c>
-      <c r="M22" t="s">
-        <v>159</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>163</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>164</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>165</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>166</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>167</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>168</v>
       </c>
-      <c r="U22" t="s">
-        <v>169</v>
-      </c>
       <c r="V22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W22" t="s">
+        <v>180</v>
+      </c>
+      <c r="X22" t="s">
         <v>181</v>
       </c>
-      <c r="X22" t="s">
-        <v>182</v>
-      </c>
       <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA22" t="s">
         <v>184</v>
       </c>
-      <c r="AA22" t="s">
-        <v>185</v>
-      </c>
       <c r="AB22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD22" t="s">
         <v>186</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG22" t="s">
         <v>187</v>
       </c>
-      <c r="AE22" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>188</v>
-      </c>
       <c r="AH22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI22">
         <v>30000000</v>
       </c>
       <c r="AJ22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM22" t="s">
         <v>189</v>
       </c>
-      <c r="AK22" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO22">
+        <v>24000000</v>
+      </c>
+      <c r="AP22" t="s">
         <v>190</v>
       </c>
-      <c r="AN22" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO22">
-        <v>14000000</v>
-      </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS22" t="s">
         <v>191</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>192</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AU22" t="s">
         <v>193</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>194</v>
       </c>
       <c r="AV22">
         <v>10</v>
       </c>
       <c r="AW22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ22" t="s">
         <v>195</v>
       </c>
-      <c r="AX22" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>196</v>
       </c>
-      <c r="BA22" t="s">
-        <v>197</v>
-      </c>
       <c r="BB22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BC22" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD22" t="s">
         <v>208</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BF22" t="s">
         <v>209</v>
       </c>
-      <c r="BF22" t="s">
-        <v>210</v>
-      </c>
       <c r="BG22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BI22">
-        <v>0.4667</v>
+        <v>0.8</v>
       </c>
       <c r="BJ22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BK22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BM22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BN22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BO22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BP22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BS22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BT22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BU22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BV22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:77">
@@ -5449,7 +5446,7 @@
         <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5458,172 +5455,172 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23" t="s">
+        <v>158</v>
+      </c>
+      <c r="N23" t="s">
         <v>162</v>
       </c>
-      <c r="M23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>163</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>164</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>165</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>166</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>167</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>168</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>169</v>
       </c>
-      <c r="V23" t="s">
-        <v>170</v>
-      </c>
       <c r="W23" t="s">
+        <v>180</v>
+      </c>
+      <c r="X23" t="s">
         <v>181</v>
       </c>
-      <c r="X23" t="s">
-        <v>182</v>
-      </c>
       <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA23" t="s">
         <v>184</v>
       </c>
-      <c r="AA23" t="s">
-        <v>185</v>
-      </c>
       <c r="AB23" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD23" t="s">
         <v>186</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG23" t="s">
         <v>187</v>
       </c>
-      <c r="AE23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>188</v>
-      </c>
       <c r="AH23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI23">
         <v>30000000</v>
       </c>
       <c r="AJ23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM23" t="s">
         <v>189</v>
       </c>
-      <c r="AK23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO23">
+        <v>2000000</v>
+      </c>
+      <c r="AP23" t="s">
         <v>190</v>
       </c>
-      <c r="AN23" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS23" t="s">
         <v>191</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>192</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AU23" t="s">
         <v>193</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>194</v>
       </c>
       <c r="AV23">
         <v>9</v>
       </c>
       <c r="AW23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ23" t="s">
         <v>195</v>
       </c>
-      <c r="AX23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>196</v>
       </c>
-      <c r="BA23" t="s">
-        <v>197</v>
-      </c>
       <c r="BC23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD23" t="s">
         <v>208</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BF23" t="s">
         <v>209</v>
       </c>
-      <c r="BF23" t="s">
-        <v>210</v>
-      </c>
       <c r="BG23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BI23">
-        <v>0</v>
+        <v>0.0667</v>
       </c>
       <c r="BJ23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BK23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BL23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BM23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BN23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BO23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BP23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BS23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BU23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BV23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:77">
@@ -5637,7 +5634,7 @@
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5646,172 +5643,172 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s">
+        <v>161</v>
+      </c>
+      <c r="M24" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" t="s">
         <v>162</v>
       </c>
-      <c r="M24" t="s">
-        <v>159</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>163</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>164</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>165</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>166</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>167</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>168</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>169</v>
       </c>
-      <c r="V24" t="s">
-        <v>170</v>
-      </c>
       <c r="W24" t="s">
+        <v>180</v>
+      </c>
+      <c r="X24" t="s">
         <v>181</v>
       </c>
-      <c r="X24" t="s">
-        <v>182</v>
-      </c>
       <c r="Y24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA24" t="s">
         <v>184</v>
       </c>
-      <c r="AA24" t="s">
-        <v>185</v>
-      </c>
       <c r="AB24" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD24" t="s">
         <v>186</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG24" t="s">
         <v>187</v>
       </c>
-      <c r="AE24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>188</v>
-      </c>
       <c r="AH24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI24">
         <v>30000000</v>
       </c>
       <c r="AJ24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM24" t="s">
         <v>189</v>
       </c>
-      <c r="AK24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>190</v>
-      </c>
       <c r="AN24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO24">
         <v>28000000</v>
       </c>
       <c r="AP24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS24" t="s">
         <v>191</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>192</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
         <v>193</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>194</v>
       </c>
       <c r="AV24">
         <v>7</v>
       </c>
       <c r="AW24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ24" t="s">
         <v>195</v>
       </c>
-      <c r="AX24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>196</v>
       </c>
-      <c r="BA24" t="s">
-        <v>197</v>
-      </c>
       <c r="BC24" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD24" t="s">
         <v>208</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BF24" t="s">
         <v>209</v>
       </c>
-      <c r="BF24" t="s">
-        <v>210</v>
-      </c>
       <c r="BG24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BI24">
         <v>0.9333</v>
       </c>
       <c r="BJ24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BK24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BL24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BM24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BP24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BS24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BU24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BV24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:77">
@@ -5825,7 +5822,7 @@
         <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5834,172 +5831,172 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" t="s">
         <v>162</v>
       </c>
-      <c r="M25" t="s">
-        <v>159</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>163</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>164</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>165</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>166</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
         <v>167</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>168</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>169</v>
       </c>
-      <c r="V25" t="s">
-        <v>170</v>
-      </c>
       <c r="W25" t="s">
+        <v>180</v>
+      </c>
+      <c r="X25" t="s">
         <v>181</v>
       </c>
-      <c r="X25" t="s">
-        <v>182</v>
-      </c>
       <c r="Y25" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA25" t="s">
         <v>184</v>
       </c>
-      <c r="AA25" t="s">
-        <v>185</v>
-      </c>
       <c r="AB25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD25" t="s">
         <v>186</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG25" t="s">
         <v>187</v>
       </c>
-      <c r="AE25" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>188</v>
-      </c>
       <c r="AH25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI25">
         <v>30000000</v>
       </c>
       <c r="AJ25" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM25" t="s">
         <v>189</v>
       </c>
-      <c r="AK25" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO25">
+        <v>16000000</v>
+      </c>
+      <c r="AP25" t="s">
         <v>190</v>
       </c>
-      <c r="AN25" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO25">
-        <v>9000000</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS25" t="s">
         <v>191</v>
       </c>
-      <c r="AQ25" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>192</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AU25" t="s">
         <v>193</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>194</v>
       </c>
       <c r="AV25">
         <v>6</v>
       </c>
       <c r="AW25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ25" t="s">
         <v>195</v>
       </c>
-      <c r="AX25" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>196</v>
       </c>
-      <c r="BA25" t="s">
-        <v>197</v>
-      </c>
       <c r="BC25" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD25" t="s">
         <v>208</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BF25" t="s">
         <v>209</v>
       </c>
-      <c r="BF25" t="s">
-        <v>210</v>
-      </c>
       <c r="BG25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BI25">
-        <v>0.3</v>
+        <v>0.5333</v>
       </c>
       <c r="BJ25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BK25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BL25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BM25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BN25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BO25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BP25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BS25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BT25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BU25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BV25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:77">
@@ -6013,7 +6010,7 @@
         <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -6022,178 +6019,178 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s">
+        <v>161</v>
+      </c>
+      <c r="M26" t="s">
+        <v>158</v>
+      </c>
+      <c r="N26" t="s">
         <v>162</v>
       </c>
-      <c r="M26" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>163</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>164</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>165</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>166</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>167</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>168</v>
       </c>
-      <c r="U26" t="s">
-        <v>169</v>
-      </c>
       <c r="V26" t="s">
+        <v>179</v>
+      </c>
+      <c r="W26" t="s">
         <v>180</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>181</v>
       </c>
-      <c r="X26" t="s">
-        <v>182</v>
-      </c>
       <c r="Y26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA26" t="s">
         <v>184</v>
       </c>
-      <c r="AA26" t="s">
-        <v>185</v>
-      </c>
       <c r="AB26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD26" t="s">
         <v>186</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG26" t="s">
         <v>187</v>
       </c>
-      <c r="AE26" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>188</v>
-      </c>
       <c r="AH26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI26">
         <v>30000000</v>
       </c>
       <c r="AJ26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM26" t="s">
         <v>189</v>
       </c>
-      <c r="AK26" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM26" t="s">
+      <c r="AN26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO26">
+        <v>9000000</v>
+      </c>
+      <c r="AP26" t="s">
         <v>190</v>
       </c>
-      <c r="AN26" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS26" t="s">
         <v>191</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>192</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>193</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>194</v>
       </c>
       <c r="AV26">
         <v>5</v>
       </c>
       <c r="AW26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>195</v>
       </c>
-      <c r="AX26" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>196</v>
       </c>
-      <c r="BA26" t="s">
-        <v>197</v>
-      </c>
       <c r="BB26" t="s">
+        <v>206</v>
+      </c>
+      <c r="BC26" t="s">
         <v>207</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>208</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BF26" t="s">
         <v>209</v>
       </c>
-      <c r="BF26" t="s">
-        <v>210</v>
-      </c>
       <c r="BG26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BI26">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BJ26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BK26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BL26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BM26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BN26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BO26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BP26" t="s">
+        <v>281</v>
+      </c>
+      <c r="BS26" t="s">
         <v>282</v>
       </c>
-      <c r="BS26" t="s">
-        <v>283</v>
-      </c>
       <c r="BT26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BU26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BV26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BW26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BY26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:77">
@@ -6207,7 +6204,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -6216,169 +6213,169 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" t="s">
         <v>158</v>
       </c>
-      <c r="K27" t="s">
-        <v>159</v>
-      </c>
       <c r="L27" t="s">
+        <v>161</v>
+      </c>
+      <c r="M27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N27" t="s">
         <v>162</v>
       </c>
-      <c r="M27" t="s">
-        <v>159</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>163</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>164</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>165</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>166</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T27" t="s">
         <v>167</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>168</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>169</v>
       </c>
-      <c r="V27" t="s">
-        <v>170</v>
-      </c>
       <c r="W27" t="s">
+        <v>180</v>
+      </c>
+      <c r="X27" t="s">
         <v>181</v>
       </c>
-      <c r="X27" t="s">
-        <v>182</v>
-      </c>
       <c r="Y27" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA27" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" t="s">
-        <v>185</v>
-      </c>
       <c r="AB27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD27" t="s">
         <v>186</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG27" t="s">
         <v>187</v>
       </c>
-      <c r="AE27" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>188</v>
-      </c>
       <c r="AH27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI27">
         <v>30000000</v>
       </c>
       <c r="AJ27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM27" t="s">
         <v>189</v>
       </c>
-      <c r="AK27" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM27" t="s">
+      <c r="AN27" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO27">
+        <v>76000000</v>
+      </c>
+      <c r="AP27" t="s">
         <v>190</v>
       </c>
-      <c r="AN27" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="s">
+      <c r="AQ27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS27" t="s">
         <v>191</v>
       </c>
-      <c r="AQ27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS27" t="s">
+      <c r="AT27" t="s">
         <v>192</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AU27" t="s">
         <v>193</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>194</v>
       </c>
       <c r="AV27">
         <v>4</v>
       </c>
       <c r="AW27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ27" t="s">
         <v>195</v>
       </c>
-      <c r="AX27" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>196</v>
       </c>
-      <c r="BA27" t="s">
-        <v>197</v>
-      </c>
       <c r="BC27" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD27" t="s">
         <v>208</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BF27" t="s">
         <v>209</v>
       </c>
-      <c r="BF27" t="s">
-        <v>210</v>
-      </c>
       <c r="BG27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BI27">
-        <v>0</v>
+        <v>2.5333</v>
       </c>
       <c r="BJ27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BK27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BL27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BM27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BO27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BS27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BT27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BU27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BV27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BW27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BX27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -409,7 +409,7 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-09T19:28:00.000Z</t>
+    <t>2024-08-12T02:00:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/quy-n-794bc8d2e43b4acb920ecf6b31502f1a</t>
@@ -4393,7 +4393,7 @@
         <v>183</v>
       </c>
       <c r="AO17">
-        <v>12000000</v>
+        <v>17000000</v>
       </c>
       <c r="AP17" t="s">
         <v>190</v>
@@ -4444,7 +4444,7 @@
         <v>225</v>
       </c>
       <c r="BI17">
-        <v>0.4</v>
+        <v>0.5667</v>
       </c>
       <c r="BJ17" t="s">
         <v>240</v>
@@ -5151,7 +5151,7 @@
         <v>183</v>
       </c>
       <c r="AO21">
-        <v>9600000</v>
+        <v>12600000</v>
       </c>
       <c r="AP21" t="s">
         <v>190</v>
@@ -5202,7 +5202,7 @@
         <v>229</v>
       </c>
       <c r="BI21">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="BJ21" t="s">
         <v>237</v>
@@ -5909,7 +5909,7 @@
         <v>183</v>
       </c>
       <c r="AO25">
-        <v>16000000</v>
+        <v>20000000</v>
       </c>
       <c r="AP25" t="s">
         <v>190</v>
@@ -5957,7 +5957,7 @@
         <v>233</v>
       </c>
       <c r="BI25">
-        <v>0.5333</v>
+        <v>0.6667</v>
       </c>
       <c r="BJ25" t="s">
         <v>242</v>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="326">
   <si>
     <t>object</t>
   </si>
@@ -256,7 +256,7 @@
     <t>page</t>
   </si>
   <si>
-    <t>794bc8d2-e43b-4acb-920e-cf6b31502f1a</t>
+    <t>15126a00-9074-40be-a8e9-57eeb81a2bf5</t>
   </si>
   <si>
     <t>35f44955-2223-488a-8274-8db6f726d9f7</t>
@@ -334,7 +334,7 @@
     <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
   </si>
   <si>
-    <t>2024-08-03T11:42:00.000Z</t>
+    <t>2024-08-21T11:57:00.000Z</t>
   </si>
   <si>
     <t>2024-07-10T03:16:00.000Z</t>
@@ -409,10 +409,13 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-12T02:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.notion.so/quy-n-794bc8d2e43b4acb920ecf6b31502f1a</t>
+    <t>2024-08-23T13:33:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-23T13:32:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.notion.so/646-15126a00907440bea8e957eeb81a2bf5</t>
   </si>
   <si>
     <t>https://www.notion.so/C-Na-gi-p-vi-c-35f449552223488a82748db6f726d9f7</t>
@@ -490,6 +493,84 @@
     <t>https://www.notion.so/Th-ch-Ho-ng-Nh-n-cca1354dd5854e098845dc6dadbcb631</t>
   </si>
   <si>
+    <t>https://salty-handsaw-797.notion.site/646-15126a00907440bea8e957eeb81a2bf5</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/C-Na-gi-p-vi-c-35f449552223488a82748db6f726d9f7</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Sang-sang-d8178da7a5cc474f9c6eed3029f89c4d</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/La-Th-Ng-c-H-My-ea0572aff8c9430d9d9523303a4ce4cd</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/L-Th-Ng-c-Mi-90bc02c2bd1e4c33884a38a1db528c78</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/B-c-S-Th-o-049e08c701e54ac6bb224d52622559f1</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/ng-Ng-c-Mai-467f676f8f4649b5afeafeecb0794d23</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/L-m-Th-H-ng-e0ac03750b3a4c88a613cb8df33ebe6b</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/B-c-S-Ngo-i-545126c4c3194d90a5062627e3e232a0</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Pen-Design-3db7640046c04adb9d9c51542f2de2f9</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/o-V-ng-Anh-3601e7b0a80d4dfdbfa10d34a0e7e389</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/L-m-Ho-ng-Ph-e49d0ce3124d4e4bb377be2139cde3f5</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/C-Si-ng-gi-p-Vi-c-6454d5e58a20473ba597dc1973dd1e0e</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Tr-n-Kh-nh-Hi-p-3fac4a49402c4d34aa91419ebc20760c</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/L-Ho-ng-Thanh-d1ae645ff3dd46cda715a8c150605da6</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Nguy-n-Ph-c-Nam-e926d62ce62446639009c562ae5166cf</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/CTV-Ngo-i-7bb857c9f973440b88f297e138ee6082</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Kha-Nh-Hu-nh-3d301dfe6e3d4d28a2491fd5fac9abd3</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Tr-ng-L-m-Khanh-b9c677865d9945c185d7f96bfb66ef22</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-Huy-n-Tr-n-f973382b037a4eb184bce9e5318184b8</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/L-nh-H-u-c463b1a94fb2425887a744193ba02405</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/L-V-n-Linh-7e29a9cab0174ad6a6b06ed9330137bc</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Ph-m-Thanh-Ho-ng-a73ea60d3de14e9baa7bf22fda5742bd</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/L-m-Th-M-H-ng-bc9b2b6b314044b9a1be4dc8e77d8898</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Nguy-n-Ho-ng-Y-n-Quy-n-75046948a198462789b33bbf5967526b</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ch-Ho-ng-Nh-n-cca1354dd5854e098845dc6dadbcb631</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
@@ -646,7 +727,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>[{'type': 'text', 'text': {'content': 'quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'quyên', 'href': None}]</t>
+    <t>[{'type': 'text', 'text': {'content': '646', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '646', 'href': None}]</t>
   </si>
   <si>
     <t>[{'type': 'text', 'text': {'content': 'Cô Na giúp việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Na giúp việc', 'href': None}]</t>
@@ -1546,127 +1627,130 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="M2" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N2" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q2" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R2" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T2" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U2" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V2" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X2" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y2" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="AA2" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB2" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD2" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE2" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG2" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH2" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AJ2" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK2" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM2" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN2" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ2" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS2" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT2" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU2" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW2" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX2" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ2" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA2" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD2" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH2" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:79">
@@ -1689,163 +1773,166 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q3" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R3" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T3" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA3" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB3" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD3" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE3" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG3" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI3">
         <v>30000000</v>
       </c>
       <c r="AJ3" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK3" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM3" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ3" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS3" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT3" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV3">
         <v>42</v>
       </c>
       <c r="AW3" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX3" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ3" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA3" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC3" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD3" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF3" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG3" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="BK3" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="BL3" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="BM3" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN3" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO3" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP3" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="BS3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BT3" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BU3" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:79">
@@ -1868,172 +1955,175 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="K4" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L4" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M4" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N4" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q4" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R4" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T4" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U4" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V4" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X4" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y4" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA4" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB4" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD4" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE4" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG4" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH4" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI4">
         <v>30000000</v>
       </c>
       <c r="AJ4" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK4" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM4" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN4" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="AP4" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ4" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS4" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT4" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU4" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV4">
         <v>40</v>
       </c>
       <c r="AW4" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX4" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ4" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA4" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC4" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD4" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF4" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG4" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH4" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BJ4" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="BK4" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="BL4" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BM4" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="BN4" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="BO4" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="BP4" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="BS4" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="BT4" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="BU4" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="BV4" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW4" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX4" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:79">
@@ -2056,175 +2146,178 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q5" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T5" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V5" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="W5" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X5" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y5" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA5" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB5" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD5" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE5" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG5" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH5" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI5">
         <v>30000000</v>
       </c>
       <c r="AJ5" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK5" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM5" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN5" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AP5" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS5" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT5" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU5" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV5">
         <v>39</v>
       </c>
       <c r="AW5" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX5" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ5" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA5" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC5" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD5" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF5" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG5" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH5" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.0667</v>
       </c>
       <c r="BJ5" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="BK5" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="BL5" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BM5" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="BN5" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="BO5" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BP5" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="BS5" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BT5" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BU5" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BV5" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW5" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX5" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="BY5" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:79">
@@ -2247,178 +2340,181 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K6" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L6" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M6" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N6" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q6" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R6" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T6" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U6" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V6" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X6" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y6" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA6" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB6" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD6" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE6" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG6" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH6" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI6">
         <v>30000000</v>
       </c>
       <c r="AJ6" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK6" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM6" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN6" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ6" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS6" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT6" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU6" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV6">
         <v>38</v>
       </c>
       <c r="AW6" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX6" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ6" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA6" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB6" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="BC6" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD6" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF6" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG6" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH6" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="BK6" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="BL6" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BM6" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="BN6" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="BO6" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="BP6" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="BS6" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="BT6" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="BU6" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BV6" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW6" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX6" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="BY6" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:79">
@@ -2441,160 +2537,163 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="K7" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L7" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M7" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N7" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R7" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T7" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U7" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V7" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X7" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA7" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB7" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD7" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE7" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG7" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI7">
         <v>30000000</v>
       </c>
       <c r="AJ7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK7" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ7" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU7" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV7">
         <v>37</v>
       </c>
       <c r="AW7" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX7" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ7" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA7" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="BK7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="BL7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BS7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="BT7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="BU7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BV7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="BW7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="BX7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:79">
@@ -2617,175 +2716,178 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L8" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M8" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N8" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q8" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R8" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T8" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U8" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V8" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="W8" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X8" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y8" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA8" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB8" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD8" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE8" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG8" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH8" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI8">
         <v>30000000</v>
       </c>
       <c r="AJ8" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK8" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM8" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN8" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AP8" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ8" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS8" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT8" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU8" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV8">
         <v>36</v>
       </c>
       <c r="AW8" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX8" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ8" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA8" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC8" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD8" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF8" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG8" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH8" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BJ8" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="BK8" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="BL8" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BM8" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="BN8" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="BO8" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="BP8" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="BS8" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="BT8" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="BU8" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="BV8" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW8" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX8" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="BY8" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:79">
@@ -2808,169 +2910,172 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="M9" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q9" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R9" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T9" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U9" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V9" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X9" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y9" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA9" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB9" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD9" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE9" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG9" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH9" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI9">
         <v>30000000</v>
       </c>
       <c r="AJ9" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK9" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM9" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN9" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ9" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS9" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT9" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU9" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV9">
         <v>35</v>
       </c>
       <c r="AW9" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX9" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ9" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA9" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC9" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD9" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF9" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG9" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="BK9" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="BL9" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="BM9" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN9" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO9" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BS9" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BT9" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BU9" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BV9" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW9" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX9" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:79">
@@ -2993,169 +3098,172 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K10" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L10" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="M10" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N10" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q10" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R10" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T10" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U10" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V10" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W10" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X10" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y10" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA10" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB10" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD10" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE10" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG10" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH10" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI10">
         <v>30000000</v>
       </c>
       <c r="AJ10" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK10" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM10" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN10" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ10" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS10" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT10" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU10" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV10">
         <v>34</v>
       </c>
       <c r="AW10" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX10" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ10" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA10" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC10" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD10" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF10" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG10" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH10" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="BK10" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="BL10" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BM10" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN10" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO10" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BS10" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="BT10" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="BU10" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BV10" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="BW10" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="BX10" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:79">
@@ -3178,172 +3286,175 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L11" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M11" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N11" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q11" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R11" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T11" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U11" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V11" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W11" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X11" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y11" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA11" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB11" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD11" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE11" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG11" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH11" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI11">
         <v>30000000</v>
       </c>
       <c r="AJ11" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK11" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM11" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN11" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ11" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS11" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT11" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU11" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV11">
         <v>33</v>
       </c>
       <c r="AW11" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX11" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ11" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA11" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC11" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD11" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF11" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG11" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH11" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="BK11" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="BL11" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BM11" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN11" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO11" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP11" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="BS11" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BT11" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BU11" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BV11" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="BW11" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="BX11" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:79">
@@ -3357,7 +3468,7 @@
         <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -3366,175 +3477,178 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L12" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="M12" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N12" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q12" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R12" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T12" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U12" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V12" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="W12" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X12" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y12" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA12" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB12" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD12" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE12" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG12" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH12" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI12">
         <v>30000000</v>
       </c>
       <c r="AJ12" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK12" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM12" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN12" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ12" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS12" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT12" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU12" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV12">
         <v>30</v>
       </c>
       <c r="AW12" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX12" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ12" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA12" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB12" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="BC12" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD12" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF12" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG12" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH12" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="BK12" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="BL12" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BM12" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN12" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO12" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP12" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="BS12" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="BT12" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="BU12" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="BV12" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW12" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX12" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:79">
@@ -3548,7 +3662,7 @@
         <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -3557,172 +3671,175 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N13" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q13" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R13" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T13" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U13" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V13" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="W13" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X13" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y13" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA13" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB13" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD13" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE13" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG13" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH13" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI13">
         <v>30000000</v>
       </c>
       <c r="AJ13" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK13" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM13" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN13" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ13" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS13" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT13" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU13" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV13">
         <v>29</v>
       </c>
       <c r="AW13" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX13" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ13" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA13" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC13" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD13" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF13" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG13" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH13" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="BI13">
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="BK13" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="BL13" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BM13" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN13" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO13" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP13" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="BS13" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BT13" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BU13" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BV13" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW13" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX13" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:79">
@@ -3736,7 +3853,7 @@
         <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -3745,172 +3862,175 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M14" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U14" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V14" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W14" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X14" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y14" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA14" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB14" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD14" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE14" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG14" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH14" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI14">
         <v>30000000</v>
       </c>
       <c r="AJ14" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK14" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM14" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN14" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ14" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS14" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT14" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU14" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV14">
         <v>27</v>
       </c>
       <c r="AW14" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX14" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ14" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA14" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC14" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD14" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF14" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG14" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH14" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="BK14" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="BL14" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="BM14" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN14" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO14" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP14" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="BS14" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="BT14" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="BU14" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BV14" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW14" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX14" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:79">
@@ -3924,7 +4044,7 @@
         <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -3933,175 +4053,178 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q15" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R15" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T15" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U15" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V15" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="W15" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X15" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y15" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA15" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB15" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD15" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE15" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG15" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH15" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI15">
         <v>30000000</v>
       </c>
       <c r="AJ15" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK15" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM15" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN15" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ15" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS15" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT15" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU15" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV15">
         <v>26</v>
       </c>
       <c r="AW15" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX15" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ15" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA15" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB15" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="BC15" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD15" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF15" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG15" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH15" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="BI15">
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="BK15" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="BL15" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BM15" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN15" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO15" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP15" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="BS15" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="BT15" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="BU15" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BV15" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW15" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX15" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:79">
@@ -4115,7 +4238,7 @@
         <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -4124,175 +4247,178 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q16" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R16" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U16" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V16" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="W16" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X16" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB16" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD16" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE16" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG16" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH16" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI16">
         <v>30000000</v>
       </c>
       <c r="AJ16" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK16" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM16" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN16" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO16">
         <v>21000000</v>
       </c>
       <c r="AP16" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ16" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS16" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT16" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU16" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV16">
         <v>23</v>
       </c>
       <c r="AW16" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX16" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ16" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA16" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="BC16" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD16" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF16" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG16" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH16" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="BI16">
         <v>0.7</v>
       </c>
       <c r="BJ16" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="BK16" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="BL16" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BM16" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN16" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO16" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP16" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="BS16" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="BT16" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="BU16" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="BV16" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW16" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX16" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:77">
@@ -4306,7 +4432,7 @@
         <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4315,175 +4441,178 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q17" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R17" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T17" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U17" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V17" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB17" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD17" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE17" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG17" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH17" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI17">
         <v>30000000</v>
       </c>
       <c r="AJ17" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK17" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO17">
-        <v>17000000</v>
+        <v>20000000</v>
       </c>
       <c r="AP17" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ17" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS17" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT17" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU17" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV17">
         <v>22</v>
       </c>
       <c r="AW17" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX17" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ17" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA17" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB17" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="BC17" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD17" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF17" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG17" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH17" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="BI17">
-        <v>0.5667</v>
+        <v>0.6667</v>
       </c>
       <c r="BJ17" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="BK17" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="BL17" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="BM17" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="BN17" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="BO17" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="BP17" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="BS17" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="BT17" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="BU17" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="BV17" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW17" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX17" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:77">
@@ -4497,7 +4626,7 @@
         <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4506,169 +4635,172 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q18" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R18" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T18" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U18" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V18" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA18" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB18" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD18" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE18" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH18" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI18">
         <v>30000000</v>
       </c>
       <c r="AJ18" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK18" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO18">
         <v>5650000</v>
       </c>
       <c r="AP18" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ18" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS18" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT18" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU18" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV18">
         <v>20</v>
       </c>
       <c r="AW18" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX18" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ18" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA18" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC18" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD18" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF18" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG18" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH18" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="BI18">
         <v>0.1883</v>
       </c>
       <c r="BJ18" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="BK18" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="BL18" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="BM18" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN18" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO18" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BS18" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="BT18" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="BU18" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BV18" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="BW18" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="BX18" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:77">
@@ -4682,7 +4814,7 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4691,175 +4823,178 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q19" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R19" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T19" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U19" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V19" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="W19" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB19" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD19" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE19" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH19" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI19">
         <v>30000000</v>
       </c>
       <c r="AJ19" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK19" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ19" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS19" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT19" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU19" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV19">
         <v>16</v>
       </c>
       <c r="AW19" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX19" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ19" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA19" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB19" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="BC19" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD19" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF19" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG19" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH19" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="BK19" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="BL19" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BM19" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN19" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO19" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP19" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="BS19" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="BT19" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="BU19" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BV19" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW19" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX19" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:77">
@@ -4873,7 +5008,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -4882,175 +5017,178 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q20" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R20" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T20" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U20" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V20" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="W20" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB20" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD20" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE20" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH20" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI20">
         <v>30000000</v>
       </c>
       <c r="AJ20" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK20" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>6700000</v>
       </c>
       <c r="AP20" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ20" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS20" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT20" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU20" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV20">
         <v>15</v>
       </c>
       <c r="AW20" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX20" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ20" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA20" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB20" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="BC20" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD20" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF20" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG20" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH20" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="BI20">
-        <v>0</v>
+        <v>0.2233</v>
       </c>
       <c r="BJ20" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="BK20" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="BL20" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="BM20" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN20" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO20" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP20" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="BS20" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BT20" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BU20" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BV20" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW20" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX20" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:77">
@@ -5064,7 +5202,7 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -5073,175 +5211,178 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q21" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R21" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T21" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U21" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V21" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="W21" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA21" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB21" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD21" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE21" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH21" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI21">
         <v>30000000</v>
       </c>
       <c r="AJ21" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO21">
-        <v>12600000</v>
+        <v>38100000</v>
       </c>
       <c r="AP21" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ21" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS21" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT21" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU21" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV21">
         <v>11</v>
       </c>
       <c r="AW21" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX21" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ21" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA21" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB21" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="BC21" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD21" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF21" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG21" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH21" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="BI21">
-        <v>0.42</v>
+        <v>1.27</v>
       </c>
       <c r="BJ21" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="BK21" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="BL21" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BM21" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN21" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO21" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP21" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="BS21" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BT21" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BU21" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BV21" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW21" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX21" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:77">
@@ -5255,7 +5396,7 @@
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5264,175 +5405,178 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q22" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R22" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T22" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U22" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V22" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="W22" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X22" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA22" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB22" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD22" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE22" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH22" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI22">
         <v>30000000</v>
       </c>
       <c r="AJ22" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN22" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO22">
-        <v>24000000</v>
+        <v>76500000</v>
       </c>
       <c r="AP22" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ22" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS22" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT22" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU22" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV22">
         <v>10</v>
       </c>
       <c r="AW22" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX22" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ22" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA22" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB22" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="BC22" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD22" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF22" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG22" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH22" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="BI22">
-        <v>0.8</v>
+        <v>2.55</v>
       </c>
       <c r="BJ22" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="BK22" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="BL22" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BM22" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="BN22" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="BO22" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="BP22" t="s">
+        <v>305</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>311</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU22" t="s">
         <v>278</v>
       </c>
-      <c r="BS22" t="s">
-        <v>284</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>288</v>
-      </c>
-      <c r="BU22" t="s">
-        <v>251</v>
-      </c>
       <c r="BV22" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW22" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX22" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:77">
@@ -5446,7 +5590,7 @@
         <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5455,172 +5599,175 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N23" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q23" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R23" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T23" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U23" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V23" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W23" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X23" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA23" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB23" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD23" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE23" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH23" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI23">
         <v>30000000</v>
       </c>
       <c r="AJ23" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK23" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN23" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO23">
         <v>2000000</v>
       </c>
       <c r="AP23" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ23" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS23" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT23" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU23" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV23">
         <v>9</v>
       </c>
       <c r="AW23" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX23" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ23" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA23" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC23" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD23" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF23" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG23" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH23" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="BI23">
         <v>0.0667</v>
       </c>
       <c r="BJ23" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="BK23" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BL23" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="BM23" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="BN23" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="BO23" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="BP23" t="s">
+        <v>306</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>309</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>313</v>
+      </c>
+      <c r="BU23" t="s">
         <v>279</v>
       </c>
-      <c r="BS23" t="s">
-        <v>282</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>286</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>252</v>
-      </c>
       <c r="BV23" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW23" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX23" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:77">
@@ -5634,7 +5781,7 @@
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5643,172 +5790,175 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N24" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q24" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R24" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T24" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U24" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V24" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W24" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X24" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y24" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA24" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB24" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD24" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE24" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH24" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI24">
         <v>30000000</v>
       </c>
       <c r="AJ24" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK24" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO24">
-        <v>28000000</v>
+        <v>51300000</v>
       </c>
       <c r="AP24" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ24" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS24" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT24" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU24" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV24">
         <v>7</v>
       </c>
       <c r="AW24" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX24" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ24" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA24" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC24" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD24" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF24" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG24" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH24" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="BI24">
-        <v>0.9333</v>
+        <v>1.71</v>
       </c>
       <c r="BJ24" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="BK24" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="BL24" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BM24" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN24" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO24" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BP24" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="BS24" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BT24" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BU24" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BV24" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW24" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX24" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:77">
@@ -5822,7 +5972,7 @@
         <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5831,172 +5981,175 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q25" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R25" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T25" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U25" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V25" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W25" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X25" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y25" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA25" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB25" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD25" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE25" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH25" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI25">
         <v>30000000</v>
       </c>
       <c r="AJ25" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM25" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN25" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO25">
-        <v>20000000</v>
+        <v>122500000</v>
       </c>
       <c r="AP25" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ25" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS25" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT25" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU25" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV25">
         <v>6</v>
       </c>
       <c r="AW25" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX25" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ25" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA25" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC25" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD25" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF25" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG25" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH25" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="BI25">
-        <v>0.6667</v>
+        <v>4.0833</v>
       </c>
       <c r="BJ25" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="BK25" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BL25" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="BM25" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="BN25" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="BO25" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="BP25" t="s">
+        <v>306</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>309</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>313</v>
+      </c>
+      <c r="BU25" t="s">
         <v>279</v>
       </c>
-      <c r="BS25" t="s">
-        <v>282</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>286</v>
-      </c>
-      <c r="BU25" t="s">
-        <v>252</v>
-      </c>
       <c r="BV25" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW25" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX25" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:77">
@@ -6010,7 +6163,7 @@
         <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -6019,178 +6172,181 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N26" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q26" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R26" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T26" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U26" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V26" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="W26" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X26" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y26" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA26" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB26" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD26" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE26" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH26" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI26">
         <v>30000000</v>
       </c>
       <c r="AJ26" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK26" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM26" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN26" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO26">
         <v>9000000</v>
       </c>
       <c r="AP26" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ26" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS26" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT26" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU26" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV26">
         <v>5</v>
       </c>
       <c r="AW26" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX26" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ26" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA26" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BB26" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="BC26" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD26" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF26" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG26" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH26" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="BI26">
         <v>0.3</v>
       </c>
       <c r="BJ26" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="BK26" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="BL26" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="BM26" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="BN26" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="BO26" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="BP26" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="BS26" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BT26" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="BU26" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BV26" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BW26" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="BX26" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="BY26" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:77">
@@ -6204,7 +6360,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -6213,199 +6369,228 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="M27" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N27" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="Q27" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="R27" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="T27" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U27" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="V27" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="W27" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="X27" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="Y27" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AA27" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AB27" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AD27" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AE27" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AH27" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AI27">
         <v>30000000</v>
       </c>
       <c r="AJ27" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AM27" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AN27" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AO27">
         <v>76000000</v>
       </c>
       <c r="AP27" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AQ27" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AS27" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AT27" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AU27" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AV27">
         <v>4</v>
       </c>
       <c r="AW27" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AX27" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AZ27" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="BA27" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="BC27" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="BD27" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="BF27" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BG27" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="BH27" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="BI27">
         <v>2.5333</v>
       </c>
       <c r="BJ27" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="BK27" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="BL27" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="BM27" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BN27" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BO27" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BS27" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="BT27" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="BU27" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="BV27" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="BW27" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="BX27" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
-    <hyperlink ref="I14" r:id="rId13"/>
-    <hyperlink ref="I15" r:id="rId14"/>
-    <hyperlink ref="I16" r:id="rId15"/>
-    <hyperlink ref="I17" r:id="rId16"/>
-    <hyperlink ref="I18" r:id="rId17"/>
-    <hyperlink ref="I19" r:id="rId18"/>
-    <hyperlink ref="I20" r:id="rId19"/>
-    <hyperlink ref="I21" r:id="rId20"/>
-    <hyperlink ref="I22" r:id="rId21"/>
-    <hyperlink ref="I23" r:id="rId22"/>
-    <hyperlink ref="I24" r:id="rId23"/>
-    <hyperlink ref="I25" r:id="rId24"/>
-    <hyperlink ref="I26" r:id="rId25"/>
-    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="I9" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="I10" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="I11" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="I12" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
+    <hyperlink ref="I13" r:id="rId23"/>
+    <hyperlink ref="J13" r:id="rId24"/>
+    <hyperlink ref="I14" r:id="rId25"/>
+    <hyperlink ref="J14" r:id="rId26"/>
+    <hyperlink ref="I15" r:id="rId27"/>
+    <hyperlink ref="J15" r:id="rId28"/>
+    <hyperlink ref="I16" r:id="rId29"/>
+    <hyperlink ref="J16" r:id="rId30"/>
+    <hyperlink ref="I17" r:id="rId31"/>
+    <hyperlink ref="J17" r:id="rId32"/>
+    <hyperlink ref="I18" r:id="rId33"/>
+    <hyperlink ref="J18" r:id="rId34"/>
+    <hyperlink ref="I19" r:id="rId35"/>
+    <hyperlink ref="J19" r:id="rId36"/>
+    <hyperlink ref="I20" r:id="rId37"/>
+    <hyperlink ref="J20" r:id="rId38"/>
+    <hyperlink ref="I21" r:id="rId39"/>
+    <hyperlink ref="J21" r:id="rId40"/>
+    <hyperlink ref="I22" r:id="rId41"/>
+    <hyperlink ref="J22" r:id="rId42"/>
+    <hyperlink ref="I23" r:id="rId43"/>
+    <hyperlink ref="J23" r:id="rId44"/>
+    <hyperlink ref="I24" r:id="rId45"/>
+    <hyperlink ref="J24" r:id="rId46"/>
+    <hyperlink ref="I25" r:id="rId47"/>
+    <hyperlink ref="J25" r:id="rId48"/>
+    <hyperlink ref="I26" r:id="rId49"/>
+    <hyperlink ref="J26" r:id="rId50"/>
+    <hyperlink ref="I27" r:id="rId51"/>
+    <hyperlink ref="J27" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -409,10 +409,10 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-23T13:33:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-23T13:32:00.000Z</t>
+    <t>2024-08-24T20:33:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-24T20:32:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/646-15126a00907440bea8e957eeb81a2bf5</t>
@@ -3468,7 +3468,7 @@
         <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -4044,7 +4044,7 @@
         <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -4238,7 +4238,7 @@
         <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4626,7 +4626,7 @@
         <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>210</v>
       </c>
       <c r="AO21">
-        <v>38100000</v>
+        <v>41800000</v>
       </c>
       <c r="AP21" t="s">
         <v>217</v>
@@ -5343,7 +5343,7 @@
         <v>256</v>
       </c>
       <c r="BI21">
-        <v>1.27</v>
+        <v>1.3933</v>
       </c>
       <c r="BJ21" t="s">
         <v>264</v>
@@ -5396,7 +5396,7 @@
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>210</v>
       </c>
       <c r="AO22">
-        <v>76500000</v>
+        <v>106500000</v>
       </c>
       <c r="AP22" t="s">
         <v>217</v>
@@ -5537,7 +5537,7 @@
         <v>257</v>
       </c>
       <c r="BI22">
-        <v>2.55</v>
+        <v>3.55</v>
       </c>
       <c r="BJ22" t="s">
         <v>264</v>
@@ -5590,7 +5590,7 @@
         <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>210</v>
       </c>
       <c r="AO25">
-        <v>122500000</v>
+        <v>118500000</v>
       </c>
       <c r="AP25" t="s">
         <v>217</v>
@@ -6110,7 +6110,7 @@
         <v>260</v>
       </c>
       <c r="BI25">
-        <v>4.0833</v>
+        <v>3.95</v>
       </c>
       <c r="BJ25" t="s">
         <v>269</v>
@@ -6163,7 +6163,7 @@
         <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="325">
   <si>
     <t>object</t>
   </si>
@@ -409,10 +409,7 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-24T20:33:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-24T20:32:00.000Z</t>
+    <t>2024-08-26T17:26:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/646-15126a00907440bea8e957eeb81a2bf5</t>
@@ -1627,130 +1624,130 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" t="s">
         <v>185</v>
       </c>
-      <c r="L2" t="s">
-        <v>186</v>
-      </c>
       <c r="M2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O2" t="s">
         <v>189</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>190</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>192</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>193</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>194</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>195</v>
       </c>
-      <c r="V2" t="s">
-        <v>196</v>
-      </c>
       <c r="W2" t="s">
+        <v>206</v>
+      </c>
+      <c r="X2" t="s">
         <v>207</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>208</v>
       </c>
-      <c r="Y2" t="s">
-        <v>209</v>
-      </c>
       <c r="AA2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD2" t="s">
         <v>212</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG2" t="s">
         <v>213</v>
       </c>
-      <c r="AE2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>214</v>
       </c>
-      <c r="AH2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM2" t="s">
         <v>215</v>
       </c>
-      <c r="AK2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
         <v>216</v>
       </c>
-      <c r="AN2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS2" t="s">
         <v>217</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>218</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>219</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>220</v>
       </c>
       <c r="AV2">
         <v>46</v>
       </c>
       <c r="AW2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>221</v>
       </c>
-      <c r="AX2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>222</v>
       </c>
-      <c r="BA2" t="s">
-        <v>223</v>
-      </c>
       <c r="BC2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD2" t="s">
         <v>234</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>235</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BH2" t="s">
         <v>236</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>236</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:79">
@@ -1773,166 +1770,166 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" t="s">
         <v>189</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>190</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>191</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>192</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>193</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>194</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>195</v>
       </c>
-      <c r="V3" t="s">
-        <v>196</v>
-      </c>
       <c r="W3" t="s">
+        <v>206</v>
+      </c>
+      <c r="X3" t="s">
         <v>207</v>
       </c>
-      <c r="X3" t="s">
-        <v>208</v>
-      </c>
       <c r="Y3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA3" t="s">
         <v>210</v>
       </c>
-      <c r="AA3" t="s">
-        <v>211</v>
-      </c>
       <c r="AB3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD3" t="s">
         <v>212</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG3" t="s">
         <v>213</v>
       </c>
-      <c r="AE3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>214</v>
-      </c>
       <c r="AH3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI3">
         <v>30000000</v>
       </c>
       <c r="AJ3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM3" t="s">
         <v>215</v>
       </c>
-      <c r="AK3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
         <v>216</v>
       </c>
-      <c r="AN3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS3" t="s">
         <v>217</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>218</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>219</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>220</v>
       </c>
       <c r="AV3">
         <v>42</v>
       </c>
       <c r="AW3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>221</v>
       </c>
-      <c r="AX3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>222</v>
       </c>
-      <c r="BA3" t="s">
-        <v>223</v>
-      </c>
       <c r="BC3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD3" t="s">
         <v>234</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>235</v>
       </c>
-      <c r="BF3" t="s">
-        <v>236</v>
-      </c>
       <c r="BG3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BK3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BL3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BM3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BP3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BS3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BT3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BU3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:79">
@@ -1955,175 +1952,175 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" t="s">
         <v>188</v>
       </c>
-      <c r="M4" t="s">
-        <v>185</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>189</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>190</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>191</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>192</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>193</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>194</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>195</v>
       </c>
-      <c r="V4" t="s">
-        <v>196</v>
-      </c>
       <c r="W4" t="s">
+        <v>206</v>
+      </c>
+      <c r="X4" t="s">
         <v>207</v>
       </c>
-      <c r="X4" t="s">
-        <v>208</v>
-      </c>
       <c r="Y4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA4" t="s">
         <v>210</v>
       </c>
-      <c r="AA4" t="s">
-        <v>211</v>
-      </c>
       <c r="AB4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD4" t="s">
         <v>212</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG4" t="s">
         <v>213</v>
       </c>
-      <c r="AE4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>214</v>
-      </c>
       <c r="AH4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI4">
         <v>30000000</v>
       </c>
       <c r="AJ4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM4" t="s">
         <v>215</v>
       </c>
-      <c r="AK4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>216</v>
-      </c>
       <c r="AN4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO4">
         <v>9000000</v>
       </c>
       <c r="AP4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS4" t="s">
         <v>217</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>218</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>219</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>220</v>
       </c>
       <c r="AV4">
         <v>40</v>
       </c>
       <c r="AW4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>221</v>
       </c>
-      <c r="AX4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>222</v>
       </c>
-      <c r="BA4" t="s">
-        <v>223</v>
-      </c>
       <c r="BC4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD4" t="s">
         <v>234</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>235</v>
       </c>
-      <c r="BF4" t="s">
-        <v>236</v>
-      </c>
       <c r="BG4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BI4">
         <v>0.3</v>
       </c>
       <c r="BJ4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BK4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BL4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BM4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BN4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BO4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BP4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BS4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BT4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU4" t="s">
+        <v>316</v>
+      </c>
+      <c r="BV4" t="s">
         <v>317</v>
       </c>
-      <c r="BV4" t="s">
-        <v>318</v>
-      </c>
       <c r="BW4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:79">
@@ -2146,178 +2143,178 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" t="s">
         <v>188</v>
       </c>
-      <c r="M5" t="s">
-        <v>185</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>189</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>190</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>191</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>192</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>193</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>194</v>
       </c>
-      <c r="U5" t="s">
-        <v>195</v>
-      </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
+        <v>206</v>
+      </c>
+      <c r="X5" t="s">
         <v>207</v>
       </c>
-      <c r="X5" t="s">
-        <v>208</v>
-      </c>
       <c r="Y5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA5" t="s">
         <v>210</v>
       </c>
-      <c r="AA5" t="s">
-        <v>211</v>
-      </c>
       <c r="AB5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD5" t="s">
         <v>212</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG5" t="s">
         <v>213</v>
       </c>
-      <c r="AE5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>214</v>
-      </c>
       <c r="AH5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI5">
         <v>30000000</v>
       </c>
       <c r="AJ5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM5" t="s">
         <v>215</v>
       </c>
-      <c r="AK5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>216</v>
-      </c>
       <c r="AN5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO5">
         <v>2000000</v>
       </c>
       <c r="AP5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS5" t="s">
         <v>217</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>218</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>219</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>220</v>
       </c>
       <c r="AV5">
         <v>39</v>
       </c>
       <c r="AW5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>221</v>
       </c>
-      <c r="AX5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>222</v>
       </c>
-      <c r="BA5" t="s">
-        <v>223</v>
-      </c>
       <c r="BC5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD5" t="s">
         <v>234</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BF5" t="s">
         <v>235</v>
       </c>
-      <c r="BF5" t="s">
-        <v>236</v>
-      </c>
       <c r="BG5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BI5">
         <v>0.0667</v>
       </c>
       <c r="BJ5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BK5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BL5" t="s">
+        <v>277</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>279</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU5" t="s">
         <v>278</v>
       </c>
-      <c r="BM5" t="s">
-        <v>286</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>291</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>280</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>296</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>309</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>313</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>279</v>
-      </c>
       <c r="BV5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BY5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:79">
@@ -2340,181 +2337,181 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N6" t="s">
         <v>188</v>
       </c>
-      <c r="M6" t="s">
-        <v>185</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>189</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>190</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>191</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>192</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>193</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>194</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>195</v>
       </c>
-      <c r="V6" t="s">
-        <v>196</v>
-      </c>
       <c r="W6" t="s">
+        <v>206</v>
+      </c>
+      <c r="X6" t="s">
         <v>207</v>
       </c>
-      <c r="X6" t="s">
-        <v>208</v>
-      </c>
       <c r="Y6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA6" t="s">
         <v>210</v>
       </c>
-      <c r="AA6" t="s">
-        <v>211</v>
-      </c>
       <c r="AB6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD6" t="s">
         <v>212</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG6" t="s">
         <v>213</v>
       </c>
-      <c r="AE6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>214</v>
-      </c>
       <c r="AH6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI6">
         <v>30000000</v>
       </c>
       <c r="AJ6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM6" t="s">
         <v>215</v>
       </c>
-      <c r="AK6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="s">
         <v>216</v>
       </c>
-      <c r="AN6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS6" t="s">
         <v>217</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>218</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>219</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>220</v>
       </c>
       <c r="AV6">
         <v>38</v>
       </c>
       <c r="AW6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>221</v>
       </c>
-      <c r="AX6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>222</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>223</v>
       </c>
-      <c r="BB6" t="s">
-        <v>224</v>
-      </c>
       <c r="BC6" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD6" t="s">
         <v>234</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BF6" t="s">
         <v>235</v>
       </c>
-      <c r="BF6" t="s">
-        <v>236</v>
-      </c>
       <c r="BG6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BK6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BL6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BM6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BN6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BO6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BP6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BS6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BT6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BU6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BV6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BY6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:79">
@@ -2537,163 +2534,163 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N7" t="s">
         <v>188</v>
       </c>
-      <c r="M7" t="s">
-        <v>185</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>189</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>190</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>191</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>192</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>193</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>194</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>195</v>
       </c>
-      <c r="V7" t="s">
-        <v>196</v>
-      </c>
       <c r="W7" t="s">
+        <v>206</v>
+      </c>
+      <c r="X7" t="s">
         <v>207</v>
       </c>
-      <c r="X7" t="s">
-        <v>208</v>
-      </c>
       <c r="Y7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA7" t="s">
         <v>210</v>
       </c>
-      <c r="AA7" t="s">
-        <v>211</v>
-      </c>
       <c r="AB7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD7" t="s">
         <v>212</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG7" t="s">
         <v>213</v>
       </c>
-      <c r="AE7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>214</v>
-      </c>
       <c r="AH7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI7">
         <v>30000000</v>
       </c>
       <c r="AJ7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM7" t="s">
         <v>215</v>
       </c>
-      <c r="AK7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="s">
         <v>216</v>
       </c>
-      <c r="AN7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS7" t="s">
         <v>217</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>218</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>219</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>220</v>
       </c>
       <c r="AV7">
         <v>37</v>
       </c>
       <c r="AW7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>221</v>
       </c>
-      <c r="AX7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>222</v>
       </c>
-      <c r="BA7" t="s">
-        <v>223</v>
-      </c>
       <c r="BC7" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD7" t="s">
         <v>234</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BF7" t="s">
         <v>235</v>
       </c>
-      <c r="BF7" t="s">
-        <v>236</v>
-      </c>
       <c r="BG7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BK7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BL7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BS7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BT7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BU7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BV7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BW7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BX7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:79">
@@ -2716,178 +2713,178 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" t="s">
         <v>188</v>
       </c>
-      <c r="M8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>189</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>190</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>191</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>192</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>193</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>194</v>
       </c>
-      <c r="U8" t="s">
-        <v>195</v>
-      </c>
       <c r="V8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W8" t="s">
+        <v>206</v>
+      </c>
+      <c r="X8" t="s">
         <v>207</v>
       </c>
-      <c r="X8" t="s">
-        <v>208</v>
-      </c>
       <c r="Y8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA8" t="s">
         <v>210</v>
       </c>
-      <c r="AA8" t="s">
-        <v>211</v>
-      </c>
       <c r="AB8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD8" t="s">
         <v>212</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG8" t="s">
         <v>213</v>
       </c>
-      <c r="AE8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>214</v>
-      </c>
       <c r="AH8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI8">
         <v>30000000</v>
       </c>
       <c r="AJ8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM8" t="s">
         <v>215</v>
       </c>
-      <c r="AK8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>216</v>
-      </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO8">
         <v>3000000</v>
       </c>
       <c r="AP8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS8" t="s">
         <v>217</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>218</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>219</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>220</v>
       </c>
       <c r="AV8">
         <v>36</v>
       </c>
       <c r="AW8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>221</v>
       </c>
-      <c r="AX8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>222</v>
       </c>
-      <c r="BA8" t="s">
-        <v>223</v>
-      </c>
       <c r="BC8" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD8" t="s">
         <v>234</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BF8" t="s">
         <v>235</v>
       </c>
-      <c r="BF8" t="s">
-        <v>236</v>
-      </c>
       <c r="BG8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BI8">
         <v>0.1</v>
       </c>
       <c r="BJ8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BK8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BL8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BM8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BN8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BO8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BP8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BS8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BT8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU8" t="s">
+        <v>316</v>
+      </c>
+      <c r="BV8" t="s">
         <v>317</v>
       </c>
-      <c r="BV8" t="s">
-        <v>318</v>
-      </c>
       <c r="BW8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BY8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:79">
@@ -2910,172 +2907,172 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9" t="s">
         <v>189</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>190</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>191</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>192</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>193</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>194</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>195</v>
       </c>
-      <c r="V9" t="s">
-        <v>196</v>
-      </c>
       <c r="W9" t="s">
+        <v>206</v>
+      </c>
+      <c r="X9" t="s">
         <v>207</v>
       </c>
-      <c r="X9" t="s">
-        <v>208</v>
-      </c>
       <c r="Y9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
-        <v>211</v>
-      </c>
       <c r="AB9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD9" t="s">
         <v>212</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG9" t="s">
         <v>213</v>
       </c>
-      <c r="AE9" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>214</v>
-      </c>
       <c r="AH9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI9">
         <v>30000000</v>
       </c>
       <c r="AJ9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM9" t="s">
         <v>215</v>
       </c>
-      <c r="AK9" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="s">
         <v>216</v>
       </c>
-      <c r="AN9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS9" t="s">
         <v>217</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>218</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>219</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>220</v>
       </c>
       <c r="AV9">
         <v>35</v>
       </c>
       <c r="AW9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>221</v>
       </c>
-      <c r="AX9" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>222</v>
       </c>
-      <c r="BA9" t="s">
-        <v>223</v>
-      </c>
       <c r="BC9" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD9" t="s">
         <v>234</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BF9" t="s">
         <v>235</v>
       </c>
-      <c r="BF9" t="s">
-        <v>236</v>
-      </c>
       <c r="BG9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BK9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BL9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BM9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BS9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BT9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BU9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BV9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:79">
@@ -3098,172 +3095,172 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" t="s">
         <v>185</v>
       </c>
-      <c r="L10" t="s">
-        <v>186</v>
-      </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N10" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" t="s">
         <v>189</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>190</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>191</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>192</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>193</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>194</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>195</v>
       </c>
-      <c r="V10" t="s">
-        <v>196</v>
-      </c>
       <c r="W10" t="s">
+        <v>206</v>
+      </c>
+      <c r="X10" t="s">
         <v>207</v>
       </c>
-      <c r="X10" t="s">
-        <v>208</v>
-      </c>
       <c r="Y10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA10" t="s">
         <v>210</v>
       </c>
-      <c r="AA10" t="s">
-        <v>211</v>
-      </c>
       <c r="AB10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD10" t="s">
         <v>212</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG10" t="s">
         <v>213</v>
       </c>
-      <c r="AE10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>214</v>
-      </c>
       <c r="AH10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI10">
         <v>30000000</v>
       </c>
       <c r="AJ10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM10" t="s">
         <v>215</v>
       </c>
-      <c r="AK10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="s">
         <v>216</v>
       </c>
-      <c r="AN10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS10" t="s">
         <v>217</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>218</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>219</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>220</v>
       </c>
       <c r="AV10">
         <v>34</v>
       </c>
       <c r="AW10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>221</v>
       </c>
-      <c r="AX10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>222</v>
       </c>
-      <c r="BA10" t="s">
-        <v>223</v>
-      </c>
       <c r="BC10" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD10" t="s">
         <v>234</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BF10" t="s">
         <v>235</v>
       </c>
-      <c r="BF10" t="s">
-        <v>236</v>
-      </c>
       <c r="BG10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BK10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BL10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BM10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BS10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BT10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BU10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BV10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BW10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BX10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:79">
@@ -3286,175 +3283,175 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" t="s">
+        <v>184</v>
+      </c>
+      <c r="N11" t="s">
         <v>188</v>
       </c>
-      <c r="M11" t="s">
-        <v>185</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>189</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>190</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>191</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>192</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>193</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>194</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>195</v>
       </c>
-      <c r="V11" t="s">
-        <v>196</v>
-      </c>
       <c r="W11" t="s">
+        <v>206</v>
+      </c>
+      <c r="X11" t="s">
         <v>207</v>
       </c>
-      <c r="X11" t="s">
-        <v>208</v>
-      </c>
       <c r="Y11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA11" t="s">
         <v>210</v>
       </c>
-      <c r="AA11" t="s">
-        <v>211</v>
-      </c>
       <c r="AB11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD11" t="s">
         <v>212</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG11" t="s">
         <v>213</v>
       </c>
-      <c r="AE11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>214</v>
-      </c>
       <c r="AH11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI11">
         <v>30000000</v>
       </c>
       <c r="AJ11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM11" t="s">
         <v>215</v>
       </c>
-      <c r="AK11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="s">
         <v>216</v>
       </c>
-      <c r="AN11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS11" t="s">
         <v>217</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>218</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>219</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>220</v>
       </c>
       <c r="AV11">
         <v>33</v>
       </c>
       <c r="AW11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>221</v>
       </c>
-      <c r="AX11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>222</v>
       </c>
-      <c r="BA11" t="s">
-        <v>223</v>
-      </c>
       <c r="BC11" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD11" t="s">
         <v>234</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BF11" t="s">
         <v>235</v>
       </c>
-      <c r="BF11" t="s">
-        <v>236</v>
-      </c>
       <c r="BG11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BK11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BL11" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>288</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>298</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>278</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX11" t="s">
         <v>280</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>284</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>289</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>294</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>299</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>309</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>313</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>279</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:79">
@@ -3477,178 +3474,178 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N12" t="s">
+        <v>188</v>
+      </c>
+      <c r="O12" t="s">
         <v>189</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>190</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>191</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>192</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>193</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>194</v>
       </c>
-      <c r="U12" t="s">
-        <v>195</v>
-      </c>
       <c r="V12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W12" t="s">
+        <v>206</v>
+      </c>
+      <c r="X12" t="s">
         <v>207</v>
       </c>
-      <c r="X12" t="s">
-        <v>208</v>
-      </c>
       <c r="Y12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA12" t="s">
         <v>210</v>
       </c>
-      <c r="AA12" t="s">
-        <v>211</v>
-      </c>
       <c r="AB12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD12" t="s">
         <v>212</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG12" t="s">
         <v>213</v>
       </c>
-      <c r="AE12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>214</v>
-      </c>
       <c r="AH12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI12">
         <v>30000000</v>
       </c>
       <c r="AJ12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM12" t="s">
         <v>215</v>
       </c>
-      <c r="AK12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="s">
         <v>216</v>
       </c>
-      <c r="AN12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS12" t="s">
         <v>217</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>218</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>219</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>220</v>
       </c>
       <c r="AV12">
         <v>30</v>
       </c>
       <c r="AW12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>221</v>
       </c>
-      <c r="AX12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>222</v>
       </c>
-      <c r="BA12" t="s">
-        <v>223</v>
-      </c>
       <c r="BB12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BC12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD12" t="s">
         <v>234</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BF12" t="s">
         <v>235</v>
       </c>
-      <c r="BF12" t="s">
-        <v>236</v>
-      </c>
       <c r="BG12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BK12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BL12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BM12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BP12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BS12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BT12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU12" t="s">
+        <v>316</v>
+      </c>
+      <c r="BV12" t="s">
         <v>317</v>
       </c>
-      <c r="BV12" t="s">
-        <v>318</v>
-      </c>
       <c r="BW12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:79">
@@ -3671,175 +3668,175 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N13" t="s">
+        <v>188</v>
+      </c>
+      <c r="O13" t="s">
         <v>189</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>190</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>191</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>192</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>193</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>194</v>
       </c>
-      <c r="U13" t="s">
-        <v>195</v>
-      </c>
       <c r="V13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W13" t="s">
+        <v>206</v>
+      </c>
+      <c r="X13" t="s">
         <v>207</v>
       </c>
-      <c r="X13" t="s">
-        <v>208</v>
-      </c>
       <c r="Y13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA13" t="s">
         <v>210</v>
       </c>
-      <c r="AA13" t="s">
-        <v>211</v>
-      </c>
       <c r="AB13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD13" t="s">
         <v>212</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG13" t="s">
         <v>213</v>
       </c>
-      <c r="AE13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>214</v>
-      </c>
       <c r="AH13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI13">
         <v>30000000</v>
       </c>
       <c r="AJ13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM13" t="s">
         <v>215</v>
       </c>
-      <c r="AK13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="s">
         <v>216</v>
       </c>
-      <c r="AN13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS13" t="s">
         <v>217</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>218</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>219</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>220</v>
       </c>
       <c r="AV13">
         <v>29</v>
       </c>
       <c r="AW13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>221</v>
       </c>
-      <c r="AX13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>222</v>
       </c>
-      <c r="BA13" t="s">
-        <v>223</v>
-      </c>
       <c r="BC13" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD13" t="s">
         <v>234</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BF13" t="s">
         <v>235</v>
       </c>
-      <c r="BF13" t="s">
-        <v>236</v>
-      </c>
       <c r="BG13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BI13">
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BK13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BL13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BM13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BP13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BS13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BT13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BU13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BV13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:79">
@@ -3862,175 +3859,175 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" t="s">
         <v>188</v>
       </c>
-      <c r="M14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>189</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>190</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>191</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>192</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>193</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>194</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>195</v>
       </c>
-      <c r="V14" t="s">
-        <v>196</v>
-      </c>
       <c r="W14" t="s">
+        <v>206</v>
+      </c>
+      <c r="X14" t="s">
         <v>207</v>
       </c>
-      <c r="X14" t="s">
-        <v>208</v>
-      </c>
       <c r="Y14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA14" t="s">
         <v>210</v>
       </c>
-      <c r="AA14" t="s">
-        <v>211</v>
-      </c>
       <c r="AB14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD14" t="s">
         <v>212</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG14" t="s">
         <v>213</v>
       </c>
-      <c r="AE14" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>214</v>
-      </c>
       <c r="AH14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI14">
         <v>30000000</v>
       </c>
       <c r="AJ14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM14" t="s">
         <v>215</v>
       </c>
-      <c r="AK14" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="s">
         <v>216</v>
       </c>
-      <c r="AN14" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS14" t="s">
         <v>217</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>218</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>219</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>220</v>
       </c>
       <c r="AV14">
         <v>27</v>
       </c>
       <c r="AW14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>221</v>
       </c>
-      <c r="AX14" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>222</v>
       </c>
-      <c r="BA14" t="s">
-        <v>223</v>
-      </c>
       <c r="BC14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD14" t="s">
         <v>234</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BF14" t="s">
         <v>235</v>
       </c>
-      <c r="BF14" t="s">
-        <v>236</v>
-      </c>
       <c r="BG14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BK14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BL14" t="s">
+        <v>276</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>288</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>298</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU14" t="s">
         <v>277</v>
       </c>
-      <c r="BM14" t="s">
-        <v>284</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>289</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>294</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>299</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>311</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>315</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>278</v>
-      </c>
       <c r="BV14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:79">
@@ -4053,178 +4050,178 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" t="s">
+        <v>184</v>
+      </c>
+      <c r="N15" t="s">
         <v>188</v>
       </c>
-      <c r="M15" t="s">
-        <v>185</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>189</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>190</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>191</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>192</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>193</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>194</v>
       </c>
-      <c r="U15" t="s">
-        <v>195</v>
-      </c>
       <c r="V15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W15" t="s">
+        <v>206</v>
+      </c>
+      <c r="X15" t="s">
         <v>207</v>
       </c>
-      <c r="X15" t="s">
-        <v>208</v>
-      </c>
       <c r="Y15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA15" t="s">
         <v>210</v>
       </c>
-      <c r="AA15" t="s">
-        <v>211</v>
-      </c>
       <c r="AB15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD15" t="s">
         <v>212</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG15" t="s">
         <v>213</v>
       </c>
-      <c r="AE15" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>214</v>
-      </c>
       <c r="AH15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI15">
         <v>30000000</v>
       </c>
       <c r="AJ15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM15" t="s">
         <v>215</v>
       </c>
-      <c r="AK15" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="s">
         <v>216</v>
       </c>
-      <c r="AN15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS15" t="s">
         <v>217</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>218</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>219</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>220</v>
       </c>
       <c r="AV15">
         <v>26</v>
       </c>
       <c r="AW15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>221</v>
       </c>
-      <c r="AX15" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>222</v>
       </c>
-      <c r="BA15" t="s">
-        <v>223</v>
-      </c>
       <c r="BB15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BC15" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD15" t="s">
         <v>234</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BF15" t="s">
         <v>235</v>
       </c>
-      <c r="BF15" t="s">
-        <v>236</v>
-      </c>
       <c r="BG15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI15">
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BK15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BL15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BM15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BP15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BS15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BT15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BU15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BV15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:79">
@@ -4247,178 +4244,178 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" t="s">
+        <v>184</v>
+      </c>
+      <c r="N16" t="s">
         <v>188</v>
       </c>
-      <c r="M16" t="s">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>189</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>190</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>191</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>192</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>193</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>194</v>
       </c>
-      <c r="U16" t="s">
-        <v>195</v>
-      </c>
       <c r="V16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W16" t="s">
+        <v>206</v>
+      </c>
+      <c r="X16" t="s">
         <v>207</v>
       </c>
-      <c r="X16" t="s">
-        <v>208</v>
-      </c>
       <c r="Y16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA16" t="s">
         <v>210</v>
       </c>
-      <c r="AA16" t="s">
-        <v>211</v>
-      </c>
       <c r="AB16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD16" t="s">
         <v>212</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG16" t="s">
         <v>213</v>
       </c>
-      <c r="AE16" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>214</v>
-      </c>
       <c r="AH16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI16">
         <v>30000000</v>
       </c>
       <c r="AJ16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM16" t="s">
         <v>215</v>
       </c>
-      <c r="AK16" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>216</v>
-      </c>
       <c r="AN16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO16">
         <v>21000000</v>
       </c>
       <c r="AP16" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS16" t="s">
         <v>217</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>218</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>219</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>220</v>
       </c>
       <c r="AV16">
         <v>23</v>
       </c>
       <c r="AW16" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>221</v>
       </c>
-      <c r="AX16" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>222</v>
       </c>
-      <c r="BA16" t="s">
-        <v>223</v>
-      </c>
       <c r="BB16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BC16" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD16" t="s">
         <v>234</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BF16" t="s">
         <v>235</v>
       </c>
-      <c r="BF16" t="s">
-        <v>236</v>
-      </c>
       <c r="BG16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI16">
         <v>0.7</v>
       </c>
       <c r="BJ16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BK16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BL16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BM16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BP16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BS16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BT16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU16" t="s">
+        <v>316</v>
+      </c>
+      <c r="BV16" t="s">
         <v>317</v>
       </c>
-      <c r="BV16" t="s">
-        <v>318</v>
-      </c>
       <c r="BW16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:77">
@@ -4441,178 +4438,178 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s">
         <v>188</v>
       </c>
-      <c r="M17" t="s">
-        <v>185</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>189</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>190</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>191</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>192</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>193</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>194</v>
       </c>
-      <c r="U17" t="s">
-        <v>195</v>
-      </c>
       <c r="V17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W17" t="s">
+        <v>206</v>
+      </c>
+      <c r="X17" t="s">
         <v>207</v>
       </c>
-      <c r="X17" t="s">
-        <v>208</v>
-      </c>
       <c r="Y17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA17" t="s">
         <v>210</v>
       </c>
-      <c r="AA17" t="s">
-        <v>211</v>
-      </c>
       <c r="AB17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD17" t="s">
         <v>212</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG17" t="s">
         <v>213</v>
       </c>
-      <c r="AE17" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>214</v>
-      </c>
       <c r="AH17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI17">
         <v>30000000</v>
       </c>
       <c r="AJ17" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM17" t="s">
         <v>215</v>
       </c>
-      <c r="AK17" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>216</v>
-      </c>
       <c r="AN17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO17">
         <v>20000000</v>
       </c>
       <c r="AP17" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS17" t="s">
         <v>217</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>218</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>219</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>220</v>
       </c>
       <c r="AV17">
         <v>22</v>
       </c>
       <c r="AW17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>221</v>
       </c>
-      <c r="AX17" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>222</v>
       </c>
-      <c r="BA17" t="s">
-        <v>223</v>
-      </c>
       <c r="BB17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BC17" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD17" t="s">
         <v>234</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BF17" t="s">
         <v>235</v>
       </c>
-      <c r="BF17" t="s">
-        <v>236</v>
-      </c>
       <c r="BG17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BI17">
         <v>0.6667</v>
       </c>
       <c r="BJ17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BK17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BL17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BM17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BN17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BO17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BP17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BS17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BT17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BU17" t="s">
+        <v>316</v>
+      </c>
+      <c r="BV17" t="s">
         <v>317</v>
       </c>
-      <c r="BV17" t="s">
-        <v>318</v>
-      </c>
       <c r="BW17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:77">
@@ -4635,172 +4632,172 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s">
+        <v>184</v>
+      </c>
+      <c r="N18" t="s">
         <v>188</v>
       </c>
-      <c r="M18" t="s">
-        <v>185</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>189</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>190</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>191</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>192</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>193</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>194</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>195</v>
       </c>
-      <c r="V18" t="s">
-        <v>196</v>
-      </c>
       <c r="W18" t="s">
+        <v>206</v>
+      </c>
+      <c r="X18" t="s">
         <v>207</v>
       </c>
-      <c r="X18" t="s">
-        <v>208</v>
-      </c>
       <c r="Y18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA18" t="s">
         <v>210</v>
       </c>
-      <c r="AA18" t="s">
-        <v>211</v>
-      </c>
       <c r="AB18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD18" t="s">
         <v>212</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG18" t="s">
         <v>213</v>
       </c>
-      <c r="AE18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>214</v>
-      </c>
       <c r="AH18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI18">
         <v>30000000</v>
       </c>
       <c r="AJ18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM18" t="s">
         <v>215</v>
       </c>
-      <c r="AK18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>216</v>
-      </c>
       <c r="AN18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO18">
         <v>5650000</v>
       </c>
       <c r="AP18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS18" t="s">
         <v>217</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>218</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AU18" t="s">
         <v>219</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>220</v>
       </c>
       <c r="AV18">
         <v>20</v>
       </c>
       <c r="AW18" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>221</v>
       </c>
-      <c r="AX18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>222</v>
       </c>
-      <c r="BA18" t="s">
-        <v>223</v>
-      </c>
       <c r="BC18" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD18" t="s">
         <v>234</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BF18" t="s">
         <v>235</v>
       </c>
-      <c r="BF18" t="s">
-        <v>236</v>
-      </c>
       <c r="BG18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BI18">
         <v>0.1883</v>
       </c>
       <c r="BJ18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BK18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BL18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BM18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BS18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BT18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BU18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BV18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BW18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BX18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:77">
@@ -4823,178 +4820,178 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N19" t="s">
         <v>188</v>
       </c>
-      <c r="M19" t="s">
-        <v>185</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>189</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>190</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>191</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>192</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>193</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>194</v>
       </c>
-      <c r="U19" t="s">
-        <v>195</v>
-      </c>
       <c r="V19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W19" t="s">
+        <v>206</v>
+      </c>
+      <c r="X19" t="s">
         <v>207</v>
       </c>
-      <c r="X19" t="s">
-        <v>208</v>
-      </c>
       <c r="Y19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA19" t="s">
         <v>210</v>
       </c>
-      <c r="AA19" t="s">
-        <v>211</v>
-      </c>
       <c r="AB19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD19" t="s">
         <v>212</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG19" t="s">
         <v>213</v>
       </c>
-      <c r="AE19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>214</v>
-      </c>
       <c r="AH19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI19">
         <v>30000000</v>
       </c>
       <c r="AJ19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM19" t="s">
         <v>215</v>
       </c>
-      <c r="AK19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="s">
         <v>216</v>
       </c>
-      <c r="AN19" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS19" t="s">
         <v>217</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>218</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AU19" t="s">
         <v>219</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>220</v>
       </c>
       <c r="AV19">
         <v>16</v>
       </c>
       <c r="AW19" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ19" t="s">
         <v>221</v>
       </c>
-      <c r="AX19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>222</v>
       </c>
-      <c r="BA19" t="s">
-        <v>223</v>
-      </c>
       <c r="BB19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BC19" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD19" t="s">
         <v>234</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BF19" t="s">
         <v>235</v>
       </c>
-      <c r="BF19" t="s">
-        <v>236</v>
-      </c>
       <c r="BG19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BK19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BL19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BM19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BP19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BS19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BT19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BU19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BV19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:77">
@@ -5017,178 +5014,178 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="s">
+        <v>184</v>
+      </c>
+      <c r="N20" t="s">
         <v>188</v>
       </c>
-      <c r="M20" t="s">
-        <v>185</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>189</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>190</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>191</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>192</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>193</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>194</v>
       </c>
-      <c r="U20" t="s">
-        <v>195</v>
-      </c>
       <c r="V20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
         <v>207</v>
       </c>
-      <c r="X20" t="s">
-        <v>208</v>
-      </c>
       <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA20" t="s">
         <v>210</v>
       </c>
-      <c r="AA20" t="s">
-        <v>211</v>
-      </c>
       <c r="AB20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD20" t="s">
         <v>212</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG20" t="s">
         <v>213</v>
       </c>
-      <c r="AE20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>214</v>
-      </c>
       <c r="AH20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI20">
         <v>30000000</v>
       </c>
       <c r="AJ20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM20" t="s">
         <v>215</v>
       </c>
-      <c r="AK20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>216</v>
-      </c>
       <c r="AN20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO20">
         <v>6700000</v>
       </c>
       <c r="AP20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS20" t="s">
         <v>217</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>218</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>219</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>220</v>
       </c>
       <c r="AV20">
         <v>15</v>
       </c>
       <c r="AW20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>221</v>
       </c>
-      <c r="AX20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>222</v>
       </c>
-      <c r="BA20" t="s">
-        <v>223</v>
-      </c>
       <c r="BB20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BC20" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD20" t="s">
         <v>234</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BF20" t="s">
         <v>235</v>
       </c>
-      <c r="BF20" t="s">
-        <v>236</v>
-      </c>
       <c r="BG20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BI20">
         <v>0.2233</v>
       </c>
       <c r="BJ20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BK20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BL20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BM20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BP20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BS20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BT20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BU20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BV20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:77">
@@ -5211,178 +5208,178 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" t="s">
         <v>188</v>
       </c>
-      <c r="M21" t="s">
-        <v>185</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>189</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>190</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>191</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>192</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>193</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>194</v>
       </c>
-      <c r="U21" t="s">
-        <v>195</v>
-      </c>
       <c r="V21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
         <v>207</v>
       </c>
-      <c r="X21" t="s">
-        <v>208</v>
-      </c>
       <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA21" t="s">
         <v>210</v>
       </c>
-      <c r="AA21" t="s">
-        <v>211</v>
-      </c>
       <c r="AB21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD21" t="s">
         <v>212</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG21" t="s">
         <v>213</v>
       </c>
-      <c r="AE21" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>214</v>
-      </c>
       <c r="AH21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI21">
         <v>30000000</v>
       </c>
       <c r="AJ21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM21" t="s">
         <v>215</v>
       </c>
-      <c r="AK21" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO21">
+        <v>50400000</v>
+      </c>
+      <c r="AP21" t="s">
         <v>216</v>
       </c>
-      <c r="AN21" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO21">
-        <v>41800000</v>
-      </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS21" t="s">
         <v>217</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>218</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AU21" t="s">
         <v>219</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>220</v>
       </c>
       <c r="AV21">
         <v>11</v>
       </c>
       <c r="AW21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ21" t="s">
         <v>221</v>
       </c>
-      <c r="AX21" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>222</v>
       </c>
-      <c r="BA21" t="s">
-        <v>223</v>
-      </c>
       <c r="BB21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BC21" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD21" t="s">
         <v>234</v>
       </c>
-      <c r="BD21" t="s">
+      <c r="BF21" t="s">
         <v>235</v>
       </c>
-      <c r="BF21" t="s">
-        <v>236</v>
-      </c>
       <c r="BG21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BI21">
-        <v>1.3933</v>
+        <v>1.68</v>
       </c>
       <c r="BJ21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BK21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BL21" t="s">
+        <v>277</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>288</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>303</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU21" t="s">
         <v>278</v>
       </c>
-      <c r="BM21" t="s">
-        <v>284</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>289</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>294</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>304</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>309</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>313</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>279</v>
-      </c>
       <c r="BV21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:77">
@@ -5405,178 +5402,178 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="s">
+        <v>184</v>
+      </c>
+      <c r="N22" t="s">
         <v>188</v>
       </c>
-      <c r="M22" t="s">
-        <v>185</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>189</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>190</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>191</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>192</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>193</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>194</v>
       </c>
-      <c r="U22" t="s">
-        <v>195</v>
-      </c>
       <c r="V22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
         <v>207</v>
       </c>
-      <c r="X22" t="s">
-        <v>208</v>
-      </c>
       <c r="Y22" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA22" t="s">
         <v>210</v>
       </c>
-      <c r="AA22" t="s">
-        <v>211</v>
-      </c>
       <c r="AB22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD22" t="s">
         <v>212</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG22" t="s">
         <v>213</v>
       </c>
-      <c r="AE22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>214</v>
-      </c>
       <c r="AH22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI22">
         <v>30000000</v>
       </c>
       <c r="AJ22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM22" t="s">
         <v>215</v>
       </c>
-      <c r="AK22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>216</v>
-      </c>
       <c r="AN22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO22">
         <v>106500000</v>
       </c>
       <c r="AP22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS22" t="s">
         <v>217</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>218</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AU22" t="s">
         <v>219</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>220</v>
       </c>
       <c r="AV22">
         <v>10</v>
       </c>
       <c r="AW22" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ22" t="s">
         <v>221</v>
       </c>
-      <c r="AX22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>222</v>
       </c>
-      <c r="BA22" t="s">
-        <v>223</v>
-      </c>
       <c r="BB22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BC22" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD22" t="s">
         <v>234</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BF22" t="s">
         <v>235</v>
       </c>
-      <c r="BF22" t="s">
-        <v>236</v>
-      </c>
       <c r="BG22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BI22">
         <v>3.55</v>
       </c>
       <c r="BJ22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BK22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BL22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BM22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BN22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BO22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BP22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BS22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BT22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BU22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BV22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:77">
@@ -5599,175 +5596,175 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="s">
+        <v>184</v>
+      </c>
+      <c r="N23" t="s">
         <v>188</v>
       </c>
-      <c r="M23" t="s">
-        <v>185</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>189</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>190</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>191</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>192</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>193</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>194</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>195</v>
       </c>
-      <c r="V23" t="s">
-        <v>196</v>
-      </c>
       <c r="W23" t="s">
+        <v>206</v>
+      </c>
+      <c r="X23" t="s">
         <v>207</v>
       </c>
-      <c r="X23" t="s">
-        <v>208</v>
-      </c>
       <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA23" t="s">
         <v>210</v>
       </c>
-      <c r="AA23" t="s">
-        <v>211</v>
-      </c>
       <c r="AB23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD23" t="s">
         <v>212</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG23" t="s">
         <v>213</v>
       </c>
-      <c r="AE23" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>214</v>
-      </c>
       <c r="AH23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI23">
         <v>30000000</v>
       </c>
       <c r="AJ23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM23" t="s">
         <v>215</v>
       </c>
-      <c r="AK23" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>216</v>
-      </c>
       <c r="AN23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO23">
         <v>2000000</v>
       </c>
       <c r="AP23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS23" t="s">
         <v>217</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>218</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AU23" t="s">
         <v>219</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>220</v>
       </c>
       <c r="AV23">
         <v>9</v>
       </c>
       <c r="AW23" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ23" t="s">
         <v>221</v>
       </c>
-      <c r="AX23" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>222</v>
       </c>
-      <c r="BA23" t="s">
-        <v>223</v>
-      </c>
       <c r="BC23" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD23" t="s">
         <v>234</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BF23" t="s">
         <v>235</v>
       </c>
-      <c r="BF23" t="s">
-        <v>236</v>
-      </c>
       <c r="BG23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BI23">
         <v>0.0667</v>
       </c>
       <c r="BJ23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BK23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BL23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BM23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BN23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BO23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BP23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BS23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BT23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BU23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BV23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:77">
@@ -5790,175 +5787,175 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" t="s">
         <v>188</v>
       </c>
-      <c r="M24" t="s">
-        <v>185</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>189</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>190</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>191</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>192</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>193</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>194</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>195</v>
       </c>
-      <c r="V24" t="s">
-        <v>196</v>
-      </c>
       <c r="W24" t="s">
+        <v>206</v>
+      </c>
+      <c r="X24" t="s">
         <v>207</v>
       </c>
-      <c r="X24" t="s">
-        <v>208</v>
-      </c>
       <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA24" t="s">
         <v>210</v>
       </c>
-      <c r="AA24" t="s">
-        <v>211</v>
-      </c>
       <c r="AB24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD24" t="s">
         <v>212</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG24" t="s">
         <v>213</v>
       </c>
-      <c r="AE24" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>214</v>
-      </c>
       <c r="AH24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI24">
         <v>30000000</v>
       </c>
       <c r="AJ24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM24" t="s">
         <v>215</v>
       </c>
-      <c r="AK24" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>216</v>
-      </c>
       <c r="AN24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO24">
         <v>51300000</v>
       </c>
       <c r="AP24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS24" t="s">
         <v>217</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>218</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
         <v>219</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>220</v>
       </c>
       <c r="AV24">
         <v>7</v>
       </c>
       <c r="AW24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ24" t="s">
         <v>221</v>
       </c>
-      <c r="AX24" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>222</v>
       </c>
-      <c r="BA24" t="s">
-        <v>223</v>
-      </c>
       <c r="BC24" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD24" t="s">
         <v>234</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BF24" t="s">
         <v>235</v>
       </c>
-      <c r="BF24" t="s">
-        <v>236</v>
-      </c>
       <c r="BG24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BI24">
         <v>1.71</v>
       </c>
       <c r="BJ24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BK24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BL24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BM24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BP24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BS24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BT24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BU24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BV24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:77">
@@ -5981,175 +5978,175 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" t="s">
         <v>188</v>
       </c>
-      <c r="M25" t="s">
-        <v>185</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>189</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>190</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>191</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>192</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
         <v>193</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>194</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>195</v>
       </c>
-      <c r="V25" t="s">
-        <v>196</v>
-      </c>
       <c r="W25" t="s">
+        <v>206</v>
+      </c>
+      <c r="X25" t="s">
         <v>207</v>
       </c>
-      <c r="X25" t="s">
-        <v>208</v>
-      </c>
       <c r="Y25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA25" t="s">
         <v>210</v>
       </c>
-      <c r="AA25" t="s">
-        <v>211</v>
-      </c>
       <c r="AB25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD25" t="s">
         <v>212</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG25" t="s">
         <v>213</v>
       </c>
-      <c r="AE25" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>214</v>
-      </c>
       <c r="AH25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI25">
         <v>30000000</v>
       </c>
       <c r="AJ25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM25" t="s">
         <v>215</v>
       </c>
-      <c r="AK25" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO25">
+        <v>159500000</v>
+      </c>
+      <c r="AP25" t="s">
         <v>216</v>
       </c>
-      <c r="AN25" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO25">
-        <v>118500000</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS25" t="s">
         <v>217</v>
       </c>
-      <c r="AQ25" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>218</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AU25" t="s">
         <v>219</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>220</v>
       </c>
       <c r="AV25">
         <v>6</v>
       </c>
       <c r="AW25" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ25" t="s">
         <v>221</v>
       </c>
-      <c r="AX25" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>222</v>
       </c>
-      <c r="BA25" t="s">
-        <v>223</v>
-      </c>
       <c r="BC25" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD25" t="s">
         <v>234</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BF25" t="s">
         <v>235</v>
       </c>
-      <c r="BF25" t="s">
-        <v>236</v>
-      </c>
       <c r="BG25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BI25">
-        <v>3.95</v>
+        <v>5.3167</v>
       </c>
       <c r="BJ25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BK25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BL25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BM25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BN25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BO25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BP25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BS25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BT25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BU25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BV25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:77">
@@ -6172,181 +6169,181 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s">
+        <v>184</v>
+      </c>
+      <c r="N26" t="s">
         <v>188</v>
       </c>
-      <c r="M26" t="s">
-        <v>185</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>189</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>190</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>191</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>192</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>193</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>194</v>
       </c>
-      <c r="U26" t="s">
-        <v>195</v>
-      </c>
       <c r="V26" t="s">
+        <v>205</v>
+      </c>
+      <c r="W26" t="s">
         <v>206</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>207</v>
       </c>
-      <c r="X26" t="s">
-        <v>208</v>
-      </c>
       <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA26" t="s">
         <v>210</v>
       </c>
-      <c r="AA26" t="s">
-        <v>211</v>
-      </c>
       <c r="AB26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD26" t="s">
         <v>212</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG26" t="s">
         <v>213</v>
       </c>
-      <c r="AE26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>214</v>
-      </c>
       <c r="AH26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI26">
         <v>30000000</v>
       </c>
       <c r="AJ26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM26" t="s">
         <v>215</v>
       </c>
-      <c r="AK26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>216</v>
-      </c>
       <c r="AN26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO26">
         <v>9000000</v>
       </c>
       <c r="AP26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS26" t="s">
         <v>217</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>218</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>219</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>220</v>
       </c>
       <c r="AV26">
         <v>5</v>
       </c>
       <c r="AW26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>221</v>
       </c>
-      <c r="AX26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>222</v>
       </c>
-      <c r="BA26" t="s">
-        <v>223</v>
-      </c>
       <c r="BB26" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC26" t="s">
         <v>233</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>234</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BF26" t="s">
         <v>235</v>
       </c>
-      <c r="BF26" t="s">
-        <v>236</v>
-      </c>
       <c r="BG26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI26">
         <v>0.3</v>
       </c>
       <c r="BJ26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BK26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BL26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BM26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BN26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BO26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BP26" t="s">
+        <v>307</v>
+      </c>
+      <c r="BS26" t="s">
         <v>308</v>
       </c>
-      <c r="BS26" t="s">
-        <v>309</v>
-      </c>
       <c r="BT26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BU26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BV26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BW26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BY26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:77">
@@ -6360,7 +6357,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -6369,172 +6366,172 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" t="s">
         <v>184</v>
       </c>
-      <c r="K27" t="s">
-        <v>185</v>
-      </c>
       <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N27" t="s">
         <v>188</v>
       </c>
-      <c r="M27" t="s">
-        <v>185</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>189</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>190</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>191</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>192</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T27" t="s">
         <v>193</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>194</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>195</v>
       </c>
-      <c r="V27" t="s">
-        <v>196</v>
-      </c>
       <c r="W27" t="s">
+        <v>206</v>
+      </c>
+      <c r="X27" t="s">
         <v>207</v>
       </c>
-      <c r="X27" t="s">
-        <v>208</v>
-      </c>
       <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA27" t="s">
         <v>210</v>
       </c>
-      <c r="AA27" t="s">
-        <v>211</v>
-      </c>
       <c r="AB27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD27" t="s">
         <v>212</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG27" t="s">
         <v>213</v>
       </c>
-      <c r="AE27" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>214</v>
-      </c>
       <c r="AH27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI27">
         <v>30000000</v>
       </c>
       <c r="AJ27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM27" t="s">
         <v>215</v>
       </c>
-      <c r="AK27" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>216</v>
-      </c>
       <c r="AN27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO27">
         <v>76000000</v>
       </c>
       <c r="AP27" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS27" t="s">
         <v>217</v>
       </c>
-      <c r="AQ27" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS27" t="s">
+      <c r="AT27" t="s">
         <v>218</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AU27" t="s">
         <v>219</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>220</v>
       </c>
       <c r="AV27">
         <v>4</v>
       </c>
       <c r="AW27" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ27" t="s">
         <v>221</v>
       </c>
-      <c r="AX27" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>222</v>
       </c>
-      <c r="BA27" t="s">
-        <v>223</v>
-      </c>
       <c r="BC27" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD27" t="s">
         <v>234</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BF27" t="s">
         <v>235</v>
       </c>
-      <c r="BF27" t="s">
-        <v>236</v>
-      </c>
       <c r="BG27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BH27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BI27">
         <v>2.5333</v>
       </c>
       <c r="BJ27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BK27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BL27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BM27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BN27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BS27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BT27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BU27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BV27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BW27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BX27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="327">
   <si>
     <t>object</t>
   </si>
@@ -409,7 +409,13 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-26T17:26:00.000Z</t>
+    <t>2024-08-27T12:15:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-27T12:18:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-27T12:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/646-15126a00907440bea8e957eeb81a2bf5</t>
@@ -1624,130 +1630,130 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U2" t="s">
+        <v>196</v>
+      </c>
+      <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
+        <v>208</v>
+      </c>
+      <c r="X2" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>194</v>
       </c>
-      <c r="V2" t="s">
-        <v>195</v>
-      </c>
-      <c r="W2" t="s">
-        <v>206</v>
-      </c>
-      <c r="X2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>192</v>
-      </c>
       <c r="AS2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV2">
         <v>46</v>
       </c>
       <c r="AW2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:79">
@@ -1770,166 +1776,166 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M3" t="s">
         <v>186</v>
       </c>
-      <c r="M3" t="s">
-        <v>184</v>
-      </c>
       <c r="N3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI3">
         <v>30000000</v>
       </c>
       <c r="AJ3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV3">
         <v>42</v>
       </c>
       <c r="AW3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BK3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BL3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BM3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BS3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:79">
@@ -1952,175 +1958,175 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI4">
         <v>30000000</v>
       </c>
       <c r="AJ4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO4">
         <v>9000000</v>
       </c>
       <c r="AP4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV4">
         <v>40</v>
       </c>
       <c r="AW4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="BI4">
         <v>0.3</v>
       </c>
       <c r="BJ4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BK4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BL4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BM4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="BN4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="BO4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BP4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BS4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="BT4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="BU4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BV4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:79">
@@ -2143,178 +2149,178 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="W5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI5">
         <v>30000000</v>
       </c>
       <c r="AJ5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO5">
         <v>2000000</v>
       </c>
       <c r="AP5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV5">
         <v>39</v>
       </c>
       <c r="AW5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BI5">
         <v>0.0667</v>
       </c>
       <c r="BJ5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BK5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BL5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BM5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="BN5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="BO5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BP5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BS5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BV5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BY5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:79">
@@ -2337,181 +2343,181 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI6">
         <v>30000000</v>
       </c>
       <c r="AJ6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV6">
         <v>38</v>
       </c>
       <c r="AW6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BC6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BK6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BL6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BM6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="BN6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="BO6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BP6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BS6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BT6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BU6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BV6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BY6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:79">
@@ -2534,163 +2540,163 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI7">
         <v>30000000</v>
       </c>
       <c r="AJ7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV7">
         <v>37</v>
       </c>
       <c r="AW7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BK7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="BL7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BS7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BT7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BU7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BV7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="BW7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="BX7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:79">
@@ -2713,178 +2719,178 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="W8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI8">
         <v>30000000</v>
       </c>
       <c r="AJ8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO8">
         <v>3000000</v>
       </c>
       <c r="AP8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV8">
         <v>36</v>
       </c>
       <c r="AW8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BI8">
         <v>0.1</v>
       </c>
       <c r="BJ8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BK8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="BL8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BM8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="BN8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="BO8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BP8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="BS8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="BT8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="BU8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BV8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BY8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:79">
@@ -2907,172 +2913,172 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" t="s">
         <v>186</v>
       </c>
-      <c r="M9" t="s">
-        <v>184</v>
-      </c>
       <c r="N9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI9">
         <v>30000000</v>
       </c>
       <c r="AJ9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV9">
         <v>35</v>
       </c>
       <c r="AW9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BK9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BL9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BM9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BS9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BV9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:79">
@@ -3095,172 +3101,172 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI10">
         <v>30000000</v>
       </c>
       <c r="AJ10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV10">
         <v>34</v>
       </c>
       <c r="AW10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BK10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="BL10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BM10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BS10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BT10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BU10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BV10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="BW10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="BX10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:79">
@@ -3283,175 +3289,175 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI11">
         <v>30000000</v>
       </c>
       <c r="AJ11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV11">
         <v>33</v>
       </c>
       <c r="AW11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BK11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="BL11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BM11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="BS11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BV11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="BW11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="BX11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:79">
@@ -3474,178 +3480,178 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L12" t="s">
+        <v>188</v>
+      </c>
+      <c r="M12" t="s">
         <v>186</v>
       </c>
-      <c r="M12" t="s">
-        <v>184</v>
-      </c>
       <c r="N12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI12">
         <v>30000000</v>
       </c>
       <c r="AJ12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV12">
         <v>30</v>
       </c>
       <c r="AW12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="BC12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BK12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="BL12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BM12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="BS12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="BT12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="BU12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BV12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:79">
@@ -3668,175 +3674,175 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L13" t="s">
+        <v>188</v>
+      </c>
+      <c r="M13" t="s">
         <v>186</v>
       </c>
-      <c r="M13" t="s">
-        <v>184</v>
-      </c>
       <c r="N13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI13">
         <v>30000000</v>
       </c>
       <c r="AJ13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV13">
         <v>29</v>
       </c>
       <c r="AW13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BI13">
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BK13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="BL13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BM13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="BS13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT13" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BV13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW13" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:79">
@@ -3859,175 +3865,175 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI14">
         <v>30000000</v>
       </c>
       <c r="AJ14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV14">
         <v>27</v>
       </c>
       <c r="AW14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BK14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BL14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BM14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO14" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP14" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="BS14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BT14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BU14" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BV14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:79">
@@ -4050,178 +4056,178 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI15">
         <v>30000000</v>
       </c>
       <c r="AJ15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV15">
         <v>26</v>
       </c>
       <c r="AW15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="BC15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BI15">
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BK15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BL15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BM15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="BS15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BT15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BU15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BV15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:79">
@@ -4244,178 +4250,178 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI16">
         <v>30000000</v>
       </c>
       <c r="AJ16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO16">
         <v>21000000</v>
       </c>
       <c r="AP16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV16">
         <v>23</v>
       </c>
       <c r="AW16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BC16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BI16">
         <v>0.7</v>
       </c>
       <c r="BJ16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BK16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BL16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BM16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="BS16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="BT16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="BU16" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BV16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX16" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:77">
@@ -4438,178 +4444,178 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI17">
         <v>30000000</v>
       </c>
       <c r="AJ17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO17">
-        <v>20000000</v>
+        <v>39500000</v>
       </c>
       <c r="AP17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV17">
         <v>22</v>
       </c>
       <c r="AW17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BC17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BI17">
-        <v>0.6667</v>
+        <v>1.3167</v>
       </c>
       <c r="BJ17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BK17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BL17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="BM17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="BN17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="BO17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="BP17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="BS17" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="BT17" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="BU17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BV17" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:77">
@@ -4632,172 +4638,172 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI18">
         <v>30000000</v>
       </c>
       <c r="AJ18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO18">
         <v>5650000</v>
       </c>
       <c r="AP18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV18">
         <v>20</v>
       </c>
       <c r="AW18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BI18">
         <v>0.1883</v>
       </c>
       <c r="BJ18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="BK18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="BL18" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BM18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BS18" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BT18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BU18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BV18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="BW18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="BX18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:77">
@@ -4811,7 +4817,7 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4820,178 +4826,178 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="W19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI19">
         <v>30000000</v>
       </c>
       <c r="AJ19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV19">
         <v>16</v>
       </c>
       <c r="AW19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BC19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BK19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BL19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BM19" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN19" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="BS19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BT19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BU19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BV19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW19" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:77">
@@ -5005,7 +5011,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -5014,178 +5020,178 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI20">
         <v>30000000</v>
       </c>
       <c r="AJ20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO20">
         <v>6700000</v>
       </c>
       <c r="AP20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV20">
         <v>15</v>
       </c>
       <c r="AW20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BC20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BI20">
         <v>0.2233</v>
       </c>
       <c r="BJ20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BK20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BL20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BM20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="BS20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BV20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW20" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:77">
@@ -5199,7 +5205,7 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -5208,178 +5214,178 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI21">
         <v>30000000</v>
       </c>
       <c r="AJ21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO21">
         <v>50400000</v>
       </c>
       <c r="AP21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV21">
         <v>11</v>
       </c>
       <c r="AW21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="BC21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="BI21">
         <v>1.68</v>
       </c>
       <c r="BJ21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BK21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BL21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BM21" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="BS21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BV21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:77">
@@ -5393,7 +5399,7 @@
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5402,178 +5408,178 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="W22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI22">
         <v>30000000</v>
       </c>
       <c r="AJ22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO22">
         <v>106500000</v>
       </c>
       <c r="AP22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV22">
         <v>10</v>
       </c>
       <c r="AW22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="BC22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BI22">
         <v>3.55</v>
       </c>
       <c r="BJ22" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BK22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BL22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BM22" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="BN22" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="BO22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="BP22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="BS22" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BT22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BU22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BV22" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW22" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:77">
@@ -5587,7 +5593,7 @@
         <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5596,175 +5602,175 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI23">
         <v>30000000</v>
       </c>
       <c r="AJ23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO23">
         <v>2000000</v>
       </c>
       <c r="AP23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT23" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV23">
         <v>9</v>
       </c>
       <c r="AW23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD23" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="BI23">
         <v>0.0667</v>
       </c>
       <c r="BJ23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BK23" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="BL23" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BM23" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BN23" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="BO23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BP23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="BS23" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BV23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW23" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX23" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:77">
@@ -5778,7 +5784,7 @@
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5787,175 +5793,175 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI24">
         <v>30000000</v>
       </c>
       <c r="AJ24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO24">
         <v>51300000</v>
       </c>
       <c r="AP24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV24">
         <v>7</v>
       </c>
       <c r="AW24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="BI24">
         <v>1.71</v>
       </c>
       <c r="BJ24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BK24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="BL24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BM24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN24" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP24" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="BS24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT24" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BV24" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW24" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX24" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:77">
@@ -5969,7 +5975,7 @@
         <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5978,175 +5984,175 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI25">
         <v>30000000</v>
       </c>
       <c r="AJ25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO25">
         <v>159500000</v>
       </c>
       <c r="AP25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV25">
         <v>6</v>
       </c>
       <c r="AW25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="BI25">
         <v>5.3167</v>
       </c>
       <c r="BJ25" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BK25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="BL25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BM25" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BN25" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="BO25" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BP25" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="BS25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BT25" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BU25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BV25" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:77">
@@ -6160,7 +6166,7 @@
         <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -6169,181 +6175,181 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI26">
         <v>30000000</v>
       </c>
       <c r="AJ26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO26">
         <v>9000000</v>
       </c>
       <c r="AP26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV26">
         <v>5</v>
       </c>
       <c r="AW26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BB26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="BC26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="BI26">
         <v>0.3</v>
       </c>
       <c r="BJ26" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BK26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BL26" t="s">
+        <v>282</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>288</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>282</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>309</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU26" t="s">
         <v>280</v>
       </c>
-      <c r="BM26" t="s">
-        <v>286</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>291</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>280</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>307</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>308</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>312</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>278</v>
-      </c>
       <c r="BV26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BW26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BX26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BY26" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:77">
@@ -6357,7 +6363,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -6366,172 +6372,172 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AI27">
         <v>30000000</v>
       </c>
       <c r="AJ27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO27">
         <v>76000000</v>
       </c>
       <c r="AP27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AQ27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AT27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV27">
         <v>4</v>
       </c>
       <c r="AW27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AX27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BA27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BG27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BH27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BI27">
         <v>2.5333</v>
       </c>
       <c r="BJ27" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="BK27" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="BL27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BM27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BN27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BO27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BS27" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BT27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BU27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BV27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="BW27" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="BX27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="325">
   <si>
     <t>object</t>
   </si>
@@ -409,13 +409,7 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-27T12:15:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-27T12:18:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-27T12:17:00.000Z</t>
+    <t>2024-08-28T15:04:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/646-15126a00907440bea8e957eeb81a2bf5</t>
@@ -1630,130 +1624,130 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" t="s">
         <v>190</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>191</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>193</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>194</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>195</v>
       </c>
-      <c r="U2" t="s">
-        <v>196</v>
-      </c>
-      <c r="V2" t="s">
-        <v>197</v>
-      </c>
       <c r="W2" t="s">
+        <v>206</v>
+      </c>
+      <c r="X2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y2" t="s">
         <v>208</v>
       </c>
-      <c r="X2" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>210</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD2" t="s">
         <v>212</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG2" t="s">
         <v>213</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>214</v>
       </c>
-      <c r="AE2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM2" t="s">
         <v>215</v>
       </c>
-      <c r="AH2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
         <v>216</v>
       </c>
-      <c r="AK2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS2" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>218</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>219</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>221</v>
       </c>
       <c r="AV2">
         <v>46</v>
       </c>
       <c r="AW2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA2" t="s">
         <v>222</v>
       </c>
-      <c r="AX2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>224</v>
-      </c>
       <c r="BC2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF2" t="s">
         <v>235</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BH2" t="s">
         <v>236</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:79">
@@ -1776,166 +1770,166 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" t="s">
         <v>186</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" t="s">
         <v>188</v>
       </c>
-      <c r="M3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" t="s">
         <v>190</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>191</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>192</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>193</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>194</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>195</v>
       </c>
-      <c r="U3" t="s">
-        <v>196</v>
-      </c>
-      <c r="V3" t="s">
-        <v>197</v>
-      </c>
       <c r="W3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD3" t="s">
         <v>212</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG3" t="s">
         <v>213</v>
       </c>
-      <c r="AD3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>215</v>
-      </c>
       <c r="AH3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI3">
         <v>30000000</v>
       </c>
       <c r="AJ3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
         <v>216</v>
       </c>
-      <c r="AK3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS3" t="s">
         <v>217</v>
       </c>
-      <c r="AN3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AT3" t="s">
         <v>218</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AU3" t="s">
         <v>219</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>221</v>
       </c>
       <c r="AV3">
         <v>42</v>
       </c>
       <c r="AW3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA3" t="s">
         <v>222</v>
       </c>
-      <c r="AX3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>224</v>
-      </c>
       <c r="BC3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF3" t="s">
         <v>235</v>
       </c>
-      <c r="BD3" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BH3" t="s">
         <v>237</v>
       </c>
-      <c r="BG3" t="s">
-        <v>237</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>239</v>
-      </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BK3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BL3" t="s">
+        <v>276</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>288</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU3" t="s">
         <v>278</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>295</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>297</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>314</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:79">
@@ -1958,175 +1952,175 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4" t="s">
         <v>189</v>
       </c>
-      <c r="M4" t="s">
-        <v>186</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>190</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>191</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>192</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>193</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>194</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>195</v>
       </c>
-      <c r="U4" t="s">
-        <v>196</v>
-      </c>
-      <c r="V4" t="s">
-        <v>197</v>
-      </c>
       <c r="W4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD4" t="s">
         <v>212</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG4" t="s">
         <v>213</v>
       </c>
-      <c r="AD4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>215</v>
-      </c>
       <c r="AH4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI4">
         <v>30000000</v>
       </c>
       <c r="AJ4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO4">
         <v>9000000</v>
       </c>
       <c r="AP4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT4" t="s">
         <v>218</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS4" t="s">
+      <c r="AU4" t="s">
         <v>219</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>221</v>
       </c>
       <c r="AV4">
         <v>40</v>
       </c>
       <c r="AW4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA4" t="s">
         <v>222</v>
       </c>
-      <c r="AX4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>224</v>
-      </c>
       <c r="BC4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF4" t="s">
         <v>235</v>
       </c>
-      <c r="BD4" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>237</v>
-      </c>
       <c r="BG4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BI4">
         <v>0.3</v>
       </c>
       <c r="BJ4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BK4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BL4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BM4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="BN4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BO4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="BP4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BS4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BT4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="BU4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BV4" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW4" t="s">
         <v>319</v>
       </c>
-      <c r="BW4" t="s">
-        <v>321</v>
-      </c>
       <c r="BX4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:79">
@@ -2149,178 +2143,178 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5" t="s">
         <v>189</v>
       </c>
-      <c r="M5" t="s">
-        <v>186</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>190</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>191</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>192</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>193</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
         <v>194</v>
       </c>
-      <c r="T5" t="s">
-        <v>195</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>196</v>
       </c>
-      <c r="V5" t="s">
-        <v>198</v>
-      </c>
       <c r="W5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD5" t="s">
         <v>212</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AE5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG5" t="s">
         <v>213</v>
       </c>
-      <c r="AD5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>215</v>
-      </c>
       <c r="AH5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI5">
         <v>30000000</v>
       </c>
       <c r="AJ5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO5">
         <v>2000000</v>
       </c>
       <c r="AP5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT5" t="s">
         <v>218</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AU5" t="s">
         <v>219</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>221</v>
       </c>
       <c r="AV5">
         <v>39</v>
       </c>
       <c r="AW5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA5" t="s">
         <v>222</v>
       </c>
-      <c r="AX5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>224</v>
-      </c>
       <c r="BC5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF5" t="s">
         <v>235</v>
       </c>
-      <c r="BD5" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>237</v>
-      </c>
       <c r="BG5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BI5">
         <v>0.0667</v>
       </c>
       <c r="BJ5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BK5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BL5" t="s">
+        <v>277</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO5" t="s">
         <v>279</v>
       </c>
-      <c r="BM5" t="s">
-        <v>287</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>292</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>281</v>
-      </c>
       <c r="BP5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BS5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BT5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BV5" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW5" t="s">
         <v>319</v>
       </c>
-      <c r="BW5" t="s">
+      <c r="BX5" t="s">
+        <v>316</v>
+      </c>
+      <c r="BY5" t="s">
         <v>321</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>318</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:79">
@@ -2343,181 +2337,181 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O6" t="s">
         <v>189</v>
       </c>
-      <c r="M6" t="s">
-        <v>186</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>190</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>191</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>192</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>193</v>
       </c>
-      <c r="R6" t="s">
+      <c r="U6" t="s">
         <v>194</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>195</v>
       </c>
-      <c r="U6" t="s">
-        <v>196</v>
-      </c>
-      <c r="V6" t="s">
-        <v>197</v>
-      </c>
       <c r="W6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD6" t="s">
         <v>212</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG6" t="s">
         <v>213</v>
       </c>
-      <c r="AD6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>215</v>
-      </c>
       <c r="AH6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI6">
         <v>30000000</v>
       </c>
       <c r="AJ6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="s">
         <v>216</v>
       </c>
-      <c r="AK6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS6" t="s">
         <v>217</v>
       </c>
-      <c r="AN6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="AT6" t="s">
         <v>218</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AU6" t="s">
         <v>219</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>221</v>
       </c>
       <c r="AV6">
         <v>38</v>
       </c>
       <c r="AW6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA6" t="s">
         <v>222</v>
       </c>
-      <c r="AX6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="BB6" t="s">
         <v>223</v>
       </c>
-      <c r="BA6" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>225</v>
-      </c>
       <c r="BC6" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF6" t="s">
         <v>235</v>
       </c>
-      <c r="BD6" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>237</v>
-      </c>
       <c r="BG6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BK6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BL6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BM6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="BN6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BO6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="BP6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BS6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BT6" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>319</v>
+      </c>
+      <c r="BX6" t="s">
         <v>316</v>
       </c>
-      <c r="BU6" t="s">
-        <v>279</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>318</v>
-      </c>
       <c r="BY6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:79">
@@ -2540,163 +2534,163 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O7" t="s">
         <v>189</v>
       </c>
-      <c r="M7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>190</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>192</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>193</v>
       </c>
-      <c r="R7" t="s">
+      <c r="U7" t="s">
         <v>194</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>195</v>
       </c>
-      <c r="U7" t="s">
-        <v>196</v>
-      </c>
-      <c r="V7" t="s">
-        <v>197</v>
-      </c>
       <c r="W7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD7" t="s">
         <v>212</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG7" t="s">
         <v>213</v>
       </c>
-      <c r="AD7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>215</v>
-      </c>
       <c r="AH7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI7">
         <v>30000000</v>
       </c>
       <c r="AJ7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="s">
         <v>216</v>
       </c>
-      <c r="AK7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="AQ7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS7" t="s">
         <v>217</v>
       </c>
-      <c r="AN7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AT7" t="s">
         <v>218</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="AU7" t="s">
         <v>219</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>221</v>
       </c>
       <c r="AV7">
         <v>37</v>
       </c>
       <c r="AW7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA7" t="s">
         <v>222</v>
       </c>
-      <c r="AX7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>224</v>
-      </c>
       <c r="BC7" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF7" t="s">
         <v>235</v>
       </c>
-      <c r="BD7" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>237</v>
-      </c>
       <c r="BG7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BK7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BL7" t="s">
+        <v>278</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>311</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>293</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX7" t="s">
         <v>280</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>313</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>317</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>295</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>320</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:79">
@@ -2719,178 +2713,178 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O8" t="s">
         <v>189</v>
       </c>
-      <c r="M8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>190</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>191</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>192</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="T8" t="s">
         <v>193</v>
       </c>
-      <c r="R8" t="s">
+      <c r="U8" t="s">
         <v>194</v>
       </c>
-      <c r="T8" t="s">
-        <v>195</v>
-      </c>
-      <c r="U8" t="s">
-        <v>196</v>
-      </c>
       <c r="V8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD8" t="s">
         <v>212</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG8" t="s">
         <v>213</v>
       </c>
-      <c r="AD8" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>215</v>
-      </c>
       <c r="AH8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI8">
         <v>30000000</v>
       </c>
       <c r="AJ8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO8">
         <v>3000000</v>
       </c>
       <c r="AP8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT8" t="s">
         <v>218</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AU8" t="s">
         <v>219</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>221</v>
       </c>
       <c r="AV8">
         <v>36</v>
       </c>
       <c r="AW8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA8" t="s">
         <v>222</v>
       </c>
-      <c r="AX8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>224</v>
-      </c>
       <c r="BC8" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF8" t="s">
         <v>235</v>
       </c>
-      <c r="BD8" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>237</v>
-      </c>
       <c r="BG8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BI8">
         <v>0.1</v>
       </c>
       <c r="BJ8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BK8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BL8" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>289</v>
+      </c>
+      <c r="BO8" t="s">
         <v>281</v>
       </c>
-      <c r="BM8" t="s">
-        <v>286</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>291</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>283</v>
-      </c>
       <c r="BP8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BS8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BT8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="BU8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BV8" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW8" t="s">
         <v>319</v>
       </c>
-      <c r="BW8" t="s">
-        <v>321</v>
-      </c>
       <c r="BX8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BY8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:79">
@@ -2913,172 +2907,172 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" t="s">
         <v>186</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" t="s">
         <v>188</v>
       </c>
-      <c r="M9" t="s">
-        <v>186</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" t="s">
         <v>190</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>191</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>192</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="T9" t="s">
         <v>193</v>
       </c>
-      <c r="R9" t="s">
+      <c r="U9" t="s">
         <v>194</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>195</v>
       </c>
-      <c r="U9" t="s">
-        <v>196</v>
-      </c>
-      <c r="V9" t="s">
-        <v>197</v>
-      </c>
       <c r="W9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD9" t="s">
         <v>212</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG9" t="s">
         <v>213</v>
       </c>
-      <c r="AD9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>215</v>
-      </c>
       <c r="AH9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI9">
         <v>30000000</v>
       </c>
       <c r="AJ9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="s">
         <v>216</v>
       </c>
-      <c r="AK9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AQ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS9" t="s">
         <v>217</v>
       </c>
-      <c r="AN9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="s">
+      <c r="AT9" t="s">
         <v>218</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS9" t="s">
+      <c r="AU9" t="s">
         <v>219</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>221</v>
       </c>
       <c r="AV9">
         <v>35</v>
       </c>
       <c r="AW9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA9" t="s">
         <v>222</v>
       </c>
-      <c r="AX9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>224</v>
-      </c>
       <c r="BC9" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF9" t="s">
         <v>235</v>
       </c>
-      <c r="BD9" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>237</v>
-      </c>
       <c r="BG9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BK9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BL9" t="s">
+        <v>276</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>288</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>293</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU9" t="s">
         <v>278</v>
       </c>
-      <c r="BM9" t="s">
-        <v>285</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>290</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>314</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>280</v>
-      </c>
       <c r="BV9" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW9" t="s">
         <v>319</v>
       </c>
-      <c r="BW9" t="s">
-        <v>321</v>
-      </c>
       <c r="BX9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:79">
@@ -3101,172 +3095,172 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N10" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" t="s">
         <v>190</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>191</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>192</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>193</v>
       </c>
-      <c r="R10" t="s">
+      <c r="U10" t="s">
         <v>194</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>195</v>
       </c>
-      <c r="U10" t="s">
-        <v>196</v>
-      </c>
-      <c r="V10" t="s">
-        <v>197</v>
-      </c>
       <c r="W10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD10" t="s">
         <v>212</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG10" t="s">
         <v>213</v>
       </c>
-      <c r="AD10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>215</v>
-      </c>
       <c r="AH10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI10">
         <v>30000000</v>
       </c>
       <c r="AJ10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="s">
         <v>216</v>
       </c>
-      <c r="AK10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AQ10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS10" t="s">
         <v>217</v>
       </c>
-      <c r="AN10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="s">
+      <c r="AT10" t="s">
         <v>218</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="AU10" t="s">
         <v>219</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>221</v>
       </c>
       <c r="AV10">
         <v>34</v>
       </c>
       <c r="AW10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA10" t="s">
         <v>222</v>
       </c>
-      <c r="AX10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>224</v>
-      </c>
       <c r="BC10" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF10" t="s">
         <v>235</v>
       </c>
-      <c r="BD10" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>237</v>
-      </c>
       <c r="BG10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BK10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BL10" t="s">
+        <v>278</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>288</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>293</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>311</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>293</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX10" t="s">
         <v>280</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>285</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>290</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>313</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>317</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>295</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>320</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:79">
@@ -3289,175 +3283,175 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" t="s">
+        <v>184</v>
+      </c>
+      <c r="N11" t="s">
+        <v>188</v>
+      </c>
+      <c r="O11" t="s">
         <v>189</v>
       </c>
-      <c r="M11" t="s">
-        <v>186</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>190</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>191</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>192</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11" t="s">
         <v>193</v>
       </c>
-      <c r="R11" t="s">
+      <c r="U11" t="s">
         <v>194</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>195</v>
       </c>
-      <c r="U11" t="s">
-        <v>196</v>
-      </c>
-      <c r="V11" t="s">
-        <v>197</v>
-      </c>
       <c r="W11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD11" t="s">
         <v>212</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AE11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG11" t="s">
         <v>213</v>
       </c>
-      <c r="AD11" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>215</v>
-      </c>
       <c r="AH11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI11">
         <v>30000000</v>
       </c>
       <c r="AJ11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="s">
         <v>216</v>
       </c>
-      <c r="AK11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS11" t="s">
         <v>217</v>
       </c>
-      <c r="AN11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AT11" t="s">
         <v>218</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="AU11" t="s">
         <v>219</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>221</v>
       </c>
       <c r="AV11">
         <v>33</v>
       </c>
       <c r="AW11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA11" t="s">
         <v>222</v>
       </c>
-      <c r="AX11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>224</v>
-      </c>
       <c r="BC11" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF11" t="s">
         <v>235</v>
       </c>
-      <c r="BD11" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>237</v>
-      </c>
       <c r="BG11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BK11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BL11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BM11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BS11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BT11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU11" t="s">
+        <v>278</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX11" t="s">
         <v>280</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>320</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:79">
@@ -3480,178 +3474,178 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" t="s">
         <v>186</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>184</v>
+      </c>
+      <c r="N12" t="s">
         <v>188</v>
       </c>
-      <c r="M12" t="s">
-        <v>186</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
+        <v>189</v>
+      </c>
+      <c r="P12" t="s">
         <v>190</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>191</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>192</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="T12" t="s">
         <v>193</v>
       </c>
-      <c r="R12" t="s">
+      <c r="U12" t="s">
         <v>194</v>
       </c>
-      <c r="T12" t="s">
-        <v>195</v>
-      </c>
-      <c r="U12" t="s">
-        <v>196</v>
-      </c>
       <c r="V12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD12" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AE12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG12" t="s">
         <v>213</v>
       </c>
-      <c r="AD12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>215</v>
-      </c>
       <c r="AH12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI12">
         <v>30000000</v>
       </c>
       <c r="AJ12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="s">
         <v>216</v>
       </c>
-      <c r="AK12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AQ12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS12" t="s">
         <v>217</v>
       </c>
-      <c r="AN12" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="s">
+      <c r="AT12" t="s">
         <v>218</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS12" t="s">
+      <c r="AU12" t="s">
         <v>219</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>221</v>
       </c>
       <c r="AV12">
         <v>30</v>
       </c>
       <c r="AW12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA12" t="s">
         <v>222</v>
       </c>
-      <c r="AX12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>224</v>
       </c>
-      <c r="BB12" t="s">
-        <v>226</v>
-      </c>
       <c r="BC12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF12" t="s">
         <v>235</v>
       </c>
-      <c r="BD12" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>237</v>
-      </c>
       <c r="BG12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BK12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BL12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BM12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BS12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BT12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="BU12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BV12" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW12" t="s">
         <v>319</v>
       </c>
-      <c r="BW12" t="s">
-        <v>321</v>
-      </c>
       <c r="BX12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:79">
@@ -3674,175 +3668,175 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" t="s">
         <v>186</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>184</v>
+      </c>
+      <c r="N13" t="s">
         <v>188</v>
       </c>
-      <c r="M13" t="s">
-        <v>186</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>189</v>
+      </c>
+      <c r="P13" t="s">
         <v>190</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>191</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>192</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="T13" t="s">
         <v>193</v>
       </c>
-      <c r="R13" t="s">
+      <c r="U13" t="s">
         <v>194</v>
       </c>
-      <c r="T13" t="s">
-        <v>195</v>
-      </c>
-      <c r="U13" t="s">
-        <v>196</v>
-      </c>
       <c r="V13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD13" t="s">
         <v>212</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AE13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG13" t="s">
         <v>213</v>
       </c>
-      <c r="AD13" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>215</v>
-      </c>
       <c r="AH13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI13">
         <v>30000000</v>
       </c>
       <c r="AJ13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="s">
         <v>216</v>
       </c>
-      <c r="AK13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS13" t="s">
         <v>217</v>
       </c>
-      <c r="AN13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="s">
+      <c r="AT13" t="s">
         <v>218</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS13" t="s">
+      <c r="AU13" t="s">
         <v>219</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>221</v>
       </c>
       <c r="AV13">
         <v>29</v>
       </c>
       <c r="AW13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA13" t="s">
         <v>222</v>
       </c>
-      <c r="AX13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>224</v>
-      </c>
       <c r="BC13" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF13" t="s">
         <v>235</v>
       </c>
-      <c r="BD13" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>237</v>
-      </c>
       <c r="BG13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BI13">
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BK13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BL13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BM13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="BS13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BT13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BV13" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW13" t="s">
         <v>319</v>
       </c>
-      <c r="BW13" t="s">
-        <v>321</v>
-      </c>
       <c r="BX13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:79">
@@ -3865,175 +3859,175 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" t="s">
+        <v>188</v>
+      </c>
+      <c r="O14" t="s">
         <v>189</v>
       </c>
-      <c r="M14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>190</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>191</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>192</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="T14" t="s">
         <v>193</v>
       </c>
-      <c r="R14" t="s">
+      <c r="U14" t="s">
         <v>194</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>195</v>
       </c>
-      <c r="U14" t="s">
-        <v>196</v>
-      </c>
-      <c r="V14" t="s">
-        <v>197</v>
-      </c>
       <c r="W14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD14" t="s">
         <v>212</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AE14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG14" t="s">
         <v>213</v>
       </c>
-      <c r="AD14" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>215</v>
-      </c>
       <c r="AH14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI14">
         <v>30000000</v>
       </c>
       <c r="AJ14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="s">
         <v>216</v>
       </c>
-      <c r="AK14" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM14" t="s">
+      <c r="AQ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS14" t="s">
         <v>217</v>
       </c>
-      <c r="AN14" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="s">
+      <c r="AT14" t="s">
         <v>218</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS14" t="s">
+      <c r="AU14" t="s">
         <v>219</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>221</v>
       </c>
       <c r="AV14">
         <v>27</v>
       </c>
       <c r="AW14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA14" t="s">
         <v>222</v>
       </c>
-      <c r="AX14" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>224</v>
-      </c>
       <c r="BC14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF14" t="s">
         <v>235</v>
       </c>
-      <c r="BD14" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>237</v>
-      </c>
       <c r="BG14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BK14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BL14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BM14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BS14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BT14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>319</v>
+      </c>
+      <c r="BX14" t="s">
         <v>316</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>279</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:79">
@@ -4056,178 +4050,178 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" t="s">
+        <v>184</v>
+      </c>
+      <c r="N15" t="s">
+        <v>188</v>
+      </c>
+      <c r="O15" t="s">
         <v>189</v>
       </c>
-      <c r="M15" t="s">
-        <v>186</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>190</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>191</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>192</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="T15" t="s">
         <v>193</v>
       </c>
-      <c r="R15" t="s">
+      <c r="U15" t="s">
         <v>194</v>
       </c>
-      <c r="T15" t="s">
-        <v>195</v>
-      </c>
-      <c r="U15" t="s">
-        <v>196</v>
-      </c>
       <c r="V15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD15" t="s">
         <v>212</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AE15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG15" t="s">
         <v>213</v>
       </c>
-      <c r="AD15" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>215</v>
-      </c>
       <c r="AH15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI15">
         <v>30000000</v>
       </c>
       <c r="AJ15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="s">
         <v>216</v>
       </c>
-      <c r="AK15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM15" t="s">
+      <c r="AQ15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS15" t="s">
         <v>217</v>
       </c>
-      <c r="AN15" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="s">
+      <c r="AT15" t="s">
         <v>218</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS15" t="s">
+      <c r="AU15" t="s">
         <v>219</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>221</v>
       </c>
       <c r="AV15">
         <v>26</v>
       </c>
       <c r="AW15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA15" t="s">
         <v>222</v>
       </c>
-      <c r="AX15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>224</v>
-      </c>
       <c r="BB15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BC15" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF15" t="s">
         <v>235</v>
       </c>
-      <c r="BD15" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>237</v>
-      </c>
       <c r="BG15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="BI15">
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BK15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BL15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BM15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BS15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BT15" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>319</v>
+      </c>
+      <c r="BX15" t="s">
         <v>316</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>279</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:79">
@@ -4250,178 +4244,178 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" t="s">
+        <v>184</v>
+      </c>
+      <c r="N16" t="s">
+        <v>188</v>
+      </c>
+      <c r="O16" t="s">
         <v>189</v>
       </c>
-      <c r="M16" t="s">
-        <v>186</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>190</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>191</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>192</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="T16" t="s">
         <v>193</v>
       </c>
-      <c r="R16" t="s">
+      <c r="U16" t="s">
         <v>194</v>
       </c>
-      <c r="T16" t="s">
-        <v>195</v>
-      </c>
-      <c r="U16" t="s">
-        <v>196</v>
-      </c>
       <c r="V16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD16" t="s">
         <v>212</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AE16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG16" t="s">
         <v>213</v>
       </c>
-      <c r="AD16" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>215</v>
-      </c>
       <c r="AH16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI16">
         <v>30000000</v>
       </c>
       <c r="AJ16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO16">
         <v>21000000</v>
       </c>
       <c r="AP16" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT16" t="s">
         <v>218</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS16" t="s">
+      <c r="AU16" t="s">
         <v>219</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>221</v>
       </c>
       <c r="AV16">
         <v>23</v>
       </c>
       <c r="AW16" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA16" t="s">
         <v>222</v>
       </c>
-      <c r="AX16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>224</v>
-      </c>
       <c r="BB16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BC16" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF16" t="s">
         <v>235</v>
       </c>
-      <c r="BD16" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>237</v>
-      </c>
       <c r="BG16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BI16">
         <v>0.7</v>
       </c>
       <c r="BJ16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BK16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BL16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BM16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BS16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BT16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="BU16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BV16" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW16" t="s">
         <v>319</v>
       </c>
-      <c r="BW16" t="s">
-        <v>321</v>
-      </c>
       <c r="BX16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:77">
@@ -4444,178 +4438,178 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O17" t="s">
         <v>189</v>
       </c>
-      <c r="M17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>190</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>191</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>192</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="T17" t="s">
         <v>193</v>
       </c>
-      <c r="R17" t="s">
+      <c r="U17" t="s">
         <v>194</v>
       </c>
-      <c r="T17" t="s">
-        <v>195</v>
-      </c>
-      <c r="U17" t="s">
-        <v>196</v>
-      </c>
       <c r="V17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA17" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD17" t="s">
         <v>212</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AE17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG17" t="s">
         <v>213</v>
       </c>
-      <c r="AD17" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>215</v>
-      </c>
       <c r="AH17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI17">
         <v>30000000</v>
       </c>
       <c r="AJ17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO17">
         <v>39500000</v>
       </c>
       <c r="AP17" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT17" t="s">
         <v>218</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS17" t="s">
+      <c r="AU17" t="s">
         <v>219</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>221</v>
       </c>
       <c r="AV17">
         <v>22</v>
       </c>
       <c r="AW17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA17" t="s">
         <v>222</v>
       </c>
-      <c r="AX17" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>224</v>
-      </c>
       <c r="BB17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BC17" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF17" t="s">
         <v>235</v>
       </c>
-      <c r="BD17" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>237</v>
-      </c>
       <c r="BG17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BI17">
         <v>1.3167</v>
       </c>
       <c r="BJ17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BK17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BL17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BM17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BN17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BO17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BP17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BS17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BT17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="BU17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BV17" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW17" t="s">
         <v>319</v>
       </c>
-      <c r="BW17" t="s">
-        <v>321</v>
-      </c>
       <c r="BX17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:77">
@@ -4638,172 +4632,172 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s">
+        <v>184</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
         <v>189</v>
       </c>
-      <c r="M18" t="s">
-        <v>186</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>190</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>191</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>192</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="T18" t="s">
         <v>193</v>
       </c>
-      <c r="R18" t="s">
+      <c r="U18" t="s">
         <v>194</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>195</v>
       </c>
-      <c r="U18" t="s">
-        <v>196</v>
-      </c>
-      <c r="V18" t="s">
-        <v>197</v>
-      </c>
       <c r="W18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD18" t="s">
         <v>212</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AE18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG18" t="s">
         <v>213</v>
       </c>
-      <c r="AD18" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>215</v>
-      </c>
       <c r="AH18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI18">
         <v>30000000</v>
       </c>
       <c r="AJ18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO18">
         <v>5650000</v>
       </c>
       <c r="AP18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT18" t="s">
         <v>218</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS18" t="s">
+      <c r="AU18" t="s">
         <v>219</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>221</v>
       </c>
       <c r="AV18">
         <v>20</v>
       </c>
       <c r="AW18" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA18" t="s">
         <v>222</v>
       </c>
-      <c r="AX18" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>224</v>
-      </c>
       <c r="BC18" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF18" t="s">
         <v>235</v>
       </c>
-      <c r="BD18" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>237</v>
-      </c>
       <c r="BG18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BI18">
         <v>0.1883</v>
       </c>
       <c r="BJ18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BK18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BL18" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM18" t="s">
         <v>283</v>
       </c>
-      <c r="BM18" t="s">
-        <v>285</v>
-      </c>
       <c r="BN18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BS18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BT18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BU18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BV18" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW18" t="s">
         <v>320</v>
       </c>
-      <c r="BW18" t="s">
-        <v>322</v>
-      </c>
       <c r="BX18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:77">
@@ -4817,7 +4811,7 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4826,178 +4820,178 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
         <v>189</v>
       </c>
-      <c r="M19" t="s">
-        <v>186</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>190</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>191</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>192</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="T19" t="s">
         <v>193</v>
       </c>
-      <c r="R19" t="s">
+      <c r="U19" t="s">
         <v>194</v>
       </c>
-      <c r="T19" t="s">
-        <v>195</v>
-      </c>
-      <c r="U19" t="s">
-        <v>196</v>
-      </c>
       <c r="V19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD19" t="s">
         <v>212</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AE19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG19" t="s">
         <v>213</v>
       </c>
-      <c r="AD19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>215</v>
-      </c>
       <c r="AH19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI19">
         <v>30000000</v>
       </c>
       <c r="AJ19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="s">
         <v>216</v>
       </c>
-      <c r="AK19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM19" t="s">
+      <c r="AQ19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS19" t="s">
         <v>217</v>
       </c>
-      <c r="AN19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AT19" t="s">
         <v>218</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS19" t="s">
+      <c r="AU19" t="s">
         <v>219</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>221</v>
       </c>
       <c r="AV19">
         <v>16</v>
       </c>
       <c r="AW19" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA19" t="s">
         <v>222</v>
       </c>
-      <c r="AX19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>224</v>
-      </c>
       <c r="BB19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BC19" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF19" t="s">
         <v>235</v>
       </c>
-      <c r="BD19" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>237</v>
-      </c>
       <c r="BG19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BK19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BL19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BM19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="BS19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BT19" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>319</v>
+      </c>
+      <c r="BX19" t="s">
         <v>316</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>279</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX19" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:77">
@@ -5011,7 +5005,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -5020,178 +5014,178 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="s">
+        <v>184</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
         <v>189</v>
       </c>
-      <c r="M20" t="s">
-        <v>186</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>190</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>191</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>192</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="T20" t="s">
         <v>193</v>
       </c>
-      <c r="R20" t="s">
+      <c r="U20" t="s">
         <v>194</v>
       </c>
-      <c r="T20" t="s">
-        <v>195</v>
-      </c>
-      <c r="U20" t="s">
-        <v>196</v>
-      </c>
       <c r="V20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD20" t="s">
         <v>212</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AE20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG20" t="s">
         <v>213</v>
       </c>
-      <c r="AD20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>215</v>
-      </c>
       <c r="AH20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI20">
         <v>30000000</v>
       </c>
       <c r="AJ20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO20">
         <v>6700000</v>
       </c>
       <c r="AP20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT20" t="s">
         <v>218</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS20" t="s">
+      <c r="AU20" t="s">
         <v>219</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>221</v>
       </c>
       <c r="AV20">
         <v>15</v>
       </c>
       <c r="AW20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA20" t="s">
         <v>222</v>
       </c>
-      <c r="AX20" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>224</v>
-      </c>
       <c r="BB20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BC20" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF20" t="s">
         <v>235</v>
       </c>
-      <c r="BD20" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>237</v>
-      </c>
       <c r="BG20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BI20">
         <v>0.2233</v>
       </c>
       <c r="BJ20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BK20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BL20" t="s">
+        <v>276</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>288</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU20" t="s">
         <v>278</v>
       </c>
-      <c r="BM20" t="s">
-        <v>285</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>290</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>295</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>305</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>314</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>280</v>
-      </c>
       <c r="BV20" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW20" t="s">
         <v>319</v>
       </c>
-      <c r="BW20" t="s">
-        <v>321</v>
-      </c>
       <c r="BX20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:77">
@@ -5205,7 +5199,7 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -5214,178 +5208,178 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
         <v>189</v>
       </c>
-      <c r="M21" t="s">
-        <v>186</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>190</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>191</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>192</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="T21" t="s">
         <v>193</v>
       </c>
-      <c r="R21" t="s">
+      <c r="U21" t="s">
         <v>194</v>
       </c>
-      <c r="T21" t="s">
-        <v>195</v>
-      </c>
-      <c r="U21" t="s">
-        <v>196</v>
-      </c>
       <c r="V21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA21" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD21" t="s">
         <v>212</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AE21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG21" t="s">
         <v>213</v>
       </c>
-      <c r="AD21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>215</v>
-      </c>
       <c r="AH21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI21">
         <v>30000000</v>
       </c>
       <c r="AJ21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO21">
+        <v>54900000</v>
+      </c>
+      <c r="AP21" t="s">
         <v>216</v>
       </c>
-      <c r="AK21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM21" t="s">
+      <c r="AQ21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS21" t="s">
         <v>217</v>
       </c>
-      <c r="AN21" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO21">
-        <v>50400000</v>
-      </c>
-      <c r="AP21" t="s">
+      <c r="AT21" t="s">
         <v>218</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS21" t="s">
+      <c r="AU21" t="s">
         <v>219</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>221</v>
       </c>
       <c r="AV21">
         <v>11</v>
       </c>
       <c r="AW21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA21" t="s">
         <v>222</v>
       </c>
-      <c r="AX21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>224</v>
-      </c>
       <c r="BB21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BC21" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF21" t="s">
         <v>235</v>
       </c>
-      <c r="BD21" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>237</v>
-      </c>
       <c r="BG21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BI21">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="BJ21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BK21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BL21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BM21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BS21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BT21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BV21" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW21" t="s">
         <v>319</v>
       </c>
-      <c r="BW21" t="s">
-        <v>321</v>
-      </c>
       <c r="BX21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:77">
@@ -5399,7 +5393,7 @@
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5408,178 +5402,178 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="s">
+        <v>184</v>
+      </c>
+      <c r="N22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" t="s">
         <v>189</v>
       </c>
-      <c r="M22" t="s">
-        <v>186</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>190</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>191</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>192</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="T22" t="s">
         <v>193</v>
       </c>
-      <c r="R22" t="s">
+      <c r="U22" t="s">
         <v>194</v>
       </c>
-      <c r="T22" t="s">
-        <v>195</v>
-      </c>
-      <c r="U22" t="s">
-        <v>196</v>
-      </c>
       <c r="V22" t="s">
+        <v>204</v>
+      </c>
+      <c r="W22" t="s">
         <v>206</v>
       </c>
-      <c r="W22" t="s">
-        <v>208</v>
-      </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD22" t="s">
         <v>212</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AE22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG22" t="s">
         <v>213</v>
       </c>
-      <c r="AD22" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>215</v>
-      </c>
       <c r="AH22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI22">
         <v>30000000</v>
       </c>
       <c r="AJ22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO22">
+        <v>121500000</v>
+      </c>
+      <c r="AP22" t="s">
         <v>216</v>
       </c>
-      <c r="AK22" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM22" t="s">
+      <c r="AQ22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS22" t="s">
         <v>217</v>
       </c>
-      <c r="AN22" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO22">
-        <v>106500000</v>
-      </c>
-      <c r="AP22" t="s">
+      <c r="AT22" t="s">
         <v>218</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS22" t="s">
+      <c r="AU22" t="s">
         <v>219</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>221</v>
       </c>
       <c r="AV22">
         <v>10</v>
       </c>
       <c r="AW22" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA22" t="s">
         <v>222</v>
       </c>
-      <c r="AX22" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>224</v>
-      </c>
       <c r="BB22" t="s">
+        <v>231</v>
+      </c>
+      <c r="BC22" t="s">
         <v>233</v>
       </c>
-      <c r="BC22" t="s">
+      <c r="BD22" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF22" t="s">
         <v>235</v>
       </c>
-      <c r="BD22" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>237</v>
-      </c>
       <c r="BG22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BI22">
-        <v>3.55</v>
+        <v>4.05</v>
       </c>
       <c r="BJ22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BK22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BL22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BM22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BN22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BO22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BP22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="BS22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BT22" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>319</v>
+      </c>
+      <c r="BX22" t="s">
         <v>316</v>
-      </c>
-      <c r="BU22" t="s">
-        <v>279</v>
-      </c>
-      <c r="BV22" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW22" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX22" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:77">
@@ -5593,7 +5587,7 @@
         <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5602,175 +5596,175 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="s">
+        <v>184</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
         <v>189</v>
       </c>
-      <c r="M23" t="s">
-        <v>186</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>190</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>191</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>192</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="T23" t="s">
         <v>193</v>
       </c>
-      <c r="R23" t="s">
+      <c r="U23" t="s">
         <v>194</v>
       </c>
-      <c r="T23" t="s">
+      <c r="V23" t="s">
         <v>195</v>
       </c>
-      <c r="U23" t="s">
-        <v>196</v>
-      </c>
-      <c r="V23" t="s">
-        <v>197</v>
-      </c>
       <c r="W23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD23" t="s">
         <v>212</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AE23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG23" t="s">
         <v>213</v>
       </c>
-      <c r="AD23" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>215</v>
-      </c>
       <c r="AH23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI23">
         <v>30000000</v>
       </c>
       <c r="AJ23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO23">
         <v>2000000</v>
       </c>
       <c r="AP23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT23" t="s">
         <v>218</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS23" t="s">
+      <c r="AU23" t="s">
         <v>219</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>221</v>
       </c>
       <c r="AV23">
         <v>9</v>
       </c>
       <c r="AW23" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA23" t="s">
         <v>222</v>
       </c>
-      <c r="AX23" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>224</v>
-      </c>
       <c r="BC23" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF23" t="s">
         <v>235</v>
       </c>
-      <c r="BD23" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>237</v>
-      </c>
       <c r="BG23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BI23">
         <v>0.0667</v>
       </c>
       <c r="BJ23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BK23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BL23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BM23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BN23" t="s">
+        <v>292</v>
+      </c>
+      <c r="BO23" t="s">
         <v>294</v>
       </c>
-      <c r="BO23" t="s">
-        <v>296</v>
-      </c>
       <c r="BP23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BS23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BT23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BV23" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW23" t="s">
         <v>319</v>
       </c>
-      <c r="BW23" t="s">
-        <v>321</v>
-      </c>
       <c r="BX23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:77">
@@ -5784,7 +5778,7 @@
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5793,175 +5787,175 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
         <v>189</v>
       </c>
-      <c r="M24" t="s">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>190</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>191</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>192</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="T24" t="s">
         <v>193</v>
       </c>
-      <c r="R24" t="s">
+      <c r="U24" t="s">
         <v>194</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>195</v>
       </c>
-      <c r="U24" t="s">
-        <v>196</v>
-      </c>
-      <c r="V24" t="s">
-        <v>197</v>
-      </c>
       <c r="W24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD24" t="s">
         <v>212</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AE24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG24" t="s">
         <v>213</v>
       </c>
-      <c r="AD24" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>215</v>
-      </c>
       <c r="AH24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI24">
         <v>30000000</v>
       </c>
       <c r="AJ24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO24">
         <v>51300000</v>
       </c>
       <c r="AP24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT24" t="s">
         <v>218</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS24" t="s">
+      <c r="AU24" t="s">
         <v>219</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>221</v>
       </c>
       <c r="AV24">
         <v>7</v>
       </c>
       <c r="AW24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA24" t="s">
         <v>222</v>
       </c>
-      <c r="AX24" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>224</v>
-      </c>
       <c r="BC24" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF24" t="s">
         <v>235</v>
       </c>
-      <c r="BD24" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>237</v>
-      </c>
       <c r="BG24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BI24">
         <v>1.71</v>
       </c>
       <c r="BJ24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BK24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BL24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BM24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP24" t="s">
+        <v>306</v>
+      </c>
+      <c r="BS24" t="s">
         <v>308</v>
       </c>
-      <c r="BS24" t="s">
-        <v>310</v>
-      </c>
       <c r="BT24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BV24" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW24" t="s">
         <v>319</v>
       </c>
-      <c r="BW24" t="s">
-        <v>321</v>
-      </c>
       <c r="BX24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:77">
@@ -5975,7 +5969,7 @@
         <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5984,175 +5978,175 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" t="s">
         <v>189</v>
       </c>
-      <c r="M25" t="s">
-        <v>186</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>190</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>191</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>192</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="T25" t="s">
         <v>193</v>
       </c>
-      <c r="R25" t="s">
+      <c r="U25" t="s">
         <v>194</v>
       </c>
-      <c r="T25" t="s">
+      <c r="V25" t="s">
         <v>195</v>
       </c>
-      <c r="U25" t="s">
-        <v>196</v>
-      </c>
-      <c r="V25" t="s">
-        <v>197</v>
-      </c>
       <c r="W25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD25" t="s">
         <v>212</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AE25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG25" t="s">
         <v>213</v>
       </c>
-      <c r="AD25" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>215</v>
-      </c>
       <c r="AH25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI25">
         <v>30000000</v>
       </c>
       <c r="AJ25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO25">
+        <v>207500000</v>
+      </c>
+      <c r="AP25" t="s">
         <v>216</v>
       </c>
-      <c r="AK25" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM25" t="s">
+      <c r="AQ25" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS25" t="s">
         <v>217</v>
       </c>
-      <c r="AN25" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO25">
-        <v>159500000</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="AT25" t="s">
         <v>218</v>
       </c>
-      <c r="AQ25" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS25" t="s">
+      <c r="AU25" t="s">
         <v>219</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>221</v>
       </c>
       <c r="AV25">
         <v>6</v>
       </c>
       <c r="AW25" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA25" t="s">
         <v>222</v>
       </c>
-      <c r="AX25" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>224</v>
-      </c>
       <c r="BC25" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF25" t="s">
         <v>235</v>
       </c>
-      <c r="BD25" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>237</v>
-      </c>
       <c r="BG25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BI25">
-        <v>5.3167</v>
+        <v>6.9167</v>
       </c>
       <c r="BJ25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BK25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BL25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BM25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BN25" t="s">
+        <v>292</v>
+      </c>
+      <c r="BO25" t="s">
         <v>294</v>
       </c>
-      <c r="BO25" t="s">
-        <v>296</v>
-      </c>
       <c r="BP25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BS25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BT25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BV25" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW25" t="s">
         <v>319</v>
       </c>
-      <c r="BW25" t="s">
-        <v>321</v>
-      </c>
       <c r="BX25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:77">
@@ -6166,7 +6160,7 @@
         <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -6175,181 +6169,181 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" t="s">
         <v>184</v>
       </c>
-      <c r="K26" t="s">
-        <v>186</v>
-      </c>
       <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s">
+        <v>184</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
         <v>189</v>
       </c>
-      <c r="M26" t="s">
-        <v>186</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>190</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>191</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>192</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="T26" t="s">
         <v>193</v>
       </c>
-      <c r="R26" t="s">
+      <c r="U26" t="s">
         <v>194</v>
       </c>
-      <c r="T26" t="s">
-        <v>195</v>
-      </c>
-      <c r="U26" t="s">
-        <v>196</v>
-      </c>
       <c r="V26" t="s">
+        <v>205</v>
+      </c>
+      <c r="W26" t="s">
+        <v>206</v>
+      </c>
+      <c r="X26" t="s">
         <v>207</v>
       </c>
-      <c r="W26" t="s">
-        <v>208</v>
-      </c>
-      <c r="X26" t="s">
-        <v>209</v>
-      </c>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA26" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD26" t="s">
         <v>212</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AE26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG26" t="s">
         <v>213</v>
       </c>
-      <c r="AD26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>215</v>
-      </c>
       <c r="AH26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI26">
         <v>30000000</v>
       </c>
       <c r="AJ26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO26">
         <v>9000000</v>
       </c>
       <c r="AP26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT26" t="s">
         <v>218</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS26" t="s">
+      <c r="AU26" t="s">
         <v>219</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>221</v>
       </c>
       <c r="AV26">
         <v>5</v>
       </c>
       <c r="AW26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA26" t="s">
         <v>222</v>
       </c>
-      <c r="AX26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>224</v>
-      </c>
       <c r="BB26" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD26" t="s">
         <v>234</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BF26" t="s">
         <v>235</v>
       </c>
-      <c r="BD26" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>237</v>
-      </c>
       <c r="BG26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BI26">
         <v>0.3</v>
       </c>
       <c r="BJ26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BK26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BL26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BM26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BN26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BO26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BP26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BS26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BT26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BU26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BV26" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW26" t="s">
         <v>319</v>
       </c>
-      <c r="BW26" t="s">
-        <v>321</v>
-      </c>
       <c r="BX26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BY26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:77">
@@ -6363,7 +6357,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -6372,172 +6366,172 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O27" t="s">
         <v>189</v>
       </c>
-      <c r="M27" t="s">
-        <v>186</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>190</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>191</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>192</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="T27" t="s">
         <v>193</v>
       </c>
-      <c r="R27" t="s">
+      <c r="U27" t="s">
         <v>194</v>
       </c>
-      <c r="T27" t="s">
+      <c r="V27" t="s">
         <v>195</v>
       </c>
-      <c r="U27" t="s">
-        <v>196</v>
-      </c>
-      <c r="V27" t="s">
-        <v>197</v>
-      </c>
       <c r="W27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD27" t="s">
         <v>212</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AE27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG27" t="s">
         <v>213</v>
       </c>
-      <c r="AD27" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>215</v>
-      </c>
       <c r="AH27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI27">
         <v>30000000</v>
       </c>
       <c r="AJ27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO27">
         <v>76000000</v>
       </c>
       <c r="AP27" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT27" t="s">
         <v>218</v>
       </c>
-      <c r="AQ27" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS27" t="s">
+      <c r="AU27" t="s">
         <v>219</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>221</v>
       </c>
       <c r="AV27">
         <v>4</v>
       </c>
       <c r="AW27" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA27" t="s">
         <v>222</v>
       </c>
-      <c r="AX27" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>224</v>
-      </c>
       <c r="BC27" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF27" t="s">
         <v>235</v>
       </c>
-      <c r="BD27" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>237</v>
-      </c>
       <c r="BG27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BH27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BI27">
         <v>2.5333</v>
       </c>
       <c r="BJ27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BK27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BL27" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM27" t="s">
         <v>283</v>
       </c>
-      <c r="BM27" t="s">
-        <v>285</v>
-      </c>
       <c r="BN27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BS27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BT27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BU27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BV27" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW27" t="s">
         <v>320</v>
       </c>
-      <c r="BW27" t="s">
-        <v>322</v>
-      </c>
       <c r="BX27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="326">
   <si>
     <t>object</t>
   </si>
@@ -409,7 +409,10 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-28T15:04:00.000Z</t>
+    <t>2024-08-30T20:18:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-30T20:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/646-15126a00907440bea8e957eeb81a2bf5</t>
@@ -1624,130 +1627,130 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" t="s">
         <v>185</v>
       </c>
-      <c r="M2" t="s">
-        <v>184</v>
-      </c>
       <c r="N2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T2" t="s">
+        <v>194</v>
+      </c>
+      <c r="U2" t="s">
+        <v>195</v>
+      </c>
+      <c r="V2" t="s">
+        <v>196</v>
+      </c>
+      <c r="W2" t="s">
+        <v>207</v>
+      </c>
+      <c r="X2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>193</v>
       </c>
-      <c r="U2" t="s">
-        <v>194</v>
-      </c>
-      <c r="V2" t="s">
-        <v>195</v>
-      </c>
-      <c r="W2" t="s">
-        <v>206</v>
-      </c>
-      <c r="X2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>192</v>
-      </c>
       <c r="AS2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV2">
         <v>46</v>
       </c>
       <c r="AW2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:79">
@@ -1770,166 +1773,166 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI3">
         <v>30000000</v>
       </c>
       <c r="AJ3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV3">
         <v>42</v>
       </c>
       <c r="AW3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BK3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BL3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BM3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BS3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BT3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BU3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:79">
@@ -1952,175 +1955,175 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI4">
         <v>30000000</v>
       </c>
       <c r="AJ4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO4">
         <v>9000000</v>
       </c>
       <c r="AP4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV4">
         <v>40</v>
       </c>
       <c r="AW4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BI4">
         <v>0.3</v>
       </c>
       <c r="BJ4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BP4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BS4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BV4" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX4" t="s">
         <v>317</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:79">
@@ -2143,178 +2146,178 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI5">
         <v>30000000</v>
       </c>
       <c r="AJ5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO5">
         <v>2000000</v>
       </c>
       <c r="AP5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV5">
         <v>39</v>
       </c>
       <c r="AW5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BI5">
         <v>0.0667</v>
       </c>
       <c r="BJ5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BN5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BO5" t="s">
+        <v>280</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>296</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>309</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>313</v>
+      </c>
+      <c r="BU5" t="s">
         <v>279</v>
       </c>
-      <c r="BP5" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>308</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>312</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>278</v>
-      </c>
       <c r="BV5" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX5" t="s">
         <v>317</v>
       </c>
-      <c r="BW5" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>316</v>
-      </c>
       <c r="BY5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:79">
@@ -2337,181 +2340,181 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI6">
         <v>30000000</v>
       </c>
       <c r="AJ6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV6">
         <v>38</v>
       </c>
       <c r="AW6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BP6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BS6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BV6" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX6" t="s">
         <v>317</v>
       </c>
-      <c r="BW6" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>316</v>
-      </c>
       <c r="BY6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:79">
@@ -2534,163 +2537,163 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI7">
         <v>30000000</v>
       </c>
       <c r="AJ7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV7">
         <v>37</v>
       </c>
       <c r="AW7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BS7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BT7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BU7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BV7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BW7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BX7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:79">
@@ -2713,178 +2716,178 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="W8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI8">
         <v>30000000</v>
       </c>
       <c r="AJ8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO8">
         <v>3000000</v>
       </c>
       <c r="AP8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV8">
         <v>36</v>
       </c>
       <c r="AW8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BI8">
         <v>0.1</v>
       </c>
       <c r="BJ8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BM8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BP8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BS8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BV8" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX8" t="s">
         <v>317</v>
       </c>
-      <c r="BW8" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>316</v>
-      </c>
       <c r="BY8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:79">
@@ -2907,172 +2910,172 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI9">
         <v>30000000</v>
       </c>
       <c r="AJ9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV9">
         <v>35</v>
       </c>
       <c r="AW9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BK9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BL9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BM9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BS9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BT9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BU9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV9" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX9" t="s">
         <v>317</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:79">
@@ -3095,172 +3098,172 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" t="s">
         <v>185</v>
       </c>
-      <c r="M10" t="s">
-        <v>184</v>
-      </c>
       <c r="N10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI10">
         <v>30000000</v>
       </c>
       <c r="AJ10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV10">
         <v>34</v>
       </c>
       <c r="AW10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BS10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BT10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BU10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BV10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BW10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BX10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:79">
@@ -3283,175 +3286,175 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI11">
         <v>30000000</v>
       </c>
       <c r="AJ11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV11">
         <v>33</v>
       </c>
       <c r="AW11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL11" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>289</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>309</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>313</v>
+      </c>
+      <c r="BU11" t="s">
         <v>279</v>
       </c>
-      <c r="BM11" t="s">
-        <v>283</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>293</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>298</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>308</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>312</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>278</v>
-      </c>
       <c r="BV11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BW11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BX11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:79">
@@ -3474,178 +3477,178 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI12">
         <v>30000000</v>
       </c>
       <c r="AJ12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV12">
         <v>30</v>
       </c>
       <c r="AW12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BC12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BM12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BS12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BV12" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX12" t="s">
         <v>317</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:79">
@@ -3668,175 +3671,175 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI13">
         <v>30000000</v>
       </c>
       <c r="AJ13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV13">
         <v>29</v>
       </c>
       <c r="AW13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BI13">
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL13" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>289</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>301</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>309</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>313</v>
+      </c>
+      <c r="BU13" t="s">
         <v>279</v>
       </c>
-      <c r="BM13" t="s">
-        <v>283</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>293</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>300</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>308</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>312</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>278</v>
-      </c>
       <c r="BV13" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX13" t="s">
         <v>317</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:79">
@@ -3859,175 +3862,175 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI14">
         <v>30000000</v>
       </c>
       <c r="AJ14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV14">
         <v>27</v>
       </c>
       <c r="AW14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BK14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BL14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BM14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BS14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BV14" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX14" t="s">
         <v>317</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:79">
@@ -4050,178 +4053,178 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI15">
         <v>30000000</v>
       </c>
       <c r="AJ15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV15">
         <v>26</v>
       </c>
       <c r="AW15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BC15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BI15">
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BS15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BV15" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX15" t="s">
         <v>317</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:79">
@@ -4244,178 +4247,178 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI16">
         <v>30000000</v>
       </c>
       <c r="AJ16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO16">
         <v>21000000</v>
       </c>
       <c r="AP16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV16">
         <v>23</v>
       </c>
       <c r="AW16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BC16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BI16">
         <v>0.7</v>
       </c>
       <c r="BJ16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BS16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BV16" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX16" t="s">
         <v>317</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:77">
@@ -4429,7 +4432,7 @@
         <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4438,178 +4441,178 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI17">
         <v>30000000</v>
       </c>
       <c r="AJ17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO17">
         <v>39500000</v>
       </c>
       <c r="AP17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV17">
         <v>22</v>
       </c>
       <c r="AW17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BC17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BI17">
         <v>1.3167</v>
       </c>
       <c r="BJ17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BL17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BM17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BN17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BO17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BP17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BS17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BV17" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX17" t="s">
         <v>317</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:77">
@@ -4623,7 +4626,7 @@
         <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4632,172 +4635,172 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI18">
         <v>30000000</v>
       </c>
       <c r="AJ18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO18">
         <v>5650000</v>
       </c>
       <c r="AP18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV18">
         <v>20</v>
       </c>
       <c r="AW18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BI18">
         <v>0.1883</v>
       </c>
       <c r="BJ18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BK18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BL18" t="s">
+        <v>282</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>289</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>294</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>312</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>316</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>294</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX18" t="s">
         <v>281</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>283</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>293</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>311</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>315</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>293</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>318</v>
-      </c>
-      <c r="BW18" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:77">
@@ -4811,7 +4814,7 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4820,178 +4823,178 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI19">
         <v>30000000</v>
       </c>
       <c r="AJ19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV19">
         <v>16</v>
       </c>
       <c r="AW19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BC19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BS19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BV19" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX19" t="s">
         <v>317</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX19" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:77">
@@ -5005,7 +5008,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -5014,178 +5017,178 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI20">
         <v>30000000</v>
       </c>
       <c r="AJ20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO20">
-        <v>6700000</v>
+        <v>34200000</v>
       </c>
       <c r="AP20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV20">
         <v>15</v>
       </c>
       <c r="AW20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BC20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BI20">
-        <v>0.2233</v>
+        <v>1.14</v>
       </c>
       <c r="BJ20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BK20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BL20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BM20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BS20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BT20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BU20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV20" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX20" t="s">
         <v>317</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX20" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:77">
@@ -5199,7 +5202,7 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -5208,178 +5211,178 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="W21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI21">
         <v>30000000</v>
       </c>
       <c r="AJ21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO21">
-        <v>54900000</v>
+        <v>61100000</v>
       </c>
       <c r="AP21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV21">
         <v>11</v>
       </c>
       <c r="AW21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BC21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BI21">
-        <v>1.83</v>
+        <v>2.0367</v>
       </c>
       <c r="BJ21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BS21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BT21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BU21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV21" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX21" t="s">
         <v>317</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:77">
@@ -5393,7 +5396,7 @@
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5402,178 +5405,178 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI22">
         <v>30000000</v>
       </c>
       <c r="AJ22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO22">
         <v>121500000</v>
       </c>
       <c r="AP22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV22">
         <v>10</v>
       </c>
       <c r="AW22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BC22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BI22">
         <v>4.05</v>
       </c>
       <c r="BJ22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BN22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BO22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BP22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BS22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BV22" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX22" t="s">
         <v>317</v>
-      </c>
-      <c r="BW22" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX22" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:77">
@@ -5587,7 +5590,7 @@
         <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5596,175 +5599,175 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI23">
         <v>30000000</v>
       </c>
       <c r="AJ23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO23">
         <v>2000000</v>
       </c>
       <c r="AP23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV23">
         <v>9</v>
       </c>
       <c r="AW23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BI23">
         <v>0.0667</v>
       </c>
       <c r="BJ23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BK23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BL23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BM23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BN23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BO23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BS23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BT23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BU23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV23" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX23" t="s">
         <v>317</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:77">
@@ -5778,7 +5781,7 @@
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5787,175 +5790,175 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI24">
         <v>30000000</v>
       </c>
       <c r="AJ24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO24">
         <v>51300000</v>
       </c>
       <c r="AP24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV24">
         <v>7</v>
       </c>
       <c r="AW24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BI24">
         <v>1.71</v>
       </c>
       <c r="BJ24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BS24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BT24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BU24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV24" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX24" t="s">
         <v>317</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX24" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:77">
@@ -5969,7 +5972,7 @@
         <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5978,175 +5981,175 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI25">
         <v>30000000</v>
       </c>
       <c r="AJ25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO25">
-        <v>207500000</v>
+        <v>212050000</v>
       </c>
       <c r="AP25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV25">
         <v>6</v>
       </c>
       <c r="AW25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BI25">
-        <v>6.9167</v>
+        <v>7.0683</v>
       </c>
       <c r="BJ25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BK25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BL25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BM25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BN25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BO25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BS25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BT25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BU25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV25" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX25" t="s">
         <v>317</v>
-      </c>
-      <c r="BW25" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX25" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:77">
@@ -6160,7 +6163,7 @@
         <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -6169,181 +6172,181 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI26">
         <v>30000000</v>
       </c>
       <c r="AJ26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO26">
-        <v>9000000</v>
+        <v>9900000</v>
       </c>
       <c r="AP26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV26">
         <v>5</v>
       </c>
       <c r="AW26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BB26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BC26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BI26">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="BJ26" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BL26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BM26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BN26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BO26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BP26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BS26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BT26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BU26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV26" t="s">
+        <v>318</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX26" t="s">
         <v>317</v>
       </c>
-      <c r="BW26" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX26" t="s">
-        <v>316</v>
-      </c>
       <c r="BY26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:77">
@@ -6357,7 +6360,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -6366,172 +6369,172 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI27">
         <v>30000000</v>
       </c>
       <c r="AJ27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO27">
         <v>76000000</v>
       </c>
       <c r="AP27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AT27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AU27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AV27">
         <v>4</v>
       </c>
       <c r="AW27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AZ27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BC27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BD27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BG27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BI27">
         <v>2.5333</v>
       </c>
       <c r="BJ27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BK27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BL27" t="s">
+        <v>282</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>289</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>294</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>312</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>316</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>294</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX27" t="s">
         <v>281</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>283</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>293</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>311</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>315</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>293</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>318</v>
-      </c>
-      <c r="BW27" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX27" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="327">
   <si>
     <t>object</t>
   </si>
@@ -409,10 +409,13 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-30T20:18:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-30T20:17:00.000Z</t>
+    <t>2024-08-31T05:40:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:39:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:43:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/646-15126a00907440bea8e957eeb81a2bf5</t>
@@ -1627,130 +1630,130 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" t="s">
         <v>186</v>
       </c>
-      <c r="M2" t="s">
-        <v>185</v>
-      </c>
       <c r="N2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T2" t="s">
+        <v>195</v>
+      </c>
+      <c r="U2" t="s">
+        <v>196</v>
+      </c>
+      <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
+        <v>208</v>
+      </c>
+      <c r="X2" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>194</v>
       </c>
-      <c r="U2" t="s">
-        <v>195</v>
-      </c>
-      <c r="V2" t="s">
-        <v>196</v>
-      </c>
-      <c r="W2" t="s">
-        <v>207</v>
-      </c>
-      <c r="X2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>193</v>
-      </c>
       <c r="AS2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV2">
         <v>46</v>
       </c>
       <c r="AW2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:79">
@@ -1773,166 +1776,166 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI3">
         <v>30000000</v>
       </c>
       <c r="AJ3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV3">
         <v>42</v>
       </c>
       <c r="AW3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BS3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:79">
@@ -1955,175 +1958,175 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI4">
         <v>30000000</v>
       </c>
       <c r="AJ4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO4">
         <v>9000000</v>
       </c>
       <c r="AP4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV4">
         <v>40</v>
       </c>
       <c r="AW4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BI4">
         <v>0.3</v>
       </c>
       <c r="BJ4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BN4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BO4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BP4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BS4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BV4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX4" t="s">
         <v>318</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:79">
@@ -2146,178 +2149,178 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="W5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI5">
         <v>30000000</v>
       </c>
       <c r="AJ5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO5">
         <v>2000000</v>
       </c>
       <c r="AP5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV5">
         <v>39</v>
       </c>
       <c r="AW5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BI5">
         <v>0.0667</v>
       </c>
       <c r="BJ5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BN5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BO5" t="s">
+        <v>281</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU5" t="s">
         <v>280</v>
       </c>
-      <c r="BP5" t="s">
-        <v>296</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>309</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>313</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>279</v>
-      </c>
       <c r="BV5" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX5" t="s">
         <v>318</v>
       </c>
-      <c r="BW5" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>317</v>
-      </c>
       <c r="BY5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:79">
@@ -2340,181 +2343,181 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI6">
         <v>30000000</v>
       </c>
       <c r="AJ6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV6">
         <v>38</v>
       </c>
       <c r="AW6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BC6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BN6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BO6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BP6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BS6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BT6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BU6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV6" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX6" t="s">
         <v>318</v>
       </c>
-      <c r="BW6" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>317</v>
-      </c>
       <c r="BY6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:79">
@@ -2537,163 +2540,163 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI7">
         <v>30000000</v>
       </c>
       <c r="AJ7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV7">
         <v>37</v>
       </c>
       <c r="AW7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BS7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BT7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BU7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BV7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BW7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BX7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:79">
@@ -2716,178 +2719,178 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI8">
         <v>30000000</v>
       </c>
       <c r="AJ8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO8">
         <v>3000000</v>
       </c>
       <c r="AP8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV8">
         <v>36</v>
       </c>
       <c r="AW8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BI8">
         <v>0.1</v>
       </c>
       <c r="BJ8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BL8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BM8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BN8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BO8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BP8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BS8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BV8" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX8" t="s">
         <v>318</v>
       </c>
-      <c r="BW8" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>317</v>
-      </c>
       <c r="BY8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:79">
@@ -2910,172 +2913,172 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI9">
         <v>30000000</v>
       </c>
       <c r="AJ9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV9">
         <v>35</v>
       </c>
       <c r="AW9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BS9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BV9" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX9" t="s">
         <v>318</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:79">
@@ -3098,172 +3101,172 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" t="s">
         <v>186</v>
       </c>
-      <c r="M10" t="s">
-        <v>185</v>
-      </c>
       <c r="N10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI10">
         <v>30000000</v>
       </c>
       <c r="AJ10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV10">
         <v>34</v>
       </c>
       <c r="AW10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BM10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BS10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BT10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BU10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BV10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BW10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BX10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:79">
@@ -3286,175 +3289,175 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI11">
         <v>30000000</v>
       </c>
       <c r="AJ11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV11">
         <v>33</v>
       </c>
       <c r="AW11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BL11" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>295</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>300</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU11" t="s">
         <v>280</v>
       </c>
-      <c r="BM11" t="s">
-        <v>284</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>289</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>294</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>299</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>309</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>313</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>279</v>
-      </c>
       <c r="BV11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BW11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BX11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:79">
@@ -3477,178 +3480,178 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI12">
         <v>30000000</v>
       </c>
       <c r="AJ12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV12">
         <v>30</v>
       </c>
       <c r="AW12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BC12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BL12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BM12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BS12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BV12" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX12" t="s">
         <v>318</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:79">
@@ -3671,175 +3674,175 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI13">
         <v>30000000</v>
       </c>
       <c r="AJ13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV13">
         <v>29</v>
       </c>
       <c r="AW13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BI13">
         <v>0</v>
       </c>
       <c r="BJ13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BL13" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>295</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>310</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU13" t="s">
         <v>280</v>
       </c>
-      <c r="BM13" t="s">
-        <v>284</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>289</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>294</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>301</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>309</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>313</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>279</v>
-      </c>
       <c r="BV13" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX13" t="s">
         <v>318</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:79">
@@ -3862,175 +3865,175 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI14">
         <v>30000000</v>
       </c>
       <c r="AJ14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV14">
         <v>27</v>
       </c>
       <c r="AW14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BS14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BT14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BU14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV14" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX14" t="s">
         <v>318</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:79">
@@ -4053,178 +4056,178 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI15">
         <v>30000000</v>
       </c>
       <c r="AJ15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV15">
         <v>26</v>
       </c>
       <c r="AW15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BC15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BI15">
         <v>0</v>
       </c>
       <c r="BJ15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BS15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BT15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BU15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV15" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX15" t="s">
         <v>318</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:79">
@@ -4247,178 +4250,178 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI16">
         <v>30000000</v>
       </c>
       <c r="AJ16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO16">
         <v>21000000</v>
       </c>
       <c r="AP16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV16">
         <v>23</v>
       </c>
       <c r="AW16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BC16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BI16">
         <v>0.7</v>
       </c>
       <c r="BJ16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BS16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BV16" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX16" t="s">
         <v>318</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:77">
@@ -4432,7 +4435,7 @@
         <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4441,178 +4444,178 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI17">
         <v>30000000</v>
       </c>
       <c r="AJ17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO17">
         <v>39500000</v>
       </c>
       <c r="AP17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV17">
         <v>22</v>
       </c>
       <c r="AW17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BC17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BI17">
         <v>1.3167</v>
       </c>
       <c r="BJ17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BK17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BL17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BM17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BN17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BO17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BP17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BS17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BT17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BU17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BV17" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX17" t="s">
         <v>318</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:77">
@@ -4626,7 +4629,7 @@
         <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4635,172 +4638,172 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI18">
         <v>30000000</v>
       </c>
       <c r="AJ18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO18">
         <v>5650000</v>
       </c>
       <c r="AP18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV18">
         <v>20</v>
       </c>
       <c r="AW18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BI18">
         <v>0.1883</v>
       </c>
       <c r="BJ18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BK18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BL18" t="s">
+        <v>283</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>313</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>317</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>295</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>320</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>322</v>
+      </c>
+      <c r="BX18" t="s">
         <v>282</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>284</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>289</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>294</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>312</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>316</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>294</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW18" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:77">
@@ -4814,7 +4817,7 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4823,178 +4826,178 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI19">
         <v>30000000</v>
       </c>
       <c r="AJ19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV19">
         <v>16</v>
       </c>
       <c r="AW19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BC19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BS19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BT19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BU19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV19" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX19" t="s">
         <v>318</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX19" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:77">
@@ -5008,7 +5011,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -5017,178 +5020,178 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI20">
         <v>30000000</v>
       </c>
       <c r="AJ20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO20">
         <v>34200000</v>
       </c>
       <c r="AP20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV20">
         <v>15</v>
       </c>
       <c r="AW20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BC20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BI20">
         <v>1.14</v>
       </c>
       <c r="BJ20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BL20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BM20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BS20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BV20" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX20" t="s">
         <v>318</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX20" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:77">
@@ -5202,7 +5205,7 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -5211,178 +5214,178 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI21">
         <v>30000000</v>
       </c>
       <c r="AJ21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO21">
         <v>61100000</v>
       </c>
       <c r="AP21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV21">
         <v>11</v>
       </c>
       <c r="AW21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BC21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BI21">
         <v>2.0367</v>
       </c>
       <c r="BJ21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BS21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BV21" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX21" t="s">
         <v>318</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:77">
@@ -5405,178 +5408,178 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI22">
         <v>30000000</v>
       </c>
       <c r="AJ22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO22">
         <v>121500000</v>
       </c>
       <c r="AP22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV22">
         <v>10</v>
       </c>
       <c r="AW22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BC22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BI22">
         <v>4.05</v>
       </c>
       <c r="BJ22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BM22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BN22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BO22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BP22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BS22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BT22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BU22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV22" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX22" t="s">
         <v>318</v>
-      </c>
-      <c r="BW22" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX22" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:77">
@@ -5590,7 +5593,7 @@
         <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5599,175 +5602,175 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI23">
         <v>30000000</v>
       </c>
       <c r="AJ23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO23">
         <v>2000000</v>
       </c>
       <c r="AP23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV23">
         <v>9</v>
       </c>
       <c r="AW23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BI23">
         <v>0.0667</v>
       </c>
       <c r="BJ23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BK23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BL23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BM23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BN23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BO23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BP23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BS23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BV23" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX23" t="s">
         <v>318</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:77">
@@ -5781,7 +5784,7 @@
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5790,175 +5793,175 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI24">
         <v>30000000</v>
       </c>
       <c r="AJ24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO24">
         <v>51300000</v>
       </c>
       <c r="AP24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV24">
         <v>7</v>
       </c>
       <c r="AW24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BI24">
         <v>1.71</v>
       </c>
       <c r="BJ24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BM24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BP24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BS24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BV24" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX24" t="s">
         <v>318</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX24" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:77">
@@ -5972,7 +5975,7 @@
         <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5981,175 +5984,175 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI25">
         <v>30000000</v>
       </c>
       <c r="AJ25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO25">
         <v>212050000</v>
       </c>
       <c r="AP25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV25">
         <v>6</v>
       </c>
       <c r="AW25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BI25">
         <v>7.0683</v>
       </c>
       <c r="BJ25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BK25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BL25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BM25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BN25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BO25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BP25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BS25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BV25" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX25" t="s">
         <v>318</v>
-      </c>
-      <c r="BW25" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX25" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:77">
@@ -6163,7 +6166,7 @@
         <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -6172,181 +6175,181 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI26">
         <v>30000000</v>
       </c>
       <c r="AJ26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO26">
         <v>9900000</v>
       </c>
       <c r="AP26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV26">
         <v>5</v>
       </c>
       <c r="AW26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BB26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BC26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BI26">
         <v>0.33</v>
       </c>
       <c r="BJ26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BK26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BL26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BM26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BN26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BO26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BP26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BS26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BT26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BV26" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX26" t="s">
         <v>318</v>
       </c>
-      <c r="BW26" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX26" t="s">
-        <v>317</v>
-      </c>
       <c r="BY26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:77">
@@ -6360,7 +6363,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -6369,172 +6372,172 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI27">
         <v>30000000</v>
       </c>
       <c r="AJ27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO27">
         <v>76000000</v>
       </c>
       <c r="AP27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AS27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AU27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AV27">
         <v>4</v>
       </c>
       <c r="AW27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AX27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AZ27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BA27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BC27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BF27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BH27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI27">
         <v>2.5333</v>
       </c>
       <c r="BJ27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BK27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BL27" t="s">
+        <v>283</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>313</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>317</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>295</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>320</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>322</v>
+      </c>
+      <c r="BX27" t="s">
         <v>282</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>284</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>289</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>294</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>312</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>316</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>294</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW27" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX27" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Hồ sơ nhân sự.xlsx
+++ b/Notion data/Hồ sơ nhân sự.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="325">
   <si>
     <t>object</t>
   </si>
@@ -166,7 +166,13 @@
     <t>properties.Cơ sở.type</t>
   </si>
   <si>
-    <t>properties.Cơ sở.select</t>
+    <t>properties.Cơ sở.select.id</t>
+  </si>
+  <si>
+    <t>properties.Cơ sở.select.name</t>
+  </si>
+  <si>
+    <t>properties.Cơ sở.select.color</t>
   </si>
   <si>
     <t>properties.SĐT.id</t>
@@ -226,15 +232,6 @@
     <t>properties.Ngày bắt đầu làm việc.date.time_zone</t>
   </si>
   <si>
-    <t>properties.Cơ sở.select.id</t>
-  </si>
-  <si>
-    <t>properties.Cơ sở.select.name</t>
-  </si>
-  <si>
-    <t>properties.Cơ sở.select.color</t>
-  </si>
-  <si>
     <t>properties.Hình thức làm việc.select.id</t>
   </si>
   <si>
@@ -256,7 +253,7 @@
     <t>page</t>
   </si>
   <si>
-    <t>15126a00-9074-40be-a8e9-57eeb81a2bf5</t>
+    <t>53461489-a607-4e8c-9bb2-75d40a9def6a</t>
   </si>
   <si>
     <t>35f44955-2223-488a-8274-8db6f726d9f7</t>
@@ -334,7 +331,7 @@
     <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
   </si>
   <si>
-    <t>2024-08-21T11:57:00.000Z</t>
+    <t>2024-08-31T11:50:00.000Z</t>
   </si>
   <si>
     <t>2024-07-10T03:16:00.000Z</t>
@@ -409,16 +406,13 @@
     <t>2024-05-10T09:17:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-31T05:40:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-31T05:39:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-31T05:43:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.notion.so/646-15126a00907440bea8e957eeb81a2bf5</t>
+    <t>2024-08-31T15:46:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.notion.so/Nguy-n-h-u-quang-53461489a6074e8c9bb275d40a9def6a</t>
   </si>
   <si>
     <t>https://www.notion.so/C-Na-gi-p-vi-c-35f449552223488a82748db6f726d9f7</t>
@@ -496,7 +490,7 @@
     <t>https://www.notion.so/Th-ch-Ho-ng-Nh-n-cca1354dd5854e098845dc6dadbcb631</t>
   </si>
   <si>
-    <t>https://salty-handsaw-797.notion.site/646-15126a00907440bea8e957eeb81a2bf5</t>
+    <t>https://salty-handsaw-797.notion.site/Nguy-n-h-u-quang-53461489a6074e8c9bb275d40a9def6a</t>
   </si>
   <si>
     <t>https://salty-handsaw-797.notion.site/C-Na-gi-p-vi-c-35f449552223488a82748db6f726d9f7</t>
@@ -685,6 +679,42 @@
     <t>nWf%3D</t>
   </si>
   <si>
+    <t>KqT_</t>
+  </si>
+  <si>
+    <t>Lj_l</t>
+  </si>
+  <si>
+    <t>VWB;</t>
+  </si>
+  <si>
+    <t>;;Tu</t>
+  </si>
+  <si>
+    <t>CẦN THƠ</t>
+  </si>
+  <si>
+    <t>LONG XUYÊN</t>
+  </si>
+  <si>
+    <t>SÓC TRĂNG</t>
+  </si>
+  <si>
+    <t>OUTSIDE</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>tSw%40</t>
   </si>
   <si>
@@ -730,7 +760,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>[{'type': 'text', 'text': {'content': '646', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '646', 'href': None}]</t>
+    <t>[{'type': 'text', 'text': {'content': 'Nguyễn hữu quang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn hữu quang', 'href': None}]</t>
   </si>
   <si>
     <t>[{'type': 'text', 'text': {'content': 'Cô Na giúp việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Na giúp việc', 'href': None}]</t>
@@ -853,12 +883,6 @@
     <t>brown</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -901,9 +925,6 @@
     <t>Quản trị cấp cao</t>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>gray</t>
   </si>
   <si>
@@ -944,33 +965,6 @@
   </si>
   <si>
     <t>2022-05-01</t>
-  </si>
-  <si>
-    <t>KqT_</t>
-  </si>
-  <si>
-    <t>Lj_l</t>
-  </si>
-  <si>
-    <t>VWB;</t>
-  </si>
-  <si>
-    <t>;;Tu</t>
-  </si>
-  <si>
-    <t>CẦN THƠ</t>
-  </si>
-  <si>
-    <t>LONG XUYÊN</t>
-  </si>
-  <si>
-    <t>SÓC TRĂNG</t>
-  </si>
-  <si>
-    <t>OUTSIDE</t>
-  </si>
-  <si>
-    <t>green</t>
   </si>
   <si>
     <t>t;`n</t>
@@ -1365,13 +1359,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CA27"/>
+  <dimension ref="A1:BZ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:79">
+    <row r="1" spans="1:78">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,541 +1600,547 @@
       <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:78">
+      <c r="A2" t="s">
         <v>78</v>
       </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" t="s">
+        <v>193</v>
+      </c>
+      <c r="U2" t="s">
+        <v>194</v>
+      </c>
+      <c r="V2" t="s">
+        <v>195</v>
+      </c>
+      <c r="W2" t="s">
+        <v>206</v>
+      </c>
+      <c r="X2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV2">
+        <v>48</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="2" spans="1:79">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:78">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>106</v>
       </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" t="s">
         <v>186</v>
       </c>
-      <c r="L2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" t="s">
         <v>190</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q3" t="s">
         <v>191</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R3" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T3" t="s">
         <v>193</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U3" t="s">
         <v>194</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V3" t="s">
         <v>195</v>
       </c>
-      <c r="U2" t="s">
-        <v>196</v>
-      </c>
-      <c r="V2" t="s">
-        <v>197</v>
-      </c>
-      <c r="W2" t="s">
-        <v>208</v>
-      </c>
-      <c r="X2" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="W3" t="s">
+        <v>206</v>
+      </c>
+      <c r="X3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA3" t="s">
         <v>210</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD3" t="s">
         <v>212</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG3" t="s">
         <v>213</v>
       </c>
-      <c r="AD2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AV2">
-        <v>46</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L3" t="s">
-        <v>188</v>
-      </c>
-      <c r="M3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P3" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>193</v>
-      </c>
-      <c r="R3" t="s">
-        <v>194</v>
-      </c>
-      <c r="T3" t="s">
-        <v>195</v>
-      </c>
-      <c r="U3" t="s">
-        <v>196</v>
-      </c>
-      <c r="V3" t="s">
-        <v>197</v>
-      </c>
-      <c r="W3" t="s">
-        <v>208</v>
-      </c>
-      <c r="X3" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>215</v>
-      </c>
       <c r="AH3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI3">
         <v>30000000</v>
       </c>
       <c r="AJ3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
         <v>216</v>
       </c>
-      <c r="AK3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS3" t="s">
         <v>217</v>
       </c>
-      <c r="AN3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AT3" t="s">
         <v>218</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AU3" t="s">
         <v>219</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>221</v>
       </c>
       <c r="AV3">
         <v>42</v>
       </c>
       <c r="AW3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>246</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>249</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>274</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>288</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:78">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" t="s">
+        <v>192</v>
+      </c>
+      <c r="T4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V4" t="s">
+        <v>195</v>
+      </c>
+      <c r="W4" t="s">
+        <v>206</v>
+      </c>
+      <c r="X4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG4" t="s">
         <v>213</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>224</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>237</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>239</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>264</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>278</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>285</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>295</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>297</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>314</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" t="s">
-        <v>189</v>
-      </c>
-      <c r="M4" t="s">
-        <v>186</v>
-      </c>
-      <c r="N4" t="s">
-        <v>190</v>
-      </c>
-      <c r="O4" t="s">
-        <v>191</v>
-      </c>
-      <c r="P4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R4" t="s">
-        <v>194</v>
-      </c>
-      <c r="T4" t="s">
-        <v>195</v>
-      </c>
-      <c r="U4" t="s">
-        <v>196</v>
-      </c>
-      <c r="V4" t="s">
-        <v>197</v>
-      </c>
-      <c r="W4" t="s">
-        <v>208</v>
-      </c>
-      <c r="X4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>215</v>
-      </c>
       <c r="AH4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI4">
         <v>30000000</v>
       </c>
       <c r="AJ4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO4">
         <v>9000000</v>
       </c>
       <c r="AP4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT4" t="s">
         <v>218</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS4" t="s">
+      <c r="AU4" t="s">
         <v>219</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>221</v>
       </c>
       <c r="AV4">
         <v>40</v>
       </c>
       <c r="AW4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY4" t="s">
         <v>222</v>
       </c>
-      <c r="AX4" t="s">
-        <v>213</v>
-      </c>
       <c r="AZ4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BA4" t="s">
-        <v>224</v>
+        <v>230</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>233</v>
       </c>
       <c r="BC4" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>245</v>
       </c>
       <c r="BF4" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH4" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI4">
+        <v>247</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>250</v>
+      </c>
+      <c r="BK4">
         <v>0.3</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>272</v>
-      </c>
       <c r="BL4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BM4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BN4" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>299</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>291</v>
       </c>
-      <c r="BO4" t="s">
-        <v>283</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>297</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>311</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>315</v>
+      <c r="BR4" t="s">
+        <v>304</v>
       </c>
       <c r="BU4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BV4" t="s">
         <v>319</v>
       </c>
       <c r="BW4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:79">
+    <row r="5" spans="1:78">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -2149,192 +2149,192 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5" t="s">
         <v>189</v>
       </c>
-      <c r="M5" t="s">
-        <v>186</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>190</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>191</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>192</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>193</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
         <v>194</v>
       </c>
-      <c r="T5" t="s">
-        <v>195</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>196</v>
       </c>
-      <c r="V5" t="s">
-        <v>198</v>
-      </c>
       <c r="W5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD5" t="s">
         <v>212</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AE5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG5" t="s">
         <v>213</v>
       </c>
-      <c r="AD5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>215</v>
-      </c>
       <c r="AH5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI5">
         <v>30000000</v>
       </c>
       <c r="AJ5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO5">
         <v>2000000</v>
       </c>
       <c r="AP5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT5" t="s">
         <v>218</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AU5" t="s">
         <v>219</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>221</v>
       </c>
       <c r="AV5">
         <v>39</v>
       </c>
       <c r="AW5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX5" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>221</v>
       </c>
       <c r="AZ5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA5" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>233</v>
       </c>
       <c r="BC5" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>245</v>
       </c>
       <c r="BF5" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH5" t="s">
-        <v>241</v>
-      </c>
-      <c r="BI5">
+        <v>247</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BK5">
         <v>0.0667</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>272</v>
-      </c>
       <c r="BL5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BM5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="BN5" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="BO5" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="BP5" t="s">
-        <v>297</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>314</v>
+        <v>300</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>289</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>304</v>
       </c>
       <c r="BU5" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="BV5" t="s">
         <v>319</v>
       </c>
       <c r="BW5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BX5" t="s">
         <v>321</v>
       </c>
-      <c r="BX5" t="s">
-        <v>318</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>323</v>
-      </c>
     </row>
-    <row r="6" spans="1:79">
+    <row r="6" spans="1:78">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -2343,195 +2343,195 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O6" t="s">
         <v>189</v>
       </c>
-      <c r="M6" t="s">
-        <v>186</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>190</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>191</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>192</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>193</v>
       </c>
-      <c r="R6" t="s">
+      <c r="U6" t="s">
         <v>194</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>195</v>
       </c>
-      <c r="U6" t="s">
-        <v>196</v>
-      </c>
-      <c r="V6" t="s">
-        <v>197</v>
-      </c>
       <c r="W6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD6" t="s">
         <v>212</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG6" t="s">
         <v>213</v>
       </c>
-      <c r="AD6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>215</v>
-      </c>
       <c r="AH6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI6">
         <v>30000000</v>
       </c>
       <c r="AJ6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO6">
+        <v>1300000</v>
+      </c>
+      <c r="AP6" t="s">
         <v>216</v>
       </c>
-      <c r="AK6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS6" t="s">
         <v>217</v>
       </c>
-      <c r="AN6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="AT6" t="s">
         <v>218</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AU6" t="s">
         <v>219</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>221</v>
       </c>
       <c r="AV6">
         <v>38</v>
       </c>
       <c r="AW6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX6" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>223</v>
       </c>
       <c r="AZ6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BA6" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="BB6" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="BC6" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD6" t="s">
         <v>235</v>
       </c>
-      <c r="BD6" t="s">
-        <v>236</v>
+      <c r="BE6" t="s">
+        <v>245</v>
       </c>
       <c r="BF6" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH6" t="s">
-        <v>242</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>247</v>
       </c>
       <c r="BJ6" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>272</v>
+        <v>252</v>
+      </c>
+      <c r="BK6">
+        <v>0.0433</v>
       </c>
       <c r="BL6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BM6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BN6" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>299</v>
+      </c>
+      <c r="BQ6" t="s">
         <v>291</v>
       </c>
-      <c r="BO6" t="s">
-        <v>283</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>298</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>312</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>316</v>
+      <c r="BR6" t="s">
+        <v>305</v>
       </c>
       <c r="BU6" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="BV6" t="s">
         <v>319</v>
       </c>
       <c r="BW6" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="BX6" t="s">
-        <v>318</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:79">
+    <row r="7" spans="1:78">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -2540,177 +2540,177 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O7" t="s">
         <v>189</v>
       </c>
-      <c r="M7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>190</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>192</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>193</v>
       </c>
-      <c r="R7" t="s">
+      <c r="U7" t="s">
         <v>194</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>195</v>
       </c>
-      <c r="U7" t="s">
-        <v>196</v>
-      </c>
-      <c r="V7" t="s">
-        <v>197</v>
-      </c>
       <c r="W7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD7" t="s">
         <v>212</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG7" t="s">
         <v>213</v>
       </c>
-      <c r="AD7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>215</v>
-      </c>
       <c r="AH7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI7">
         <v>30000000</v>
       </c>
       <c r="AJ7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="s">
         <v>216</v>
       </c>
-      <c r="AK7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="AQ7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS7" t="s">
         <v>217</v>
       </c>
-      <c r="AN7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AT7" t="s">
         <v>218</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="AU7" t="s">
         <v>219</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>221</v>
       </c>
       <c r="AV7">
         <v>37</v>
       </c>
       <c r="AW7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX7" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>224</v>
       </c>
       <c r="AZ7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BA7" t="s">
-        <v>224</v>
+        <v>232</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>233</v>
       </c>
       <c r="BC7" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>245</v>
       </c>
       <c r="BF7" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH7" t="s">
-        <v>243</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>247</v>
       </c>
       <c r="BJ7" t="s">
-        <v>266</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>273</v>
+        <v>253</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
       </c>
       <c r="BL7" t="s">
-        <v>280</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>313</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>317</v>
+        <v>276</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>229</v>
       </c>
       <c r="BU7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="BV7" t="s">
         <v>320</v>
       </c>
       <c r="BW7" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:79">
+    <row r="8" spans="1:78">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -2719,192 +2719,192 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O8" t="s">
         <v>189</v>
       </c>
-      <c r="M8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>190</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>191</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>192</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="T8" t="s">
         <v>193</v>
       </c>
-      <c r="R8" t="s">
+      <c r="U8" t="s">
         <v>194</v>
       </c>
-      <c r="T8" t="s">
-        <v>195</v>
-      </c>
-      <c r="U8" t="s">
-        <v>196</v>
-      </c>
       <c r="V8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD8" t="s">
         <v>212</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG8" t="s">
         <v>213</v>
       </c>
-      <c r="AD8" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>215</v>
-      </c>
       <c r="AH8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI8">
         <v>30000000</v>
       </c>
       <c r="AJ8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO8">
         <v>3000000</v>
       </c>
       <c r="AP8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT8" t="s">
         <v>218</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AU8" t="s">
         <v>219</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>221</v>
       </c>
       <c r="AV8">
         <v>36</v>
       </c>
       <c r="AW8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY8" t="s">
         <v>222</v>
       </c>
-      <c r="AX8" t="s">
-        <v>213</v>
-      </c>
       <c r="AZ8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BA8" t="s">
-        <v>224</v>
+        <v>230</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>233</v>
       </c>
       <c r="BC8" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>245</v>
       </c>
       <c r="BF8" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH8" t="s">
-        <v>244</v>
-      </c>
-      <c r="BI8">
+        <v>247</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>254</v>
+      </c>
+      <c r="BK8">
         <v>0.1</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>274</v>
-      </c>
       <c r="BL8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="BM8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="BN8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BO8" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="BP8" t="s">
         <v>299</v>
       </c>
-      <c r="BS8" t="s">
-        <v>311</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>315</v>
+      <c r="BQ8" t="s">
+        <v>291</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>306</v>
       </c>
       <c r="BU8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BV8" t="s">
         <v>319</v>
       </c>
       <c r="BW8" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="BX8" t="s">
-        <v>318</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:79">
+    <row r="9" spans="1:78">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -2913,186 +2913,186 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" t="s">
         <v>186</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" t="s">
         <v>188</v>
       </c>
-      <c r="M9" t="s">
-        <v>186</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" t="s">
         <v>190</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>191</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>192</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="T9" t="s">
         <v>193</v>
       </c>
-      <c r="R9" t="s">
+      <c r="U9" t="s">
         <v>194</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>195</v>
       </c>
-      <c r="U9" t="s">
-        <v>196</v>
-      </c>
-      <c r="V9" t="s">
-        <v>197</v>
-      </c>
       <c r="W9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD9" t="s">
         <v>212</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG9" t="s">
         <v>213</v>
       </c>
-      <c r="AD9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>215</v>
-      </c>
       <c r="AH9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI9">
         <v>30000000</v>
       </c>
       <c r="AJ9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="s">
         <v>216</v>
       </c>
-      <c r="AK9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AQ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS9" t="s">
         <v>217</v>
       </c>
-      <c r="AN9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="s">
+      <c r="AT9" t="s">
         <v>218</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS9" t="s">
+      <c r="AU9" t="s">
         <v>219</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>221</v>
       </c>
       <c r="AV9">
         <v>35</v>
       </c>
       <c r="AW9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX9" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>221</v>
       </c>
       <c r="AZ9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA9" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>233</v>
       </c>
       <c r="BC9" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>245</v>
       </c>
       <c r="BF9" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH9" t="s">
-        <v>245</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>247</v>
       </c>
       <c r="BJ9" t="s">
-        <v>264</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>271</v>
+        <v>255</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
       </c>
       <c r="BL9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="BM9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="BN9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO9" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>314</v>
+        <v>293</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>232</v>
       </c>
       <c r="BU9" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="BV9" t="s">
         <v>319</v>
       </c>
       <c r="BW9" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:79">
+    <row r="10" spans="1:78">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -3101,186 +3101,186 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N10" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" t="s">
         <v>190</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>191</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>192</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>193</v>
       </c>
-      <c r="R10" t="s">
+      <c r="U10" t="s">
         <v>194</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>195</v>
       </c>
-      <c r="U10" t="s">
-        <v>196</v>
-      </c>
-      <c r="V10" t="s">
-        <v>197</v>
-      </c>
       <c r="W10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD10" t="s">
         <v>212</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG10" t="s">
         <v>213</v>
       </c>
-      <c r="AD10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>215</v>
-      </c>
       <c r="AH10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI10">
         <v>30000000</v>
       </c>
       <c r="AJ10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="s">
         <v>216</v>
       </c>
-      <c r="AK10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AQ10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS10" t="s">
         <v>217</v>
       </c>
-      <c r="AN10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="s">
+      <c r="AT10" t="s">
         <v>218</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="AU10" t="s">
         <v>219</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>221</v>
       </c>
       <c r="AV10">
         <v>34</v>
       </c>
       <c r="AW10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX10" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>224</v>
       </c>
       <c r="AZ10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BA10" t="s">
-        <v>224</v>
+        <v>232</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>233</v>
       </c>
       <c r="BC10" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>245</v>
       </c>
       <c r="BF10" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH10" t="s">
-        <v>246</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>247</v>
       </c>
       <c r="BJ10" t="s">
-        <v>266</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>273</v>
+        <v>256</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
       </c>
       <c r="BL10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BM10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN10" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="BO10" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>313</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>317</v>
+        <v>293</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>232</v>
       </c>
       <c r="BU10" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="BV10" t="s">
         <v>320</v>
       </c>
       <c r="BW10" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:79">
+    <row r="11" spans="1:78">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -3289,189 +3289,189 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" t="s">
+        <v>184</v>
+      </c>
+      <c r="N11" t="s">
+        <v>188</v>
+      </c>
+      <c r="O11" t="s">
         <v>189</v>
       </c>
-      <c r="M11" t="s">
-        <v>186</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>190</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>191</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>192</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11" t="s">
         <v>193</v>
       </c>
-      <c r="R11" t="s">
+      <c r="U11" t="s">
         <v>194</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>195</v>
       </c>
-      <c r="U11" t="s">
-        <v>196</v>
-      </c>
-      <c r="V11" t="s">
-        <v>197</v>
-      </c>
       <c r="W11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD11" t="s">
         <v>212</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AE11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG11" t="s">
         <v>213</v>
       </c>
-      <c r="AD11" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>215</v>
-      </c>
       <c r="AH11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI11">
         <v>30000000</v>
       </c>
       <c r="AJ11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="s">
         <v>216</v>
       </c>
-      <c r="AK11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS11" t="s">
         <v>217</v>
       </c>
-      <c r="AN11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AT11" t="s">
         <v>218</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="AU11" t="s">
         <v>219</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>221</v>
       </c>
       <c r="AV11">
         <v>33</v>
       </c>
       <c r="AW11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX11" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>221</v>
       </c>
       <c r="AZ11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA11" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>233</v>
       </c>
       <c r="BC11" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>245</v>
       </c>
       <c r="BF11" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH11" t="s">
         <v>247</v>
       </c>
-      <c r="BI11">
-        <v>0</v>
+      <c r="BI11" t="s">
+        <v>247</v>
       </c>
       <c r="BJ11" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>274</v>
+        <v>257</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
       </c>
       <c r="BL11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="BM11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BN11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BO11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP11" t="s">
-        <v>300</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>314</v>
+        <v>298</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>307</v>
       </c>
       <c r="BU11" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="BV11" t="s">
         <v>320</v>
       </c>
       <c r="BW11" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:79">
+    <row r="12" spans="1:78">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -3480,192 +3480,192 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" t="s">
         <v>186</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>184</v>
+      </c>
+      <c r="N12" t="s">
         <v>188</v>
       </c>
-      <c r="M12" t="s">
-        <v>186</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
+        <v>189</v>
+      </c>
+      <c r="P12" t="s">
         <v>190</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>191</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>192</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="T12" t="s">
         <v>193</v>
       </c>
-      <c r="R12" t="s">
+      <c r="U12" t="s">
         <v>194</v>
       </c>
-      <c r="T12" t="s">
-        <v>195</v>
-      </c>
-      <c r="U12" t="s">
-        <v>196</v>
-      </c>
       <c r="V12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD12" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AE12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG12" t="s">
         <v>213</v>
       </c>
-      <c r="AD12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>215</v>
-      </c>
       <c r="AH12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI12">
         <v>30000000</v>
       </c>
       <c r="AJ12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="s">
         <v>216</v>
       </c>
-      <c r="AK12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AQ12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS12" t="s">
         <v>217</v>
       </c>
-      <c r="AN12" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="s">
+      <c r="AT12" t="s">
         <v>218</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS12" t="s">
+      <c r="AU12" t="s">
         <v>219</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>221</v>
       </c>
       <c r="AV12">
         <v>30</v>
       </c>
       <c r="AW12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY12" t="s">
         <v>222</v>
       </c>
-      <c r="AX12" t="s">
-        <v>213</v>
-      </c>
       <c r="AZ12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BA12" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="BB12" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="BC12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD12" t="s">
         <v>236</v>
       </c>
+      <c r="BE12" t="s">
+        <v>245</v>
+      </c>
       <c r="BF12" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH12" t="s">
-        <v>248</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>247</v>
       </c>
       <c r="BJ12" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>274</v>
+        <v>258</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
       </c>
       <c r="BL12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="BM12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BN12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BO12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP12" t="s">
-        <v>301</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>311</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>315</v>
+        <v>298</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>308</v>
       </c>
       <c r="BU12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BV12" t="s">
         <v>319</v>
       </c>
       <c r="BW12" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:79">
+    <row r="13" spans="1:78">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -3674,189 +3674,189 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" t="s">
         <v>186</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>184</v>
+      </c>
+      <c r="N13" t="s">
         <v>188</v>
       </c>
-      <c r="M13" t="s">
-        <v>186</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>189</v>
+      </c>
+      <c r="P13" t="s">
         <v>190</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>191</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>192</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="T13" t="s">
         <v>193</v>
       </c>
-      <c r="R13" t="s">
+      <c r="U13" t="s">
         <v>194</v>
       </c>
-      <c r="T13" t="s">
-        <v>195</v>
-      </c>
-      <c r="U13" t="s">
-        <v>196</v>
-      </c>
       <c r="V13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD13" t="s">
         <v>212</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AE13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG13" t="s">
         <v>213</v>
       </c>
-      <c r="AD13" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>215</v>
-      </c>
       <c r="AH13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI13">
         <v>30000000</v>
       </c>
       <c r="AJ13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="s">
         <v>216</v>
       </c>
-      <c r="AK13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS13" t="s">
         <v>217</v>
       </c>
-      <c r="AN13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="s">
+      <c r="AT13" t="s">
         <v>218</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS13" t="s">
+      <c r="AU13" t="s">
         <v>219</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>221</v>
       </c>
       <c r="AV13">
         <v>29</v>
       </c>
       <c r="AW13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX13" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>221</v>
       </c>
       <c r="AZ13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA13" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>233</v>
       </c>
       <c r="BC13" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>245</v>
       </c>
       <c r="BF13" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH13" t="s">
-        <v>249</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>247</v>
       </c>
       <c r="BJ13" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>274</v>
+        <v>259</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
       </c>
       <c r="BL13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="BM13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BN13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BO13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP13" t="s">
-        <v>302</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>314</v>
+        <v>298</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>309</v>
       </c>
       <c r="BU13" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="BV13" t="s">
         <v>319</v>
       </c>
       <c r="BW13" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:79">
+    <row r="14" spans="1:78">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -3865,189 +3865,189 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" t="s">
+        <v>188</v>
+      </c>
+      <c r="O14" t="s">
         <v>189</v>
       </c>
-      <c r="M14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>190</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>191</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>192</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="T14" t="s">
         <v>193</v>
       </c>
-      <c r="R14" t="s">
+      <c r="U14" t="s">
         <v>194</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>195</v>
       </c>
-      <c r="U14" t="s">
-        <v>196</v>
-      </c>
-      <c r="V14" t="s">
-        <v>197</v>
-      </c>
       <c r="W14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD14" t="s">
         <v>212</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AE14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG14" t="s">
         <v>213</v>
       </c>
-      <c r="AD14" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>215</v>
-      </c>
       <c r="AH14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI14">
         <v>30000000</v>
       </c>
       <c r="AJ14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="s">
         <v>216</v>
       </c>
-      <c r="AK14" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM14" t="s">
+      <c r="AQ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS14" t="s">
         <v>217</v>
       </c>
-      <c r="AN14" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="s">
+      <c r="AT14" t="s">
         <v>218</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS14" t="s">
+      <c r="AU14" t="s">
         <v>219</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>221</v>
       </c>
       <c r="AV14">
         <v>27</v>
       </c>
       <c r="AW14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX14" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>223</v>
       </c>
       <c r="AZ14" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BA14" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>233</v>
       </c>
       <c r="BC14" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>245</v>
       </c>
       <c r="BF14" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH14" t="s">
-        <v>250</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>247</v>
       </c>
       <c r="BJ14" t="s">
-        <v>264</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>271</v>
+        <v>260</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
       </c>
       <c r="BL14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="BM14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="BN14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP14" t="s">
-        <v>300</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>312</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>316</v>
+        <v>298</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>307</v>
       </c>
       <c r="BU14" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="BV14" t="s">
         <v>319</v>
       </c>
       <c r="BW14" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:79">
+    <row r="15" spans="1:78">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -4056,192 +4056,192 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" t="s">
+        <v>184</v>
+      </c>
+      <c r="N15" t="s">
+        <v>188</v>
+      </c>
+      <c r="O15" t="s">
         <v>189</v>
       </c>
-      <c r="M15" t="s">
-        <v>186</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>190</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>191</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>192</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="T15" t="s">
         <v>193</v>
       </c>
-      <c r="R15" t="s">
+      <c r="U15" t="s">
         <v>194</v>
       </c>
-      <c r="T15" t="s">
-        <v>195</v>
-      </c>
-      <c r="U15" t="s">
-        <v>196</v>
-      </c>
       <c r="V15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD15" t="s">
         <v>212</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AE15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG15" t="s">
         <v>213</v>
       </c>
-      <c r="AD15" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>215</v>
-      </c>
       <c r="AH15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI15">
         <v>30000000</v>
       </c>
       <c r="AJ15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="s">
         <v>216</v>
       </c>
-      <c r="AK15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM15" t="s">
+      <c r="AQ15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS15" t="s">
         <v>217</v>
       </c>
-      <c r="AN15" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="s">
+      <c r="AT15" t="s">
         <v>218</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS15" t="s">
+      <c r="AU15" t="s">
         <v>219</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>221</v>
       </c>
       <c r="AV15">
         <v>26</v>
       </c>
       <c r="AW15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX15" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>223</v>
       </c>
       <c r="AZ15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BA15" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="BB15" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="BC15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD15" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>245</v>
       </c>
       <c r="BF15" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH15" t="s">
-        <v>251</v>
-      </c>
-      <c r="BI15">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>247</v>
       </c>
       <c r="BJ15" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>272</v>
+        <v>261</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
       </c>
       <c r="BL15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BM15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BN15" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="BO15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP15" t="s">
-        <v>300</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>312</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>316</v>
+        <v>298</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>307</v>
       </c>
       <c r="BU15" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="BV15" t="s">
         <v>319</v>
       </c>
       <c r="BW15" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:79">
+    <row r="16" spans="1:78">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -4250,192 +4250,192 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" t="s">
+        <v>184</v>
+      </c>
+      <c r="N16" t="s">
+        <v>188</v>
+      </c>
+      <c r="O16" t="s">
         <v>189</v>
       </c>
-      <c r="M16" t="s">
-        <v>186</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>190</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>191</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>192</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="T16" t="s">
         <v>193</v>
       </c>
-      <c r="R16" t="s">
+      <c r="U16" t="s">
         <v>194</v>
       </c>
-      <c r="T16" t="s">
-        <v>195</v>
-      </c>
-      <c r="U16" t="s">
-        <v>196</v>
-      </c>
       <c r="V16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD16" t="s">
         <v>212</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AE16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG16" t="s">
         <v>213</v>
       </c>
-      <c r="AD16" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>215</v>
-      </c>
       <c r="AH16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI16">
         <v>30000000</v>
       </c>
       <c r="AJ16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO16">
         <v>21000000</v>
       </c>
       <c r="AP16" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT16" t="s">
         <v>218</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS16" t="s">
+      <c r="AU16" t="s">
         <v>219</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>221</v>
       </c>
       <c r="AV16">
         <v>23</v>
       </c>
       <c r="AW16" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY16" t="s">
         <v>222</v>
       </c>
-      <c r="AX16" t="s">
-        <v>213</v>
-      </c>
       <c r="AZ16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BA16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="BB16" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="BC16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD16" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>245</v>
       </c>
       <c r="BF16" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH16" t="s">
-        <v>252</v>
-      </c>
-      <c r="BI16">
+        <v>247</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>262</v>
+      </c>
+      <c r="BK16">
         <v>0.7</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>272</v>
-      </c>
       <c r="BL16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BM16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BN16" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="BO16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP16" t="s">
-        <v>301</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>311</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>315</v>
+        <v>298</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>308</v>
       </c>
       <c r="BU16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BV16" t="s">
         <v>319</v>
       </c>
       <c r="BW16" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:77">
+    <row r="17" spans="1:76">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4444,192 +4444,192 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O17" t="s">
         <v>189</v>
       </c>
-      <c r="M17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>190</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>191</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>192</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="T17" t="s">
         <v>193</v>
       </c>
-      <c r="R17" t="s">
+      <c r="U17" t="s">
         <v>194</v>
       </c>
-      <c r="T17" t="s">
-        <v>195</v>
-      </c>
-      <c r="U17" t="s">
-        <v>196</v>
-      </c>
       <c r="V17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA17" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD17" t="s">
         <v>212</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AE17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG17" t="s">
         <v>213</v>
       </c>
-      <c r="AD17" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>215</v>
-      </c>
       <c r="AH17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI17">
         <v>30000000</v>
       </c>
       <c r="AJ17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO17">
         <v>39500000</v>
       </c>
       <c r="AP17" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT17" t="s">
         <v>218</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS17" t="s">
+      <c r="AU17" t="s">
         <v>219</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>221</v>
       </c>
       <c r="AV17">
         <v>22</v>
       </c>
       <c r="AW17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY17" t="s">
         <v>222</v>
       </c>
-      <c r="AX17" t="s">
-        <v>213</v>
-      </c>
       <c r="AZ17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BA17" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="BB17" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="BC17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD17" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>245</v>
       </c>
       <c r="BF17" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH17" t="s">
-        <v>253</v>
-      </c>
-      <c r="BI17">
+        <v>247</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>263</v>
+      </c>
+      <c r="BK17">
         <v>1.3167</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>275</v>
-      </c>
       <c r="BL17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BM17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="BN17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BO17" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="BP17" t="s">
-        <v>303</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>311</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>315</v>
+        <v>301</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>310</v>
       </c>
       <c r="BU17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BV17" t="s">
         <v>319</v>
       </c>
       <c r="BW17" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:77">
+    <row r="18" spans="1:76">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4638,186 +4638,186 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s">
+        <v>184</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
         <v>189</v>
       </c>
-      <c r="M18" t="s">
-        <v>186</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>190</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>191</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>192</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="T18" t="s">
         <v>193</v>
       </c>
-      <c r="R18" t="s">
+      <c r="U18" t="s">
         <v>194</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>195</v>
       </c>
-      <c r="U18" t="s">
-        <v>196</v>
-      </c>
-      <c r="V18" t="s">
-        <v>197</v>
-      </c>
       <c r="W18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD18" t="s">
         <v>212</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AE18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG18" t="s">
         <v>213</v>
       </c>
-      <c r="AD18" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>215</v>
-      </c>
       <c r="AH18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI18">
         <v>30000000</v>
       </c>
       <c r="AJ18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO18">
         <v>5650000</v>
       </c>
       <c r="AP18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT18" t="s">
         <v>218</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS18" t="s">
+      <c r="AU18" t="s">
         <v>219</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>221</v>
       </c>
       <c r="AV18">
         <v>20</v>
       </c>
       <c r="AW18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX18" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>224</v>
       </c>
       <c r="AZ18" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BA18" t="s">
-        <v>224</v>
+        <v>232</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>233</v>
       </c>
       <c r="BC18" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>245</v>
       </c>
       <c r="BF18" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH18" t="s">
-        <v>254</v>
-      </c>
-      <c r="BI18">
+        <v>247</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>264</v>
+      </c>
+      <c r="BK18">
         <v>0.1883</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>276</v>
-      </c>
       <c r="BL18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BM18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BN18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BO18" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>313</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>317</v>
+        <v>293</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>232</v>
       </c>
       <c r="BU18" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="BV18" t="s">
         <v>320</v>
       </c>
       <c r="BW18" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:77">
+    <row r="19" spans="1:76">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4826,192 +4826,192 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
         <v>189</v>
       </c>
-      <c r="M19" t="s">
-        <v>186</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>190</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>191</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>192</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="T19" t="s">
         <v>193</v>
       </c>
-      <c r="R19" t="s">
+      <c r="U19" t="s">
         <v>194</v>
       </c>
-      <c r="T19" t="s">
-        <v>195</v>
-      </c>
-      <c r="U19" t="s">
-        <v>196</v>
-      </c>
       <c r="V19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD19" t="s">
         <v>212</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AE19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG19" t="s">
         <v>213</v>
       </c>
-      <c r="AD19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>215</v>
-      </c>
       <c r="AH19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI19">
         <v>30000000</v>
       </c>
       <c r="AJ19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="s">
         <v>216</v>
       </c>
-      <c r="AK19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM19" t="s">
+      <c r="AQ19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS19" t="s">
         <v>217</v>
       </c>
-      <c r="AN19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AT19" t="s">
         <v>218</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS19" t="s">
+      <c r="AU19" t="s">
         <v>219</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>221</v>
       </c>
       <c r="AV19">
         <v>16</v>
       </c>
       <c r="AW19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX19" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>223</v>
       </c>
       <c r="AZ19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BA19" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="BB19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="BC19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD19" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>245</v>
       </c>
       <c r="BF19" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH19" t="s">
-        <v>255</v>
-      </c>
-      <c r="BI19">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>247</v>
       </c>
       <c r="BJ19" t="s">
         <v>265</v>
       </c>
-      <c r="BK19" t="s">
-        <v>272</v>
+      <c r="BK19">
+        <v>0</v>
       </c>
       <c r="BL19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BM19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BN19" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="BO19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP19" t="s">
-        <v>304</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>312</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>316</v>
+        <v>298</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>311</v>
       </c>
       <c r="BU19" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="BV19" t="s">
         <v>319</v>
       </c>
       <c r="BW19" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX19" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:77">
+    <row r="20" spans="1:76">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -5020,192 +5020,192 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="s">
+        <v>184</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
         <v>189</v>
       </c>
-      <c r="M20" t="s">
-        <v>186</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>190</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>191</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>192</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="T20" t="s">
         <v>193</v>
       </c>
-      <c r="R20" t="s">
+      <c r="U20" t="s">
         <v>194</v>
       </c>
-      <c r="T20" t="s">
-        <v>195</v>
-      </c>
-      <c r="U20" t="s">
-        <v>196</v>
-      </c>
       <c r="V20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD20" t="s">
         <v>212</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AE20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG20" t="s">
         <v>213</v>
       </c>
-      <c r="AD20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>215</v>
-      </c>
       <c r="AH20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI20">
         <v>30000000</v>
       </c>
       <c r="AJ20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO20">
+        <v>54700000</v>
+      </c>
+      <c r="AP20" t="s">
         <v>216</v>
       </c>
-      <c r="AK20" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM20" t="s">
+      <c r="AQ20" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS20" t="s">
         <v>217</v>
       </c>
-      <c r="AN20" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO20">
-        <v>34200000</v>
-      </c>
-      <c r="AP20" t="s">
+      <c r="AT20" t="s">
         <v>218</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS20" t="s">
+      <c r="AU20" t="s">
         <v>219</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>221</v>
       </c>
       <c r="AV20">
         <v>15</v>
       </c>
       <c r="AW20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX20" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>221</v>
       </c>
       <c r="AZ20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA20" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="BB20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="BC20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD20" t="s">
-        <v>236</v>
+        <v>241</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>245</v>
       </c>
       <c r="BF20" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH20" t="s">
-        <v>256</v>
-      </c>
-      <c r="BI20">
-        <v>1.14</v>
+        <v>247</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>247</v>
       </c>
       <c r="BJ20" t="s">
-        <v>264</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="BK20">
+        <v>1.8233</v>
       </c>
       <c r="BL20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="BM20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="BN20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BO20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP20" t="s">
-        <v>305</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>314</v>
+        <v>298</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>312</v>
       </c>
       <c r="BU20" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="BV20" t="s">
         <v>319</v>
       </c>
       <c r="BW20" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX20" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:77">
+    <row r="21" spans="1:76">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -5214,192 +5214,192 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
         <v>189</v>
       </c>
-      <c r="M21" t="s">
-        <v>186</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>190</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>191</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>192</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="T21" t="s">
         <v>193</v>
       </c>
-      <c r="R21" t="s">
+      <c r="U21" t="s">
         <v>194</v>
       </c>
-      <c r="T21" t="s">
-        <v>195</v>
-      </c>
-      <c r="U21" t="s">
-        <v>196</v>
-      </c>
       <c r="V21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA21" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD21" t="s">
         <v>212</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AE21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG21" t="s">
         <v>213</v>
       </c>
-      <c r="AD21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>215</v>
-      </c>
       <c r="AH21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI21">
         <v>30000000</v>
       </c>
       <c r="AJ21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO21">
         <v>61100000</v>
       </c>
       <c r="AP21" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT21" t="s">
         <v>218</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS21" t="s">
+      <c r="AU21" t="s">
         <v>219</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>221</v>
       </c>
       <c r="AV21">
         <v>11</v>
       </c>
       <c r="AW21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX21" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>221</v>
       </c>
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="BB21" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>242</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>246</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>247</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK21">
+        <v>2.0367</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>275</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>282</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ21" t="s">
         <v>232</v>
       </c>
-      <c r="BC21" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>237</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI21">
-        <v>2.0367</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>272</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>279</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>285</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>290</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>295</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>305</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>314</v>
+      <c r="BR21" t="s">
+        <v>312</v>
       </c>
       <c r="BU21" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="BV21" t="s">
         <v>319</v>
       </c>
       <c r="BW21" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:77">
+    <row r="22" spans="1:76">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5408,192 +5408,192 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="s">
+        <v>184</v>
+      </c>
+      <c r="N22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" t="s">
         <v>189</v>
       </c>
-      <c r="M22" t="s">
-        <v>186</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>190</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>191</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>192</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="T22" t="s">
         <v>193</v>
       </c>
-      <c r="R22" t="s">
+      <c r="U22" t="s">
         <v>194</v>
       </c>
-      <c r="T22" t="s">
-        <v>195</v>
-      </c>
-      <c r="U22" t="s">
-        <v>196</v>
-      </c>
       <c r="V22" t="s">
+        <v>204</v>
+      </c>
+      <c r="W22" t="s">
         <v>206</v>
       </c>
-      <c r="W22" t="s">
-        <v>208</v>
-      </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD22" t="s">
         <v>212</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AE22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG22" t="s">
         <v>213</v>
       </c>
-      <c r="AD22" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>215</v>
-      </c>
       <c r="AH22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI22">
         <v>30000000</v>
       </c>
       <c r="AJ22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO22">
         <v>121500000</v>
       </c>
       <c r="AP22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT22" t="s">
         <v>218</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS22" t="s">
+      <c r="AU22" t="s">
         <v>219</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>221</v>
       </c>
       <c r="AV22">
         <v>10</v>
       </c>
       <c r="AW22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX22" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>223</v>
       </c>
       <c r="AZ22" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BA22" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="BB22" t="s">
         <v>233</v>
       </c>
       <c r="BC22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD22" t="s">
-        <v>236</v>
+        <v>243</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>245</v>
       </c>
       <c r="BF22" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH22" t="s">
-        <v>258</v>
-      </c>
-      <c r="BI22">
+        <v>247</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>268</v>
+      </c>
+      <c r="BK22">
         <v>4.05</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>272</v>
-      </c>
       <c r="BL22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BM22" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="BN22" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="BO22" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="BP22" t="s">
-        <v>306</v>
-      </c>
-      <c r="BS22" t="s">
-        <v>312</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>316</v>
+        <v>301</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>313</v>
       </c>
       <c r="BU22" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="BV22" t="s">
         <v>319</v>
       </c>
       <c r="BW22" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX22" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:77">
+    <row r="23" spans="1:76">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5602,189 +5602,189 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="s">
+        <v>184</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
         <v>189</v>
       </c>
-      <c r="M23" t="s">
-        <v>186</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>190</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>191</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>192</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="T23" t="s">
         <v>193</v>
       </c>
-      <c r="R23" t="s">
+      <c r="U23" t="s">
         <v>194</v>
       </c>
-      <c r="T23" t="s">
+      <c r="V23" t="s">
         <v>195</v>
       </c>
-      <c r="U23" t="s">
-        <v>196</v>
-      </c>
-      <c r="V23" t="s">
-        <v>197</v>
-      </c>
       <c r="W23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD23" t="s">
         <v>212</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AE23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG23" t="s">
         <v>213</v>
       </c>
-      <c r="AD23" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>215</v>
-      </c>
       <c r="AH23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI23">
         <v>30000000</v>
       </c>
       <c r="AJ23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO23">
         <v>2000000</v>
       </c>
       <c r="AP23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT23" t="s">
         <v>218</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS23" t="s">
+      <c r="AU23" t="s">
         <v>219</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>221</v>
       </c>
       <c r="AV23">
         <v>9</v>
       </c>
       <c r="AW23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX23" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>221</v>
       </c>
       <c r="AZ23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA23" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>233</v>
       </c>
       <c r="BC23" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>245</v>
       </c>
       <c r="BF23" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH23" t="s">
-        <v>259</v>
-      </c>
-      <c r="BI23">
+        <v>247</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK23">
         <v>0.0667</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>270</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>277</v>
-      </c>
       <c r="BL23" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BM23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BN23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BO23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BP23" t="s">
-        <v>307</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT23" t="s">
+        <v>302</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>303</v>
+      </c>
+      <c r="BR23" t="s">
         <v>314</v>
       </c>
       <c r="BU23" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="BV23" t="s">
         <v>319</v>
       </c>
       <c r="BW23" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:77">
+    <row r="24" spans="1:76">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5793,189 +5793,189 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
         <v>189</v>
       </c>
-      <c r="M24" t="s">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>190</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>191</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>192</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="T24" t="s">
         <v>193</v>
       </c>
-      <c r="R24" t="s">
+      <c r="U24" t="s">
         <v>194</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>195</v>
       </c>
-      <c r="U24" t="s">
-        <v>196</v>
-      </c>
-      <c r="V24" t="s">
-        <v>197</v>
-      </c>
       <c r="W24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD24" t="s">
         <v>212</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AE24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG24" t="s">
         <v>213</v>
       </c>
-      <c r="AD24" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>215</v>
-      </c>
       <c r="AH24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI24">
         <v>30000000</v>
       </c>
       <c r="AJ24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO24">
         <v>51300000</v>
       </c>
       <c r="AP24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT24" t="s">
         <v>218</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS24" t="s">
+      <c r="AU24" t="s">
         <v>219</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>221</v>
       </c>
       <c r="AV24">
         <v>7</v>
       </c>
       <c r="AW24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX24" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>221</v>
       </c>
       <c r="AZ24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA24" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>233</v>
       </c>
       <c r="BC24" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>245</v>
       </c>
       <c r="BF24" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH24" t="s">
-        <v>260</v>
-      </c>
-      <c r="BI24">
+        <v>247</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK24">
         <v>1.71</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>266</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>273</v>
-      </c>
       <c r="BL24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BM24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BN24" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="BO24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BP24" t="s">
-        <v>308</v>
-      </c>
-      <c r="BS24" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>314</v>
+        <v>298</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>315</v>
       </c>
       <c r="BU24" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="BV24" t="s">
         <v>319</v>
       </c>
       <c r="BW24" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX24" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:77">
+    <row r="25" spans="1:76">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5984,189 +5984,189 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" t="s">
         <v>189</v>
       </c>
-      <c r="M25" t="s">
-        <v>186</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>190</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>191</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>192</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="T25" t="s">
         <v>193</v>
       </c>
-      <c r="R25" t="s">
+      <c r="U25" t="s">
         <v>194</v>
       </c>
-      <c r="T25" t="s">
+      <c r="V25" t="s">
         <v>195</v>
       </c>
-      <c r="U25" t="s">
-        <v>196</v>
-      </c>
-      <c r="V25" t="s">
-        <v>197</v>
-      </c>
       <c r="W25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD25" t="s">
         <v>212</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AE25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG25" t="s">
         <v>213</v>
       </c>
-      <c r="AD25" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>215</v>
-      </c>
       <c r="AH25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI25">
         <v>30000000</v>
       </c>
       <c r="AJ25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO25">
         <v>212050000</v>
       </c>
       <c r="AP25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT25" t="s">
         <v>218</v>
       </c>
-      <c r="AQ25" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS25" t="s">
+      <c r="AU25" t="s">
         <v>219</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>221</v>
       </c>
       <c r="AV25">
         <v>6</v>
       </c>
       <c r="AW25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX25" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>221</v>
       </c>
       <c r="AZ25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA25" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>233</v>
       </c>
       <c r="BC25" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>245</v>
       </c>
       <c r="BF25" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH25" t="s">
-        <v>261</v>
-      </c>
-      <c r="BI25">
+        <v>247</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>271</v>
+      </c>
+      <c r="BK25">
         <v>7.0683</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>270</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>277</v>
-      </c>
       <c r="BL25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BM25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BN25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BO25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BP25" t="s">
-        <v>307</v>
-      </c>
-      <c r="BS25" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT25" t="s">
+        <v>302</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>303</v>
+      </c>
+      <c r="BR25" t="s">
         <v>314</v>
       </c>
       <c r="BU25" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="BV25" t="s">
         <v>319</v>
       </c>
       <c r="BW25" t="s">
-        <v>321</v>
-      </c>
-      <c r="BX25" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:77">
+    <row r="26" spans="1:76">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -6175,195 +6175,195 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" t="s">
         <v>184</v>
       </c>
-      <c r="K26" t="s">
-        <v>186</v>
-      </c>
       <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s">
+        <v>184</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
         <v>189</v>
       </c>
-      <c r="M26" t="s">
-        <v>186</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>190</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>191</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>192</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="T26" t="s">
         <v>193</v>
       </c>
-      <c r="R26" t="s">
+      <c r="U26" t="s">
         <v>194</v>
       </c>
-      <c r="T26" t="s">
-        <v>195</v>
-      </c>
-      <c r="U26" t="s">
-        <v>196</v>
-      </c>
       <c r="V26" t="s">
+        <v>205</v>
+      </c>
+      <c r="W26" t="s">
+        <v>206</v>
+      </c>
+      <c r="X26" t="s">
         <v>207</v>
       </c>
-      <c r="W26" t="s">
-        <v>208</v>
-      </c>
-      <c r="X26" t="s">
-        <v>209</v>
-      </c>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA26" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD26" t="s">
         <v>212</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AE26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG26" t="s">
         <v>213</v>
       </c>
-      <c r="AD26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>215</v>
-      </c>
       <c r="AH26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI26">
         <v>30000000</v>
       </c>
       <c r="AJ26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO26">
         <v>9900000</v>
       </c>
       <c r="AP26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT26" t="s">
         <v>218</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS26" t="s">
+      <c r="AU26" t="s">
         <v>219</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>221</v>
       </c>
       <c r="AV26">
         <v>5</v>
       </c>
       <c r="AW26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX26" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>221</v>
       </c>
       <c r="AZ26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BA26" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="BB26" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC26" t="s">
         <v>234</v>
       </c>
-      <c r="BC26" t="s">
-        <v>235</v>
-      </c>
       <c r="BD26" t="s">
-        <v>236</v>
+        <v>244</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>245</v>
       </c>
       <c r="BF26" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH26" t="s">
-        <v>262</v>
-      </c>
-      <c r="BI26">
+        <v>247</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>272</v>
+      </c>
+      <c r="BK26">
         <v>0.33</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>275</v>
-      </c>
       <c r="BL26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BM26" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="BN26" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BO26" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="BP26" t="s">
-        <v>309</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>314</v>
+        <v>301</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>316</v>
       </c>
       <c r="BU26" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="BV26" t="s">
         <v>319</v>
       </c>
       <c r="BW26" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="BX26" t="s">
-        <v>318</v>
-      </c>
-      <c r="BY26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:77">
+    <row r="27" spans="1:76">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -6372,172 +6372,172 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O27" t="s">
         <v>189</v>
       </c>
-      <c r="M27" t="s">
-        <v>186</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>190</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>191</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>192</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="T27" t="s">
         <v>193</v>
       </c>
-      <c r="R27" t="s">
+      <c r="U27" t="s">
         <v>194</v>
       </c>
-      <c r="T27" t="s">
+      <c r="V27" t="s">
         <v>195</v>
       </c>
-      <c r="U27" t="s">
-        <v>196</v>
-      </c>
-      <c r="V27" t="s">
-        <v>197</v>
-      </c>
       <c r="W27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD27" t="s">
         <v>212</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AE27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG27" t="s">
         <v>213</v>
       </c>
-      <c r="AD27" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>215</v>
-      </c>
       <c r="AH27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI27">
         <v>30000000</v>
       </c>
       <c r="AJ27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AO27">
         <v>76000000</v>
       </c>
       <c r="AP27" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT27" t="s">
         <v>218</v>
       </c>
-      <c r="AQ27" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS27" t="s">
+      <c r="AU27" t="s">
         <v>219</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>221</v>
       </c>
       <c r="AV27">
         <v>4</v>
       </c>
       <c r="AW27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AX27" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>224</v>
       </c>
       <c r="AZ27" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BA27" t="s">
-        <v>224</v>
+        <v>232</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>233</v>
       </c>
       <c r="BC27" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>245</v>
       </c>
       <c r="BF27" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="BH27" t="s">
-        <v>263</v>
-      </c>
-      <c r="BI27">
+        <v>247</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>273</v>
+      </c>
+      <c r="BK27">
         <v>2.5333</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>276</v>
-      </c>
       <c r="BL27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BM27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BN27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BO27" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>313</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>317</v>
+        <v>293</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>232</v>
       </c>
       <c r="BU27" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="BV27" t="s">
         <v>320</v>
       </c>
       <c r="BW27" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX27" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
